--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73546312811395</v>
+        <v>20.73546312811379</v>
       </c>
       <c r="C2">
-        <v>20.05134717491021</v>
+        <v>20.05134717491029</v>
       </c>
       <c r="D2">
-        <v>9.5440987997469</v>
+        <v>9.544098799746848</v>
       </c>
       <c r="E2">
-        <v>18.9980869235082</v>
+        <v>18.99808692350818</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.99381063495498</v>
+        <v>35.99381063495478</v>
       </c>
       <c r="H2">
-        <v>29.26052439519722</v>
+        <v>29.26052439519707</v>
       </c>
       <c r="I2">
-        <v>10.47445580071286</v>
+        <v>10.47445580071287</v>
       </c>
       <c r="J2">
-        <v>20.08745752370645</v>
+        <v>20.08745752370636</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.21613194724567</v>
+        <v>19.21613194724568</v>
       </c>
       <c r="C3">
-        <v>18.55040753694261</v>
+        <v>18.55040753694258</v>
       </c>
       <c r="D3">
-        <v>8.924544321277988</v>
+        <v>8.924544321277992</v>
       </c>
       <c r="E3">
-        <v>17.5590752690357</v>
+        <v>17.55907526903564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.09392331630138</v>
+        <v>34.09392331630143</v>
       </c>
       <c r="H3">
-        <v>27.95271256042493</v>
+        <v>27.952712560425</v>
       </c>
       <c r="I3">
-        <v>9.725352388248284</v>
+        <v>9.725352388248222</v>
       </c>
       <c r="J3">
-        <v>18.62449099380175</v>
+        <v>18.62449099380174</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.2405193855858</v>
+        <v>18.24051938558587</v>
       </c>
       <c r="C4">
-        <v>17.58989485038874</v>
+        <v>17.58989485038891</v>
       </c>
       <c r="D4">
-        <v>8.534699082421289</v>
+        <v>8.534699082421282</v>
       </c>
       <c r="E4">
-        <v>16.63987637221163</v>
+        <v>16.63987637221173</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91901060484302</v>
+        <v>32.91901060484316</v>
       </c>
       <c r="H4">
-        <v>27.15272752405455</v>
+        <v>27.15272752405463</v>
       </c>
       <c r="I4">
-        <v>9.247838084535442</v>
+        <v>9.247838084535509</v>
       </c>
       <c r="J4">
-        <v>17.68579481908944</v>
+        <v>17.68579481908954</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.831890890946</v>
+        <v>17.83189089094611</v>
       </c>
       <c r="C5">
         <v>17.18835849442587</v>
       </c>
       <c r="D5">
-        <v>8.373480148566287</v>
+        <v>8.373480148566296</v>
       </c>
       <c r="E5">
-        <v>16.2559764016078</v>
+        <v>16.25597640160786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.43825711857935</v>
+        <v>32.43825711857943</v>
       </c>
       <c r="H5">
-        <v>26.8275324197906</v>
+        <v>26.82753241979062</v>
       </c>
       <c r="I5">
-        <v>9.048648040457879</v>
+        <v>9.048648040457929</v>
       </c>
       <c r="J5">
-        <v>17.29278605421732</v>
+        <v>17.29278605421739</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>17.76336198088149</v>
       </c>
       <c r="C6">
-        <v>17.1210635857095</v>
+        <v>17.12106358570948</v>
       </c>
       <c r="D6">
-        <v>8.346569157293207</v>
+        <v>8.346569157293215</v>
       </c>
       <c r="E6">
-        <v>16.19165759950113</v>
+        <v>16.19165759950112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>32.3583161318024</v>
       </c>
       <c r="H6">
-        <v>26.77358539672906</v>
+        <v>26.77358539672907</v>
       </c>
       <c r="I6">
-        <v>9.015290055292276</v>
+        <v>9.015290055292303</v>
       </c>
       <c r="J6">
         <v>17.22688544477925</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.2350536450715</v>
+        <v>18.23505364507159</v>
       </c>
       <c r="C7">
-        <v>17.58452097274869</v>
+        <v>17.58452097274875</v>
       </c>
       <c r="D7">
-        <v>8.532534299138737</v>
+        <v>8.532534299138762</v>
       </c>
       <c r="E7">
-        <v>16.63473713750704</v>
+        <v>16.63473713750697</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.9125346808454</v>
+        <v>32.91253468084533</v>
       </c>
       <c r="H7">
-        <v>27.14833845419903</v>
+        <v>27.14833845419897</v>
       </c>
       <c r="I7">
-        <v>9.24517058264497</v>
+        <v>9.245170582644997</v>
       </c>
       <c r="J7">
-        <v>17.68053740543605</v>
+        <v>17.68053740543609</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22027012880272</v>
+        <v>20.22027012880286</v>
       </c>
       <c r="C8">
-        <v>19.54169095462262</v>
+        <v>19.54169095462258</v>
       </c>
       <c r="D8">
-        <v>9.332431765375114</v>
+        <v>9.332431765375157</v>
       </c>
       <c r="E8">
-        <v>18.50908428812089</v>
+        <v>18.50908428812102</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.34050835417322</v>
+        <v>35.34050835417325</v>
       </c>
       <c r="H8">
-        <v>28.80896849821733</v>
+        <v>28.80896849821734</v>
       </c>
       <c r="I8">
-        <v>10.21969118522994</v>
+        <v>10.21969118522992</v>
       </c>
       <c r="J8">
-        <v>19.59121732668289</v>
+        <v>19.591217326683</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.79012155241305</v>
+        <v>23.79012155241298</v>
       </c>
       <c r="C9">
-        <v>23.08816262533998</v>
+        <v>23.08816262534005</v>
       </c>
       <c r="D9">
-        <v>10.96454243732436</v>
+        <v>10.9645424373242</v>
       </c>
       <c r="E9">
-        <v>21.92054654056605</v>
+        <v>21.92054654056607</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.03702861656196</v>
+        <v>40.0370286165619</v>
       </c>
       <c r="H9">
-        <v>32.09206670570282</v>
+        <v>32.09206670570278</v>
       </c>
       <c r="I9">
-        <v>12.00122077744902</v>
+        <v>12.00122077744912</v>
       </c>
       <c r="J9">
-        <v>23.03342254064288</v>
+        <v>23.03342254064287</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.24173173753083</v>
+        <v>26.24173173753062</v>
       </c>
       <c r="C10">
-        <v>25.54475988364522</v>
+        <v>25.54475988364506</v>
       </c>
       <c r="D10">
-        <v>12.12904450301193</v>
+        <v>12.12904450301185</v>
       </c>
       <c r="E10">
-        <v>24.29679527937346</v>
+        <v>24.29679527937336</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.46349449410983</v>
+        <v>43.46349449410938</v>
       </c>
       <c r="H10">
-        <v>34.53259665891981</v>
+        <v>34.53259665891948</v>
       </c>
       <c r="I10">
         <v>13.24779745751102</v>
       </c>
       <c r="J10">
-        <v>25.40287007309095</v>
+        <v>25.40287007309075</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.32695557124424</v>
+        <v>27.32695557124431</v>
       </c>
       <c r="C11">
-        <v>26.63801849869452</v>
+        <v>26.63801849869448</v>
       </c>
       <c r="D11">
-        <v>12.6469967347642</v>
+        <v>12.64699673476423</v>
       </c>
       <c r="E11">
-        <v>25.35821646100232</v>
+        <v>25.35821646100234</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.02460151765285</v>
+        <v>45.02460151765312</v>
       </c>
       <c r="H11">
-        <v>35.65459998720779</v>
+        <v>35.65459998720799</v>
       </c>
       <c r="I11">
-        <v>13.80612742965315</v>
+        <v>13.80612742965314</v>
       </c>
       <c r="J11">
-        <v>26.4533365193213</v>
+        <v>26.45333651932141</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73431306351407</v>
+        <v>27.73431306351415</v>
       </c>
       <c r="C12">
-        <v>27.04935599837326</v>
+        <v>27.04935599837341</v>
       </c>
       <c r="D12">
-        <v>12.84181496479296</v>
+        <v>12.84181496479294</v>
       </c>
       <c r="E12">
-        <v>25.75824519849389</v>
+        <v>25.758245198494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.61706142536763</v>
+        <v>45.61706142536765</v>
       </c>
       <c r="H12">
         <v>36.08187825328999</v>
       </c>
       <c r="I12">
-        <v>14.01679867317844</v>
+        <v>14.0167986731785</v>
       </c>
       <c r="J12">
-        <v>26.84792009143029</v>
+        <v>26.84792009143034</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64672804454214</v>
+        <v>27.64672804454198</v>
       </c>
       <c r="C13">
-        <v>26.96087008972366</v>
+        <v>26.96087008972351</v>
       </c>
       <c r="D13">
-        <v>12.79990920778624</v>
+        <v>12.79990920778626</v>
       </c>
       <c r="E13">
-        <v>25.67216028253664</v>
+        <v>25.67216028253662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.48938795423078</v>
+        <v>45.48938795423065</v>
       </c>
       <c r="H13">
-        <v>35.98973573419272</v>
+        <v>35.98973573419265</v>
       </c>
       <c r="I13">
-        <v>13.97145130841</v>
+        <v>13.97145130841003</v>
       </c>
       <c r="J13">
-        <v>26.7630686944366</v>
+        <v>26.76306869443646</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36053646417412</v>
+        <v>27.36053646417398</v>
       </c>
       <c r="C14">
-        <v>26.67190732030354</v>
+        <v>26.67190732030345</v>
       </c>
       <c r="D14">
-        <v>12.66304855181028</v>
+        <v>12.66304855181032</v>
       </c>
       <c r="E14">
         <v>25.391159459806</v>
@@ -883,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.07331081945686</v>
+        <v>45.07331081945674</v>
       </c>
       <c r="H14">
-        <v>35.68969945326948</v>
+        <v>35.6896994532694</v>
       </c>
       <c r="I14">
-        <v>13.82347137045303</v>
+        <v>13.82347137045296</v>
       </c>
       <c r="J14">
-        <v>26.48585864241873</v>
+        <v>26.48585864241862</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18479186427412</v>
+        <v>27.18479186427394</v>
       </c>
       <c r="C15">
-        <v>26.49459106063136</v>
+        <v>26.49459106063122</v>
       </c>
       <c r="D15">
-        <v>12.5790581452233</v>
+        <v>12.57905814522325</v>
       </c>
       <c r="E15">
-        <v>25.21881983482501</v>
+        <v>25.21881983482483</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.81865503616626</v>
+        <v>44.81865503616611</v>
       </c>
       <c r="H15">
-        <v>35.50625600861395</v>
+        <v>35.50625600861384</v>
       </c>
       <c r="I15">
-        <v>13.73274764593254</v>
+        <v>13.73274764593244</v>
       </c>
       <c r="J15">
-        <v>26.31566640224341</v>
+        <v>26.31566640224323</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.17026439154214</v>
+        <v>26.17026439154212</v>
       </c>
       <c r="C16">
-        <v>25.47289210737524</v>
+        <v>25.47289210737537</v>
       </c>
       <c r="D16">
-        <v>12.09498836415514</v>
+        <v>12.09498836415517</v>
       </c>
       <c r="E16">
-        <v>24.22710854798446</v>
+        <v>24.22710854798454</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.36159555771159</v>
+        <v>43.36159555771157</v>
       </c>
       <c r="H16">
-        <v>34.45956342891968</v>
+        <v>34.45956342891967</v>
       </c>
       <c r="I16">
-        <v>13.21117377410513</v>
+        <v>13.21117377410514</v>
       </c>
       <c r="J16">
-        <v>25.33372780331634</v>
+        <v>25.33372780331636</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.54066743526918</v>
+        <v>25.54066743526936</v>
       </c>
       <c r="C17">
-        <v>24.84044117906135</v>
+        <v>24.84044117906149</v>
       </c>
       <c r="D17">
-        <v>11.79525306348662</v>
+        <v>11.79525306348675</v>
       </c>
       <c r="E17">
-        <v>23.61430545702666</v>
+        <v>23.61430545702682</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.46893659691423</v>
+        <v>42.46893659691442</v>
       </c>
       <c r="H17">
-        <v>33.82090303187006</v>
+        <v>33.82090303187019</v>
       </c>
       <c r="I17">
-        <v>12.88928991429742</v>
+        <v>12.88928991429747</v>
       </c>
       <c r="J17">
-        <v>24.72480096357329</v>
+        <v>24.72480096357348</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17566315888846</v>
+        <v>25.17566315888839</v>
       </c>
       <c r="C18">
-        <v>24.4743301896281</v>
+        <v>24.47433018962784</v>
       </c>
       <c r="D18">
         <v>11.62171751759278</v>
       </c>
       <c r="E18">
-        <v>23.25993399076075</v>
+        <v>23.2599339907607</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95565358674907</v>
+        <v>41.9556535867488</v>
       </c>
       <c r="H18">
-        <v>33.4546181138457</v>
+        <v>33.4546181138455</v>
       </c>
       <c r="I18">
-        <v>12.7032923130277</v>
+        <v>12.70329231302771</v>
       </c>
       <c r="J18">
-        <v>24.37193125363585</v>
+        <v>24.37193125363571</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05156502718352</v>
+        <v>25.05156502718339</v>
       </c>
       <c r="C19">
-        <v>24.34994633629139</v>
+        <v>24.34994633629128</v>
       </c>
       <c r="D19">
         <v>11.56275604700818</v>
       </c>
       <c r="E19">
-        <v>23.13959842985346</v>
+        <v>23.13959842985348</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.78186638482547</v>
+        <v>41.78186638482551</v>
       </c>
       <c r="H19">
-        <v>33.33076383512061</v>
+        <v>33.33076383512066</v>
       </c>
       <c r="I19">
-        <v>12.64015567793671</v>
+        <v>12.64015567793675</v>
       </c>
       <c r="J19">
-        <v>24.2519835725842</v>
+        <v>24.25198357258408</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.60798203248871</v>
+        <v>25.60798203248856</v>
       </c>
       <c r="C20">
-        <v>24.90800353783221</v>
+        <v>24.90800353783216</v>
       </c>
       <c r="D20">
-        <v>11.82727545835115</v>
+        <v>11.82727545835108</v>
       </c>
       <c r="E20">
-        <v>23.67973042822562</v>
+        <v>23.67973042822554</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.5639400893682</v>
+        <v>42.56394008936817</v>
       </c>
       <c r="H20">
         <v>33.88877589030979</v>
       </c>
       <c r="I20">
-        <v>12.92364055923614</v>
+        <v>12.92364055923611</v>
       </c>
       <c r="J20">
-        <v>24.78988969395126</v>
+        <v>24.78988969395115</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44468889311238</v>
+        <v>27.44468889311234</v>
       </c>
       <c r="C21">
-        <v>26.75684726896955</v>
+        <v>26.75684726896973</v>
       </c>
       <c r="D21">
-        <v>12.70328025840211</v>
+        <v>12.70328025840214</v>
       </c>
       <c r="E21">
-        <v>25.47373986013459</v>
+        <v>25.47373986013457</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.19547818581854</v>
+        <v>45.19547818581852</v>
       </c>
       <c r="H21">
-        <v>35.77775546185394</v>
+        <v>35.77775546185389</v>
       </c>
       <c r="I21">
-        <v>13.86695264494708</v>
+        <v>13.86695264494704</v>
       </c>
       <c r="J21">
-        <v>26.56736234325137</v>
+        <v>26.56736234325139</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62458794815842</v>
+        <v>28.62458794815823</v>
       </c>
       <c r="C22">
-        <v>27.95021479490511</v>
+        <v>27.95021479490493</v>
       </c>
       <c r="D22">
-        <v>13.2683468862351</v>
+        <v>13.26834688623505</v>
       </c>
       <c r="E22">
-        <v>26.63567347858852</v>
+        <v>26.63567347858845</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.9236206642582</v>
+        <v>46.92362066425778</v>
       </c>
       <c r="H22">
-        <v>37.02680956075834</v>
+        <v>37.026809560758</v>
       </c>
       <c r="I22">
-        <v>14.4793725073161</v>
+        <v>14.47937250731604</v>
       </c>
       <c r="J22">
-        <v>27.71081752072832</v>
+        <v>27.71081752072811</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99644962036961</v>
+        <v>27.99644962036956</v>
       </c>
       <c r="C23">
-        <v>27.31433790172517</v>
+        <v>27.31433790172507</v>
       </c>
       <c r="D23">
-        <v>12.96729645822889</v>
+        <v>12.96729645822893</v>
       </c>
       <c r="E23">
-        <v>26.01614231320706</v>
+        <v>26.0161423132071</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.00011749329973</v>
+        <v>46.00011749329955</v>
       </c>
       <c r="H23">
-        <v>36.35854232898102</v>
+        <v>36.35854232898089</v>
       </c>
       <c r="I23">
         <v>14.15269062167579</v>
       </c>
       <c r="J23">
-        <v>27.10191769342589</v>
+        <v>27.10191769342583</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.57755862663108</v>
+        <v>25.57755862663109</v>
       </c>
       <c r="C24">
-        <v>24.87746646324354</v>
+        <v>24.87746646324344</v>
       </c>
       <c r="D24">
-        <v>11.81280194144504</v>
+        <v>11.81280194144506</v>
       </c>
       <c r="E24">
-        <v>23.6501582894599</v>
+        <v>23.65015828945988</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.52098933236596</v>
+        <v>42.52098933236606</v>
       </c>
       <c r="H24">
-        <v>33.85808785052262</v>
+        <v>33.8580878505227</v>
       </c>
       <c r="I24">
-        <v>12.90811360400745</v>
+        <v>12.90811360400738</v>
       </c>
       <c r="J24">
-        <v>24.76047182136788</v>
+        <v>24.76047182136787</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.85654122668876</v>
+        <v>22.85654122668874</v>
       </c>
       <c r="C25">
-        <v>22.15727633587629</v>
+        <v>22.15727633587643</v>
       </c>
       <c r="D25">
         <v>10.52312959310453</v>
       </c>
       <c r="E25">
-        <v>21.023052109684</v>
+        <v>21.02305210968411</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.77252280378135</v>
+        <v>38.77252280378142</v>
       </c>
       <c r="H25">
-        <v>31.20025433272533</v>
+        <v>31.20025433272538</v>
       </c>
       <c r="I25">
-        <v>11.53159677062081</v>
+        <v>11.53159677062086</v>
       </c>
       <c r="J25">
-        <v>22.13236080280901</v>
+        <v>22.13236080280906</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73546312811379</v>
+        <v>20.73546312811395</v>
       </c>
       <c r="C2">
-        <v>20.05134717491029</v>
+        <v>20.05134717491021</v>
       </c>
       <c r="D2">
-        <v>9.544098799746848</v>
+        <v>9.5440987997469</v>
       </c>
       <c r="E2">
-        <v>18.99808692350818</v>
+        <v>18.9980869235082</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.99381063495478</v>
+        <v>35.99381063495498</v>
       </c>
       <c r="H2">
-        <v>29.26052439519707</v>
+        <v>29.26052439519722</v>
       </c>
       <c r="I2">
-        <v>10.47445580071287</v>
+        <v>10.47445580071286</v>
       </c>
       <c r="J2">
-        <v>20.08745752370636</v>
+        <v>20.08745752370645</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.21613194724568</v>
+        <v>19.21613194724567</v>
       </c>
       <c r="C3">
-        <v>18.55040753694258</v>
+        <v>18.55040753694261</v>
       </c>
       <c r="D3">
-        <v>8.924544321277992</v>
+        <v>8.924544321277988</v>
       </c>
       <c r="E3">
-        <v>17.55907526903564</v>
+        <v>17.5590752690357</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.09392331630143</v>
+        <v>34.09392331630138</v>
       </c>
       <c r="H3">
-        <v>27.952712560425</v>
+        <v>27.95271256042493</v>
       </c>
       <c r="I3">
-        <v>9.725352388248222</v>
+        <v>9.725352388248284</v>
       </c>
       <c r="J3">
-        <v>18.62449099380174</v>
+        <v>18.62449099380175</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.24051938558587</v>
+        <v>18.2405193855858</v>
       </c>
       <c r="C4">
-        <v>17.58989485038891</v>
+        <v>17.58989485038874</v>
       </c>
       <c r="D4">
-        <v>8.534699082421282</v>
+        <v>8.534699082421289</v>
       </c>
       <c r="E4">
-        <v>16.63987637221173</v>
+        <v>16.63987637221163</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91901060484316</v>
+        <v>32.91901060484302</v>
       </c>
       <c r="H4">
-        <v>27.15272752405463</v>
+        <v>27.15272752405455</v>
       </c>
       <c r="I4">
-        <v>9.247838084535509</v>
+        <v>9.247838084535442</v>
       </c>
       <c r="J4">
-        <v>17.68579481908954</v>
+        <v>17.68579481908944</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83189089094611</v>
+        <v>17.831890890946</v>
       </c>
       <c r="C5">
         <v>17.18835849442587</v>
       </c>
       <c r="D5">
-        <v>8.373480148566296</v>
+        <v>8.373480148566287</v>
       </c>
       <c r="E5">
-        <v>16.25597640160786</v>
+        <v>16.2559764016078</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.43825711857943</v>
+        <v>32.43825711857935</v>
       </c>
       <c r="H5">
-        <v>26.82753241979062</v>
+        <v>26.8275324197906</v>
       </c>
       <c r="I5">
-        <v>9.048648040457929</v>
+        <v>9.048648040457879</v>
       </c>
       <c r="J5">
-        <v>17.29278605421739</v>
+        <v>17.29278605421732</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>17.76336198088149</v>
       </c>
       <c r="C6">
-        <v>17.12106358570948</v>
+        <v>17.1210635857095</v>
       </c>
       <c r="D6">
-        <v>8.346569157293215</v>
+        <v>8.346569157293207</v>
       </c>
       <c r="E6">
-        <v>16.19165759950112</v>
+        <v>16.19165759950113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>32.3583161318024</v>
       </c>
       <c r="H6">
-        <v>26.77358539672907</v>
+        <v>26.77358539672906</v>
       </c>
       <c r="I6">
-        <v>9.015290055292303</v>
+        <v>9.015290055292276</v>
       </c>
       <c r="J6">
         <v>17.22688544477925</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.23505364507159</v>
+        <v>18.2350536450715</v>
       </c>
       <c r="C7">
-        <v>17.58452097274875</v>
+        <v>17.58452097274869</v>
       </c>
       <c r="D7">
-        <v>8.532534299138762</v>
+        <v>8.532534299138737</v>
       </c>
       <c r="E7">
-        <v>16.63473713750697</v>
+        <v>16.63473713750704</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.91253468084533</v>
+        <v>32.9125346808454</v>
       </c>
       <c r="H7">
-        <v>27.14833845419897</v>
+        <v>27.14833845419903</v>
       </c>
       <c r="I7">
-        <v>9.245170582644997</v>
+        <v>9.24517058264497</v>
       </c>
       <c r="J7">
-        <v>17.68053740543609</v>
+        <v>17.68053740543605</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22027012880286</v>
+        <v>20.22027012880272</v>
       </c>
       <c r="C8">
-        <v>19.54169095462258</v>
+        <v>19.54169095462262</v>
       </c>
       <c r="D8">
-        <v>9.332431765375157</v>
+        <v>9.332431765375114</v>
       </c>
       <c r="E8">
-        <v>18.50908428812102</v>
+        <v>18.50908428812089</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.34050835417325</v>
+        <v>35.34050835417322</v>
       </c>
       <c r="H8">
-        <v>28.80896849821734</v>
+        <v>28.80896849821733</v>
       </c>
       <c r="I8">
-        <v>10.21969118522992</v>
+        <v>10.21969118522994</v>
       </c>
       <c r="J8">
-        <v>19.591217326683</v>
+        <v>19.59121732668289</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.79012155241298</v>
+        <v>23.79012155241305</v>
       </c>
       <c r="C9">
-        <v>23.08816262534005</v>
+        <v>23.08816262533998</v>
       </c>
       <c r="D9">
-        <v>10.9645424373242</v>
+        <v>10.96454243732436</v>
       </c>
       <c r="E9">
-        <v>21.92054654056607</v>
+        <v>21.92054654056605</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.0370286165619</v>
+        <v>40.03702861656196</v>
       </c>
       <c r="H9">
-        <v>32.09206670570278</v>
+        <v>32.09206670570282</v>
       </c>
       <c r="I9">
-        <v>12.00122077744912</v>
+        <v>12.00122077744902</v>
       </c>
       <c r="J9">
-        <v>23.03342254064287</v>
+        <v>23.03342254064288</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.24173173753062</v>
+        <v>26.24173173753083</v>
       </c>
       <c r="C10">
-        <v>25.54475988364506</v>
+        <v>25.54475988364522</v>
       </c>
       <c r="D10">
-        <v>12.12904450301185</v>
+        <v>12.12904450301193</v>
       </c>
       <c r="E10">
-        <v>24.29679527937336</v>
+        <v>24.29679527937346</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.46349449410938</v>
+        <v>43.46349449410983</v>
       </c>
       <c r="H10">
-        <v>34.53259665891948</v>
+        <v>34.53259665891981</v>
       </c>
       <c r="I10">
         <v>13.24779745751102</v>
       </c>
       <c r="J10">
-        <v>25.40287007309075</v>
+        <v>25.40287007309095</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.32695557124431</v>
+        <v>27.32695557124424</v>
       </c>
       <c r="C11">
-        <v>26.63801849869448</v>
+        <v>26.63801849869452</v>
       </c>
       <c r="D11">
-        <v>12.64699673476423</v>
+        <v>12.6469967347642</v>
       </c>
       <c r="E11">
-        <v>25.35821646100234</v>
+        <v>25.35821646100232</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.02460151765312</v>
+        <v>45.02460151765285</v>
       </c>
       <c r="H11">
-        <v>35.65459998720799</v>
+        <v>35.65459998720779</v>
       </c>
       <c r="I11">
-        <v>13.80612742965314</v>
+        <v>13.80612742965315</v>
       </c>
       <c r="J11">
-        <v>26.45333651932141</v>
+        <v>26.4533365193213</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73431306351415</v>
+        <v>27.73431306351407</v>
       </c>
       <c r="C12">
-        <v>27.04935599837341</v>
+        <v>27.04935599837326</v>
       </c>
       <c r="D12">
-        <v>12.84181496479294</v>
+        <v>12.84181496479296</v>
       </c>
       <c r="E12">
-        <v>25.758245198494</v>
+        <v>25.75824519849389</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.61706142536765</v>
+        <v>45.61706142536763</v>
       </c>
       <c r="H12">
         <v>36.08187825328999</v>
       </c>
       <c r="I12">
-        <v>14.0167986731785</v>
+        <v>14.01679867317844</v>
       </c>
       <c r="J12">
-        <v>26.84792009143034</v>
+        <v>26.84792009143029</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64672804454198</v>
+        <v>27.64672804454214</v>
       </c>
       <c r="C13">
-        <v>26.96087008972351</v>
+        <v>26.96087008972366</v>
       </c>
       <c r="D13">
-        <v>12.79990920778626</v>
+        <v>12.79990920778624</v>
       </c>
       <c r="E13">
-        <v>25.67216028253662</v>
+        <v>25.67216028253664</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.48938795423065</v>
+        <v>45.48938795423078</v>
       </c>
       <c r="H13">
-        <v>35.98973573419265</v>
+        <v>35.98973573419272</v>
       </c>
       <c r="I13">
-        <v>13.97145130841003</v>
+        <v>13.97145130841</v>
       </c>
       <c r="J13">
-        <v>26.76306869443646</v>
+        <v>26.7630686944366</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36053646417398</v>
+        <v>27.36053646417412</v>
       </c>
       <c r="C14">
-        <v>26.67190732030345</v>
+        <v>26.67190732030354</v>
       </c>
       <c r="D14">
-        <v>12.66304855181032</v>
+        <v>12.66304855181028</v>
       </c>
       <c r="E14">
         <v>25.391159459806</v>
@@ -883,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.07331081945674</v>
+        <v>45.07331081945686</v>
       </c>
       <c r="H14">
-        <v>35.6896994532694</v>
+        <v>35.68969945326948</v>
       </c>
       <c r="I14">
-        <v>13.82347137045296</v>
+        <v>13.82347137045303</v>
       </c>
       <c r="J14">
-        <v>26.48585864241862</v>
+        <v>26.48585864241873</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18479186427394</v>
+        <v>27.18479186427412</v>
       </c>
       <c r="C15">
-        <v>26.49459106063122</v>
+        <v>26.49459106063136</v>
       </c>
       <c r="D15">
-        <v>12.57905814522325</v>
+        <v>12.5790581452233</v>
       </c>
       <c r="E15">
-        <v>25.21881983482483</v>
+        <v>25.21881983482501</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.81865503616611</v>
+        <v>44.81865503616626</v>
       </c>
       <c r="H15">
-        <v>35.50625600861384</v>
+        <v>35.50625600861395</v>
       </c>
       <c r="I15">
-        <v>13.73274764593244</v>
+        <v>13.73274764593254</v>
       </c>
       <c r="J15">
-        <v>26.31566640224323</v>
+        <v>26.31566640224341</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.17026439154212</v>
+        <v>26.17026439154214</v>
       </c>
       <c r="C16">
-        <v>25.47289210737537</v>
+        <v>25.47289210737524</v>
       </c>
       <c r="D16">
-        <v>12.09498836415517</v>
+        <v>12.09498836415514</v>
       </c>
       <c r="E16">
-        <v>24.22710854798454</v>
+        <v>24.22710854798446</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.36159555771157</v>
+        <v>43.36159555771159</v>
       </c>
       <c r="H16">
-        <v>34.45956342891967</v>
+        <v>34.45956342891968</v>
       </c>
       <c r="I16">
-        <v>13.21117377410514</v>
+        <v>13.21117377410513</v>
       </c>
       <c r="J16">
-        <v>25.33372780331636</v>
+        <v>25.33372780331634</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.54066743526936</v>
+        <v>25.54066743526918</v>
       </c>
       <c r="C17">
-        <v>24.84044117906149</v>
+        <v>24.84044117906135</v>
       </c>
       <c r="D17">
-        <v>11.79525306348675</v>
+        <v>11.79525306348662</v>
       </c>
       <c r="E17">
-        <v>23.61430545702682</v>
+        <v>23.61430545702666</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.46893659691442</v>
+        <v>42.46893659691423</v>
       </c>
       <c r="H17">
-        <v>33.82090303187019</v>
+        <v>33.82090303187006</v>
       </c>
       <c r="I17">
-        <v>12.88928991429747</v>
+        <v>12.88928991429742</v>
       </c>
       <c r="J17">
-        <v>24.72480096357348</v>
+        <v>24.72480096357329</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17566315888839</v>
+        <v>25.17566315888846</v>
       </c>
       <c r="C18">
-        <v>24.47433018962784</v>
+        <v>24.4743301896281</v>
       </c>
       <c r="D18">
         <v>11.62171751759278</v>
       </c>
       <c r="E18">
-        <v>23.2599339907607</v>
+        <v>23.25993399076075</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.9556535867488</v>
+        <v>41.95565358674907</v>
       </c>
       <c r="H18">
-        <v>33.4546181138455</v>
+        <v>33.4546181138457</v>
       </c>
       <c r="I18">
-        <v>12.70329231302771</v>
+        <v>12.7032923130277</v>
       </c>
       <c r="J18">
-        <v>24.37193125363571</v>
+        <v>24.37193125363585</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05156502718339</v>
+        <v>25.05156502718352</v>
       </c>
       <c r="C19">
-        <v>24.34994633629128</v>
+        <v>24.34994633629139</v>
       </c>
       <c r="D19">
         <v>11.56275604700818</v>
       </c>
       <c r="E19">
-        <v>23.13959842985348</v>
+        <v>23.13959842985346</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.78186638482551</v>
+        <v>41.78186638482547</v>
       </c>
       <c r="H19">
-        <v>33.33076383512066</v>
+        <v>33.33076383512061</v>
       </c>
       <c r="I19">
-        <v>12.64015567793675</v>
+        <v>12.64015567793671</v>
       </c>
       <c r="J19">
-        <v>24.25198357258408</v>
+        <v>24.2519835725842</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.60798203248856</v>
+        <v>25.60798203248871</v>
       </c>
       <c r="C20">
-        <v>24.90800353783216</v>
+        <v>24.90800353783221</v>
       </c>
       <c r="D20">
-        <v>11.82727545835108</v>
+        <v>11.82727545835115</v>
       </c>
       <c r="E20">
-        <v>23.67973042822554</v>
+        <v>23.67973042822562</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.56394008936817</v>
+        <v>42.5639400893682</v>
       </c>
       <c r="H20">
         <v>33.88877589030979</v>
       </c>
       <c r="I20">
-        <v>12.92364055923611</v>
+        <v>12.92364055923614</v>
       </c>
       <c r="J20">
-        <v>24.78988969395115</v>
+        <v>24.78988969395126</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44468889311234</v>
+        <v>27.44468889311238</v>
       </c>
       <c r="C21">
-        <v>26.75684726896973</v>
+        <v>26.75684726896955</v>
       </c>
       <c r="D21">
-        <v>12.70328025840214</v>
+        <v>12.70328025840211</v>
       </c>
       <c r="E21">
-        <v>25.47373986013457</v>
+        <v>25.47373986013459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.19547818581852</v>
+        <v>45.19547818581854</v>
       </c>
       <c r="H21">
-        <v>35.77775546185389</v>
+        <v>35.77775546185394</v>
       </c>
       <c r="I21">
-        <v>13.86695264494704</v>
+        <v>13.86695264494708</v>
       </c>
       <c r="J21">
-        <v>26.56736234325139</v>
+        <v>26.56736234325137</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62458794815823</v>
+        <v>28.62458794815842</v>
       </c>
       <c r="C22">
-        <v>27.95021479490493</v>
+        <v>27.95021479490511</v>
       </c>
       <c r="D22">
-        <v>13.26834688623505</v>
+        <v>13.2683468862351</v>
       </c>
       <c r="E22">
-        <v>26.63567347858845</v>
+        <v>26.63567347858852</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.92362066425778</v>
+        <v>46.9236206642582</v>
       </c>
       <c r="H22">
-        <v>37.026809560758</v>
+        <v>37.02680956075834</v>
       </c>
       <c r="I22">
-        <v>14.47937250731604</v>
+        <v>14.4793725073161</v>
       </c>
       <c r="J22">
-        <v>27.71081752072811</v>
+        <v>27.71081752072832</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99644962036956</v>
+        <v>27.99644962036961</v>
       </c>
       <c r="C23">
-        <v>27.31433790172507</v>
+        <v>27.31433790172517</v>
       </c>
       <c r="D23">
-        <v>12.96729645822893</v>
+        <v>12.96729645822889</v>
       </c>
       <c r="E23">
-        <v>26.0161423132071</v>
+        <v>26.01614231320706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.00011749329955</v>
+        <v>46.00011749329973</v>
       </c>
       <c r="H23">
-        <v>36.35854232898089</v>
+        <v>36.35854232898102</v>
       </c>
       <c r="I23">
         <v>14.15269062167579</v>
       </c>
       <c r="J23">
-        <v>27.10191769342583</v>
+        <v>27.10191769342589</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.57755862663109</v>
+        <v>25.57755862663108</v>
       </c>
       <c r="C24">
-        <v>24.87746646324344</v>
+        <v>24.87746646324354</v>
       </c>
       <c r="D24">
-        <v>11.81280194144506</v>
+        <v>11.81280194144504</v>
       </c>
       <c r="E24">
-        <v>23.65015828945988</v>
+        <v>23.6501582894599</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.52098933236606</v>
+        <v>42.52098933236596</v>
       </c>
       <c r="H24">
-        <v>33.8580878505227</v>
+        <v>33.85808785052262</v>
       </c>
       <c r="I24">
-        <v>12.90811360400738</v>
+        <v>12.90811360400745</v>
       </c>
       <c r="J24">
-        <v>24.76047182136787</v>
+        <v>24.76047182136788</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.85654122668874</v>
+        <v>22.85654122668876</v>
       </c>
       <c r="C25">
-        <v>22.15727633587643</v>
+        <v>22.15727633587629</v>
       </c>
       <c r="D25">
         <v>10.52312959310453</v>
       </c>
       <c r="E25">
-        <v>21.02305210968411</v>
+        <v>21.023052109684</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.77252280378142</v>
+        <v>38.77252280378135</v>
       </c>
       <c r="H25">
-        <v>31.20025433272538</v>
+        <v>31.20025433272533</v>
       </c>
       <c r="I25">
-        <v>11.53159677062086</v>
+        <v>11.53159677062081</v>
       </c>
       <c r="J25">
-        <v>22.13236080280906</v>
+        <v>22.13236080280901</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73546312811395</v>
+        <v>20.73476756312292</v>
       </c>
       <c r="C2">
-        <v>20.05134717491021</v>
+        <v>20.04132429671663</v>
       </c>
       <c r="D2">
-        <v>9.5440987997469</v>
+        <v>9.543906358269007</v>
       </c>
       <c r="E2">
-        <v>18.9980869235082</v>
+        <v>18.99758460722959</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.99381063495498</v>
+        <v>35.13016217816647</v>
       </c>
       <c r="H2">
-        <v>29.26052439519722</v>
+        <v>36.03352900824718</v>
       </c>
       <c r="I2">
-        <v>10.47445580071286</v>
+        <v>29.22071605064011</v>
       </c>
       <c r="J2">
-        <v>20.08745752370645</v>
+        <v>10.47420524234736</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.08379756834112</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.21613194724567</v>
+        <v>19.21580143489626</v>
       </c>
       <c r="C3">
-        <v>18.55040753694261</v>
+        <v>18.5412954030755</v>
       </c>
       <c r="D3">
-        <v>8.924544321277988</v>
+        <v>8.924425859914287</v>
       </c>
       <c r="E3">
-        <v>17.5590752690357</v>
+        <v>17.55875022527312</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.09392331630138</v>
+        <v>33.00350754013417</v>
       </c>
       <c r="H3">
-        <v>27.95271256042493</v>
+        <v>34.13212212614356</v>
       </c>
       <c r="I3">
-        <v>9.725352388248284</v>
+        <v>27.91601219053372</v>
       </c>
       <c r="J3">
-        <v>18.62449099380175</v>
+        <v>9.72519184415671</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.62139358144736</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.2405193855858</v>
+        <v>18.24039539280986</v>
       </c>
       <c r="C4">
-        <v>17.58989485038874</v>
+        <v>17.58133762719017</v>
       </c>
       <c r="D4">
-        <v>8.534699082421289</v>
+        <v>8.53461884196566</v>
       </c>
       <c r="E4">
-        <v>16.63987637221163</v>
+        <v>16.63964691038276</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91901060484302</v>
+        <v>31.67443240699457</v>
       </c>
       <c r="H4">
-        <v>27.15272752405455</v>
+        <v>32.95632682681796</v>
       </c>
       <c r="I4">
-        <v>9.247838084535442</v>
+        <v>27.11801358964331</v>
       </c>
       <c r="J4">
-        <v>17.68579481908944</v>
+        <v>9.247725558883873</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.68303425389204</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.831890890946</v>
+        <v>17.83184723430791</v>
       </c>
       <c r="C5">
-        <v>17.18835849442587</v>
+        <v>17.1800269368878</v>
       </c>
       <c r="D5">
-        <v>8.373480148566287</v>
+        <v>8.373413893596849</v>
       </c>
       <c r="E5">
-        <v>16.2559764016078</v>
+        <v>16.25578309436454</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.43825711857935</v>
+        <v>31.12705534093203</v>
       </c>
       <c r="H5">
-        <v>26.8275324197906</v>
+        <v>32.47522747769898</v>
       </c>
       <c r="I5">
-        <v>9.048648040457879</v>
+        <v>26.79364765950272</v>
       </c>
       <c r="J5">
-        <v>17.29278605421732</v>
+        <v>9.048553551091175</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.29016129116562</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.76336198088149</v>
+        <v>17.76333144891418</v>
       </c>
       <c r="C6">
-        <v>17.1210635857095</v>
+        <v>17.11276948675728</v>
       </c>
       <c r="D6">
-        <v>8.346569157293207</v>
+        <v>8.346505134289311</v>
       </c>
       <c r="E6">
-        <v>16.19165759950113</v>
+        <v>16.19147014086779</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.3583161318024</v>
+        <v>31.03582110161174</v>
       </c>
       <c r="H6">
-        <v>26.77358539672906</v>
+        <v>32.39522992697179</v>
       </c>
       <c r="I6">
-        <v>9.015290055292276</v>
+        <v>26.73983950356404</v>
       </c>
       <c r="J6">
-        <v>17.22688544477925</v>
+        <v>9.015198475887548</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.22428316130055</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.2350536450715</v>
+        <v>18.23493075048624</v>
       </c>
       <c r="C7">
-        <v>17.58452097274869</v>
+        <v>17.57596679413768</v>
       </c>
       <c r="D7">
-        <v>8.532534299138737</v>
+        <v>8.532454253470432</v>
       </c>
       <c r="E7">
-        <v>16.63473713750704</v>
+        <v>16.63450817394598</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.9125346808454</v>
+        <v>31.66707340899461</v>
       </c>
       <c r="H7">
-        <v>27.14833845419903</v>
+        <v>32.94984618103518</v>
       </c>
       <c r="I7">
-        <v>9.24517058264497</v>
+        <v>27.11363562281523</v>
       </c>
       <c r="J7">
-        <v>17.68053740543605</v>
+        <v>9.245058306090483</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.67777867681165</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22027012880272</v>
+        <v>20.21970449480603</v>
       </c>
       <c r="C8">
-        <v>19.54169095462262</v>
+        <v>19.5319834104695</v>
       </c>
       <c r="D8">
-        <v>9.332431765375114</v>
+        <v>9.33226647436679</v>
       </c>
       <c r="E8">
-        <v>18.50908428812089</v>
+        <v>18.50864620465583</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.34050835417322</v>
+        <v>34.40173249825433</v>
       </c>
       <c r="H8">
-        <v>28.80896849821733</v>
+        <v>35.37969298139254</v>
       </c>
       <c r="I8">
-        <v>10.21969118522994</v>
+        <v>28.77021570308829</v>
       </c>
       <c r="J8">
-        <v>19.59121732668289</v>
+        <v>10.21947336172591</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.58775355721305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.79012155241305</v>
+        <v>23.78851335912797</v>
       </c>
       <c r="C9">
-        <v>23.08816262533998</v>
+        <v>23.07612222334286</v>
       </c>
       <c r="D9">
-        <v>10.96454243732436</v>
+        <v>10.96406490004956</v>
       </c>
       <c r="E9">
-        <v>21.92054654056605</v>
+        <v>21.91956245645214</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.03702861656196</v>
+        <v>39.58439068033569</v>
       </c>
       <c r="H9">
-        <v>32.09206670570282</v>
+        <v>40.08023801192457</v>
       </c>
       <c r="I9">
-        <v>12.00122077744902</v>
+        <v>32.04597019021233</v>
       </c>
       <c r="J9">
-        <v>23.03342254064288</v>
+        <v>12.00072176392036</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.0284709186631</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.24173173753083</v>
+        <v>26.23918893594163</v>
       </c>
       <c r="C10">
-        <v>25.54475988364522</v>
+        <v>25.53089253100577</v>
       </c>
       <c r="D10">
-        <v>12.12904450301193</v>
+        <v>12.12830995660554</v>
       </c>
       <c r="E10">
-        <v>24.29679527937346</v>
+        <v>24.29527070084568</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.46349449410983</v>
+        <v>43.30296051230136</v>
       </c>
       <c r="H10">
-        <v>34.53259665891981</v>
+        <v>43.50980902434979</v>
       </c>
       <c r="I10">
-        <v>13.24779745751102</v>
+        <v>34.48140767499106</v>
       </c>
       <c r="J10">
-        <v>25.40287007309095</v>
+        <v>13.24701569022681</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.39669531403893</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.32695557124424</v>
+        <v>27.32393140703591</v>
       </c>
       <c r="C11">
-        <v>26.63801849869452</v>
+        <v>26.62327303652614</v>
       </c>
       <c r="D11">
-        <v>12.6469967347642</v>
+        <v>12.64612348238152</v>
       </c>
       <c r="E11">
-        <v>25.35821646100232</v>
+        <v>25.35639741938487</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.02460151765285</v>
+        <v>44.98409935436936</v>
       </c>
       <c r="H11">
-        <v>35.65459998720779</v>
+        <v>45.07234524159659</v>
       </c>
       <c r="I11">
-        <v>13.80612742965315</v>
+        <v>35.60113595622747</v>
       </c>
       <c r="J11">
-        <v>26.4533365193213</v>
+        <v>13.80519039061421</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.44655681558596</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73431306351407</v>
+        <v>27.73109629159018</v>
       </c>
       <c r="C12">
-        <v>27.04935599837326</v>
+        <v>27.03426865350004</v>
       </c>
       <c r="D12">
-        <v>12.84181496479296</v>
+        <v>12.84088511958229</v>
       </c>
       <c r="E12">
-        <v>25.75824519849389</v>
+        <v>25.75630549453855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.61706142536763</v>
+        <v>45.62027570567609</v>
       </c>
       <c r="H12">
-        <v>36.08187825328999</v>
+        <v>45.66534716496339</v>
       </c>
       <c r="I12">
-        <v>14.01679867317844</v>
+        <v>36.0275557418338</v>
       </c>
       <c r="J12">
-        <v>26.84792009143029</v>
+        <v>14.0157978022538</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.84090202207567</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64672804454214</v>
+        <v>27.64355325625748</v>
       </c>
       <c r="C13">
-        <v>26.96087008972366</v>
+        <v>26.94585684163089</v>
       </c>
       <c r="D13">
-        <v>12.79990920778624</v>
+        <v>12.79899174981783</v>
       </c>
       <c r="E13">
-        <v>25.67216028253664</v>
+        <v>25.67024701470305</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.48938795423078</v>
+        <v>45.48326256960474</v>
       </c>
       <c r="H13">
-        <v>35.98973573419272</v>
+        <v>45.53755695447211</v>
       </c>
       <c r="I13">
-        <v>13.97145130841</v>
+        <v>35.93559803419036</v>
       </c>
       <c r="J13">
-        <v>26.7630686944366</v>
+        <v>13.97046443212913</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.75610241835822</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36053646417412</v>
+        <v>27.3574966761622</v>
       </c>
       <c r="C14">
-        <v>26.67190732030354</v>
+        <v>26.65713393653589</v>
       </c>
       <c r="D14">
-        <v>12.66304855181028</v>
+        <v>12.66217073141995</v>
       </c>
       <c r="E14">
-        <v>25.391159459806</v>
+        <v>25.38933068963388</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.07331081945686</v>
+        <v>45.03643940007936</v>
       </c>
       <c r="H14">
-        <v>35.68969945326948</v>
+        <v>45.12109912953701</v>
       </c>
       <c r="I14">
-        <v>13.82347137045303</v>
+        <v>35.63616475408195</v>
       </c>
       <c r="J14">
-        <v>26.48585864241873</v>
+        <v>13.82252918910359</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.4790595299019</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18479186427412</v>
+        <v>27.18183334538576</v>
       </c>
       <c r="C15">
-        <v>26.49459106063136</v>
+        <v>26.47996329121369</v>
       </c>
       <c r="D15">
-        <v>12.5790581452233</v>
+        <v>12.57820404159677</v>
       </c>
       <c r="E15">
-        <v>25.21881983482501</v>
+        <v>25.21704155345093</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.81865503616626</v>
+        <v>44.76272791692197</v>
       </c>
       <c r="H15">
-        <v>35.50625600861395</v>
+        <v>44.86621021480614</v>
       </c>
       <c r="I15">
-        <v>13.73274764593254</v>
+        <v>35.45309095616599</v>
       </c>
       <c r="J15">
-        <v>26.31566640224341</v>
+        <v>13.73183214365545</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.30896839319779</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.17026439154214</v>
+        <v>26.16775173944485</v>
       </c>
       <c r="C16">
-        <v>25.47289210737524</v>
+        <v>25.45908098956843</v>
       </c>
       <c r="D16">
-        <v>12.09498836415514</v>
+        <v>12.09426237038831</v>
       </c>
       <c r="E16">
-        <v>24.22710854798446</v>
+        <v>24.22560206516409</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.36159555771159</v>
+        <v>43.19296804602413</v>
       </c>
       <c r="H16">
-        <v>34.45956342891968</v>
+        <v>43.40781689428145</v>
       </c>
       <c r="I16">
-        <v>13.21117377410513</v>
+        <v>34.4085237295017</v>
       </c>
       <c r="J16">
-        <v>25.33372780331634</v>
+        <v>13.21040152366202</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.32759141928589</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.54066743526918</v>
+        <v>25.53841250446649</v>
       </c>
       <c r="C17">
-        <v>24.84044117906135</v>
+        <v>24.82711738108706</v>
       </c>
       <c r="D17">
-        <v>11.79525306348662</v>
+        <v>11.79459949811417</v>
       </c>
       <c r="E17">
-        <v>23.61430545702666</v>
+        <v>23.61295192521729</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.46893659691423</v>
+        <v>42.22795788579664</v>
       </c>
       <c r="H17">
-        <v>33.82090303187006</v>
+        <v>42.5143429051102</v>
       </c>
       <c r="I17">
-        <v>12.88928991429742</v>
+        <v>33.77117598834336</v>
       </c>
       <c r="J17">
-        <v>24.72480096357329</v>
+        <v>12.88859797623649</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.71899523696031</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17566315888846</v>
+        <v>25.17355133770596</v>
       </c>
       <c r="C18">
-        <v>24.4743301896281</v>
+        <v>24.4612824519475</v>
       </c>
       <c r="D18">
-        <v>11.62171751759278</v>
+        <v>11.62110362954615</v>
       </c>
       <c r="E18">
-        <v>23.25993399076075</v>
+        <v>23.25866402106246</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95565358674907</v>
+        <v>41.67184425393014</v>
       </c>
       <c r="H18">
-        <v>33.4546181138457</v>
+        <v>42.00059278872468</v>
       </c>
       <c r="I18">
-        <v>12.7032923130277</v>
+        <v>33.40565020829521</v>
       </c>
       <c r="J18">
-        <v>24.37193125363585</v>
+        <v>12.70264415066407</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.36631131369908</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05156502718352</v>
+        <v>25.04950083880691</v>
       </c>
       <c r="C19">
-        <v>24.34994633629139</v>
+        <v>24.33699140839261</v>
       </c>
       <c r="D19">
-        <v>11.56275604700818</v>
+        <v>11.56215527681381</v>
       </c>
       <c r="E19">
-        <v>23.13959842985346</v>
+        <v>23.13835605088816</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.78186638482547</v>
+        <v>41.48334316116323</v>
       </c>
       <c r="H19">
-        <v>33.33076383512061</v>
+        <v>41.82664776349804</v>
       </c>
       <c r="I19">
-        <v>12.64015567793671</v>
+        <v>33.28205374587261</v>
       </c>
       <c r="J19">
-        <v>24.2519835725842</v>
+        <v>12.6395219527884</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.24642584168269</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.60798203248871</v>
+        <v>25.60570021149574</v>
       </c>
       <c r="C20">
-        <v>24.90800353783221</v>
+        <v>24.89462831843943</v>
       </c>
       <c r="D20">
-        <v>11.82727545835115</v>
+        <v>11.82661439383165</v>
       </c>
       <c r="E20">
-        <v>23.67973042822562</v>
+        <v>23.67836108468224</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.5639400893682</v>
+        <v>42.33078836238759</v>
       </c>
       <c r="H20">
-        <v>33.88877589030979</v>
+        <v>42.60943299557706</v>
       </c>
       <c r="I20">
-        <v>12.92364055923614</v>
+        <v>33.83890870302898</v>
       </c>
       <c r="J20">
-        <v>24.78988969395126</v>
+        <v>12.92294032955489</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.78404923825314</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44468889311238</v>
+        <v>27.44160975364962</v>
       </c>
       <c r="C21">
-        <v>26.75684726896955</v>
+        <v>26.74200370990858</v>
       </c>
       <c r="D21">
-        <v>12.70328025840211</v>
+        <v>12.70239091479198</v>
       </c>
       <c r="E21">
-        <v>25.47373986013459</v>
+        <v>25.47188654019325</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.19547818581854</v>
+        <v>45.16768386457112</v>
       </c>
       <c r="H21">
-        <v>35.77775546185394</v>
+        <v>45.24337830633421</v>
       </c>
       <c r="I21">
-        <v>13.86695264494708</v>
+        <v>35.72404359262676</v>
       </c>
       <c r="J21">
-        <v>26.56736234325137</v>
+        <v>13.86599748377053</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.56051440447105</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62458794815842</v>
+        <v>28.62092596263354</v>
       </c>
       <c r="C22">
-        <v>27.95021479490511</v>
+        <v>27.9343551981847</v>
       </c>
       <c r="D22">
-        <v>13.2683468862351</v>
+        <v>13.26728397185431</v>
       </c>
       <c r="E22">
-        <v>26.63567347858852</v>
+        <v>26.63344891973824</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.9236206642582</v>
+        <v>47.01996882997391</v>
       </c>
       <c r="H22">
-        <v>37.02680956075834</v>
+        <v>47.01996882997589</v>
       </c>
       <c r="I22">
-        <v>14.4793725073161</v>
+        <v>36.97060052485852</v>
       </c>
       <c r="J22">
-        <v>27.71081752072832</v>
+        <v>14.47822051891895</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.70325540555661</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99644962036961</v>
+        <v>27.99310528625578</v>
       </c>
       <c r="C23">
-        <v>27.31433790172517</v>
+        <v>27.2990268203038</v>
       </c>
       <c r="D23">
-        <v>12.96729645822889</v>
+        <v>12.96632880283132</v>
       </c>
       <c r="E23">
-        <v>26.01614231320706</v>
+        <v>26.0141218309955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.00011749329973</v>
+        <v>46.0310923924005</v>
       </c>
       <c r="H23">
-        <v>36.35854232898102</v>
+        <v>46.04875320186753</v>
       </c>
       <c r="I23">
-        <v>14.15269062167579</v>
+        <v>36.30366588950937</v>
       </c>
       <c r="J23">
-        <v>27.10191769342589</v>
+        <v>14.15164695630884</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.09474279546408</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.57755862663108</v>
+        <v>25.57528897828697</v>
       </c>
       <c r="C24">
-        <v>24.87746646324354</v>
+        <v>24.86411450407942</v>
       </c>
       <c r="D24">
-        <v>11.81280194144504</v>
+        <v>11.81214427333698</v>
       </c>
       <c r="E24">
-        <v>23.6501582894599</v>
+        <v>23.64879610786387</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.52098933236596</v>
+        <v>42.28430288078422</v>
       </c>
       <c r="H24">
-        <v>33.85808785052262</v>
+        <v>42.56644308293811</v>
       </c>
       <c r="I24">
-        <v>12.90811360400745</v>
+        <v>33.80828400808646</v>
       </c>
       <c r="J24">
-        <v>24.76047182136788</v>
+        <v>12.90741713034862</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.75464707995753</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.85654122668876</v>
+        <v>22.85523928130364</v>
       </c>
       <c r="C25">
-        <v>22.15727633587629</v>
+        <v>22.14588073869745</v>
       </c>
       <c r="D25">
-        <v>10.52312959310453</v>
+        <v>10.52273226843454</v>
       </c>
       <c r="E25">
-        <v>21.023052109684</v>
+        <v>21.0222352409675</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.77252280378135</v>
+        <v>38.20021096132931</v>
       </c>
       <c r="H25">
-        <v>31.20025433272533</v>
+        <v>38.8146124932246</v>
       </c>
       <c r="I25">
-        <v>11.53159677062081</v>
+        <v>31.15608508874303</v>
       </c>
       <c r="J25">
-        <v>22.13236080280901</v>
+        <v>11.53118447543635</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.12782887150789</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>12.70700537152226</v>
+      </c>
+      <c r="C2">
+        <v>6.658654963419869</v>
+      </c>
+      <c r="D2">
+        <v>9.245987484491835</v>
+      </c>
+      <c r="E2">
+        <v>8.620906366134751</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>27.0480319777194</v>
+      </c>
+      <c r="H2">
+        <v>10.37759194031617</v>
+      </c>
+      <c r="I2">
+        <v>16.91479621381479</v>
+      </c>
+      <c r="J2">
+        <v>5.213253061263829</v>
+      </c>
+      <c r="K2">
+        <v>10.36280507643918</v>
+      </c>
+      <c r="L2">
+        <v>7.269047710848432</v>
+      </c>
+      <c r="M2">
+        <v>10.27054581040058</v>
+      </c>
+      <c r="N2">
+        <v>13.69558313830937</v>
+      </c>
+      <c r="O2">
+        <v>17.33640353239124</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>11.94700017178525</v>
+      </c>
+      <c r="C3">
+        <v>6.544315699103473</v>
+      </c>
+      <c r="D3">
+        <v>9.0665070228711</v>
+      </c>
+      <c r="E3">
+        <v>8.627158385576852</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>26.92831383406932</v>
+      </c>
+      <c r="H3">
+        <v>10.4415256768167</v>
+      </c>
+      <c r="I3">
+        <v>17.04822938443181</v>
+      </c>
+      <c r="J3">
+        <v>5.227982135575682</v>
+      </c>
+      <c r="K3">
+        <v>9.748499532105114</v>
+      </c>
+      <c r="L3">
+        <v>7.199299139111119</v>
+      </c>
+      <c r="M3">
+        <v>9.983702251700763</v>
+      </c>
+      <c r="N3">
+        <v>13.87575657510109</v>
+      </c>
+      <c r="O3">
+        <v>17.38875737229328</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>11.45768368428149</v>
+      </c>
+      <c r="C4">
+        <v>6.47295647176397</v>
+      </c>
+      <c r="D4">
+        <v>8.959152258976767</v>
+      </c>
+      <c r="E4">
+        <v>8.634249319547466</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>26.87603153931368</v>
+      </c>
+      <c r="H4">
+        <v>10.48546083268705</v>
+      </c>
+      <c r="I4">
+        <v>17.13901898626569</v>
+      </c>
+      <c r="J4">
+        <v>5.237376606778349</v>
+      </c>
+      <c r="K4">
+        <v>9.350596280177333</v>
+      </c>
+      <c r="L4">
+        <v>7.158761217992761</v>
+      </c>
+      <c r="M4">
+        <v>9.806648465713511</v>
+      </c>
+      <c r="N4">
+        <v>13.98910526393447</v>
+      </c>
+      <c r="O4">
+        <v>17.43126835062512</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>11.25271361419362</v>
+      </c>
+      <c r="C5">
+        <v>6.443603750223612</v>
+      </c>
+      <c r="D5">
+        <v>8.916167793372292</v>
+      </c>
+      <c r="E5">
+        <v>8.637943991131973</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>26.85991988209273</v>
+      </c>
+      <c r="H5">
+        <v>10.50451300457004</v>
+      </c>
+      <c r="I5">
+        <v>17.17818248978936</v>
+      </c>
+      <c r="J5">
+        <v>5.241293745501173</v>
+      </c>
+      <c r="K5">
+        <v>9.183270795585839</v>
+      </c>
+      <c r="L5">
+        <v>7.14282406887715</v>
+      </c>
+      <c r="M5">
+        <v>9.734366428112258</v>
+      </c>
+      <c r="N5">
+        <v>14.03599578375647</v>
+      </c>
+      <c r="O5">
+        <v>17.45111974757417</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>11.2183465735765</v>
+      </c>
+      <c r="C6">
+        <v>6.438713761966683</v>
+      </c>
+      <c r="D6">
+        <v>8.909077728748176</v>
+      </c>
+      <c r="E6">
+        <v>8.638605737076924</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>26.85755388497339</v>
+      </c>
+      <c r="H6">
+        <v>10.50774514382236</v>
+      </c>
+      <c r="I6">
+        <v>17.18481461895675</v>
+      </c>
+      <c r="J6">
+        <v>5.241949565488062</v>
+      </c>
+      <c r="K6">
+        <v>9.155175075343875</v>
+      </c>
+      <c r="L6">
+        <v>7.140213076696693</v>
+      </c>
+      <c r="M6">
+        <v>9.722359234969632</v>
+      </c>
+      <c r="N6">
+        <v>14.04382464534259</v>
+      </c>
+      <c r="O6">
+        <v>17.45456645121908</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>11.45494174051007</v>
+      </c>
+      <c r="C7">
+        <v>6.472561694036886</v>
+      </c>
+      <c r="D7">
+        <v>8.958569402353067</v>
+      </c>
+      <c r="E7">
+        <v>8.63429590443627</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>26.87579341819305</v>
+      </c>
+      <c r="H7">
+        <v>10.4857131645109</v>
+      </c>
+      <c r="I7">
+        <v>17.13953846888715</v>
+      </c>
+      <c r="J7">
+        <v>5.2374290742594</v>
+      </c>
+      <c r="K7">
+        <v>9.348360577942676</v>
+      </c>
+      <c r="L7">
+        <v>7.158543917448525</v>
+      </c>
+      <c r="M7">
+        <v>9.8056740362703</v>
+      </c>
+      <c r="N7">
+        <v>13.98973479122916</v>
+      </c>
+      <c r="O7">
+        <v>17.43152594158009</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>12.4497297229659</v>
+      </c>
+      <c r="C8">
+        <v>6.619480357125712</v>
+      </c>
+      <c r="D8">
+        <v>9.183540648953491</v>
+      </c>
+      <c r="E8">
+        <v>8.622379461340737</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>27.00226437997156</v>
+      </c>
+      <c r="H8">
+        <v>10.39864754634438</v>
+      </c>
+      <c r="I8">
+        <v>16.95892652392425</v>
+      </c>
+      <c r="J8">
+        <v>5.218259219027053</v>
+      </c>
+      <c r="K8">
+        <v>10.15530831977442</v>
+      </c>
+      <c r="L8">
+        <v>7.244528070455019</v>
+      </c>
+      <c r="M8">
+        <v>10.17189531291832</v>
+      </c>
+      <c r="N8">
+        <v>13.75715173634424</v>
+      </c>
+      <c r="O8">
+        <v>17.3522561532216</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>14.21636053542719</v>
+      </c>
+      <c r="C9">
+        <v>6.897727223854508</v>
+      </c>
+      <c r="D9">
+        <v>9.645168681770599</v>
+      </c>
+      <c r="E9">
+        <v>8.625380189472411</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>27.42461764279818</v>
+      </c>
+      <c r="H9">
+        <v>10.26638057730286</v>
+      </c>
+      <c r="I9">
+        <v>16.67799669951507</v>
+      </c>
+      <c r="J9">
+        <v>5.183421754705543</v>
+      </c>
+      <c r="K9">
+        <v>11.57249408562419</v>
+      </c>
+      <c r="L9">
+        <v>7.430944336740257</v>
+      </c>
+      <c r="M9">
+        <v>10.87845169682016</v>
+      </c>
+      <c r="N9">
+        <v>13.32190487305744</v>
+      </c>
+      <c r="O9">
+        <v>17.28262086056488</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>15.46552989084336</v>
+      </c>
+      <c r="C10">
+        <v>7.095284563396867</v>
+      </c>
+      <c r="D10">
+        <v>9.993962068687454</v>
+      </c>
+      <c r="E10">
+        <v>8.644425910021996</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>27.84858461965698</v>
+      </c>
+      <c r="H10">
+        <v>10.19458976613492</v>
+      </c>
+      <c r="I10">
+        <v>16.52053141339187</v>
+      </c>
+      <c r="J10">
+        <v>5.159465173987003</v>
+      </c>
+      <c r="K10">
+        <v>12.51249705508443</v>
+      </c>
+      <c r="L10">
+        <v>7.578237223155204</v>
+      </c>
+      <c r="M10">
+        <v>11.38531612918925</v>
+      </c>
+      <c r="N10">
+        <v>13.01374399754361</v>
+      </c>
+      <c r="O10">
+        <v>17.28871653335202</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>16.01562891620183</v>
+      </c>
+      <c r="C11">
+        <v>7.183507415766415</v>
+      </c>
+      <c r="D11">
+        <v>10.15414869063648</v>
+      </c>
+      <c r="E11">
+        <v>8.656908265553737</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>28.06749495952443</v>
+      </c>
+      <c r="H11">
+        <v>10.16788955000358</v>
+      </c>
+      <c r="I11">
+        <v>16.46051889590557</v>
+      </c>
+      <c r="J11">
+        <v>5.148913564467195</v>
+      </c>
+      <c r="K11">
+        <v>12.91820298302585</v>
+      </c>
+      <c r="L11">
+        <v>7.647366056329497</v>
+      </c>
+      <c r="M11">
+        <v>11.61229616202261</v>
+      </c>
+      <c r="N11">
+        <v>12.87582215895635</v>
+      </c>
+      <c r="O11">
+        <v>17.30499516134166</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>16.21944247658506</v>
+      </c>
+      <c r="C12">
+        <v>7.216666438555579</v>
+      </c>
+      <c r="D12">
+        <v>10.21497963365515</v>
+      </c>
+      <c r="E12">
+        <v>8.662196962060776</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>28.15423098104949</v>
+      </c>
+      <c r="H12">
+        <v>10.15867471382866</v>
+      </c>
+      <c r="I12">
+        <v>16.43955234497973</v>
+      </c>
+      <c r="J12">
+        <v>5.14496704490394</v>
+      </c>
+      <c r="K12">
+        <v>13.06869348806111</v>
+      </c>
+      <c r="L12">
+        <v>7.673837918777658</v>
+      </c>
+      <c r="M12">
+        <v>11.69766176277623</v>
+      </c>
+      <c r="N12">
+        <v>12.82389832965281</v>
+      </c>
+      <c r="O12">
+        <v>17.31319007223865</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>16.17574691742712</v>
+      </c>
+      <c r="C13">
+        <v>7.209536307106287</v>
+      </c>
+      <c r="D13">
+        <v>10.20187167639336</v>
+      </c>
+      <c r="E13">
+        <v>8.661032753390007</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>28.13537868002942</v>
+      </c>
+      <c r="H13">
+        <v>10.16061880239891</v>
+      </c>
+      <c r="I13">
+        <v>16.44398819284388</v>
+      </c>
+      <c r="J13">
+        <v>5.145814823303777</v>
+      </c>
+      <c r="K13">
+        <v>13.0364222007888</v>
+      </c>
+      <c r="L13">
+        <v>7.66812382120728</v>
+      </c>
+      <c r="M13">
+        <v>11.67930388237661</v>
+      </c>
+      <c r="N13">
+        <v>12.83506787511082</v>
+      </c>
+      <c r="O13">
+        <v>17.31133343250247</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>16.03248666725868</v>
+      </c>
+      <c r="C14">
+        <v>7.186240485312445</v>
+      </c>
+      <c r="D14">
+        <v>10.15915010425994</v>
+      </c>
+      <c r="E14">
+        <v>8.657332035567759</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>28.0745533345513</v>
+      </c>
+      <c r="H14">
+        <v>10.16711325263341</v>
+      </c>
+      <c r="I14">
+        <v>16.45875819505046</v>
+      </c>
+      <c r="J14">
+        <v>5.148587900772643</v>
+      </c>
+      <c r="K14">
+        <v>12.93064682308246</v>
+      </c>
+      <c r="L14">
+        <v>7.649538079302368</v>
+      </c>
+      <c r="M14">
+        <v>11.61933137472914</v>
+      </c>
+      <c r="N14">
+        <v>12.87154438300428</v>
+      </c>
+      <c r="O14">
+        <v>17.30562815922326</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>15.94415122648562</v>
+      </c>
+      <c r="C15">
+        <v>7.171938346983678</v>
+      </c>
+      <c r="D15">
+        <v>10.13300293647068</v>
+      </c>
+      <c r="E15">
+        <v>8.655138793001397</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>28.03779867481558</v>
+      </c>
+      <c r="H15">
+        <v>10.17120916516044</v>
+      </c>
+      <c r="I15">
+        <v>16.46803699226029</v>
+      </c>
+      <c r="J15">
+        <v>5.150292871350247</v>
+      </c>
+      <c r="K15">
+        <v>12.86544756286433</v>
+      </c>
+      <c r="L15">
+        <v>7.638191764075926</v>
+      </c>
+      <c r="M15">
+        <v>11.58251812011216</v>
+      </c>
+      <c r="N15">
+        <v>12.89392626468335</v>
+      </c>
+      <c r="O15">
+        <v>17.3024005796928</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>15.42894806575688</v>
+      </c>
+      <c r="C16">
+        <v>7.089484776356874</v>
+      </c>
+      <c r="D16">
+        <v>9.983520008727709</v>
+      </c>
+      <c r="E16">
+        <v>8.643688093550299</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>27.83481070324742</v>
+      </c>
+      <c r="H16">
+        <v>10.19645788805724</v>
+      </c>
+      <c r="I16">
+        <v>16.52469461256526</v>
+      </c>
+      <c r="J16">
+        <v>5.160161659839667</v>
+      </c>
+      <c r="K16">
+        <v>12.4855430352679</v>
+      </c>
+      <c r="L16">
+        <v>7.573761284859897</v>
+      </c>
+      <c r="M16">
+        <v>11.3704039621349</v>
+      </c>
+      <c r="N16">
+        <v>13.02280125396501</v>
+      </c>
+      <c r="O16">
+        <v>17.28793201199135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>15.10483341581506</v>
+      </c>
+      <c r="C17">
+        <v>7.038471241620933</v>
+      </c>
+      <c r="D17">
+        <v>9.89217204421975</v>
+      </c>
+      <c r="E17">
+        <v>8.637650606436715</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>27.71702538344308</v>
+      </c>
+      <c r="H17">
+        <v>10.21350045954375</v>
+      </c>
+      <c r="I17">
+        <v>16.56248951535961</v>
+      </c>
+      <c r="J17">
+        <v>5.166304085235493</v>
+      </c>
+      <c r="K17">
+        <v>12.24687780206369</v>
+      </c>
+      <c r="L17">
+        <v>7.53477147006492</v>
+      </c>
+      <c r="M17">
+        <v>11.23930587351775</v>
+      </c>
+      <c r="N17">
+        <v>13.10242658934572</v>
+      </c>
+      <c r="O17">
+        <v>17.28257800727176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>14.91543812902188</v>
+      </c>
+      <c r="C18">
+        <v>7.008975235365751</v>
+      </c>
+      <c r="D18">
+        <v>9.839776705170603</v>
+      </c>
+      <c r="E18">
+        <v>8.634536649148538</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>27.65172498313788</v>
+      </c>
+      <c r="H18">
+        <v>10.22386121744827</v>
+      </c>
+      <c r="I18">
+        <v>16.58531627415419</v>
+      </c>
+      <c r="J18">
+        <v>5.169869686727811</v>
+      </c>
+      <c r="K18">
+        <v>12.10754112740497</v>
+      </c>
+      <c r="L18">
+        <v>7.512546220090481</v>
+      </c>
+      <c r="M18">
+        <v>11.16356701699146</v>
+      </c>
+      <c r="N18">
+        <v>13.14843922278001</v>
+      </c>
+      <c r="O18">
+        <v>17.28076443583932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>14.85080026057002</v>
+      </c>
+      <c r="C19">
+        <v>6.998962275057248</v>
+      </c>
+      <c r="D19">
+        <v>9.822063014273594</v>
+      </c>
+      <c r="E19">
+        <v>8.63354352122481</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>27.63003255500632</v>
+      </c>
+      <c r="H19">
+        <v>10.22746391722336</v>
+      </c>
+      <c r="I19">
+        <v>16.59322929546061</v>
+      </c>
+      <c r="J19">
+        <v>5.171082564231559</v>
+      </c>
+      <c r="K19">
+        <v>12.06000966171856</v>
+      </c>
+      <c r="L19">
+        <v>7.505055936332663</v>
+      </c>
+      <c r="M19">
+        <v>11.13786790940154</v>
+      </c>
+      <c r="N19">
+        <v>13.1640557320685</v>
+      </c>
+      <c r="O19">
+        <v>17.28036512126082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>15.13964338307849</v>
+      </c>
+      <c r="C20">
+        <v>7.043917788938578</v>
+      </c>
+      <c r="D20">
+        <v>9.9018814690602</v>
+      </c>
+      <c r="E20">
+        <v>8.638256095430959</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>27.7293099029311</v>
+      </c>
+      <c r="H20">
+        <v>10.21162818590236</v>
+      </c>
+      <c r="I20">
+        <v>16.55835294161877</v>
+      </c>
+      <c r="J20">
+        <v>5.165646840122317</v>
+      </c>
+      <c r="K20">
+        <v>12.27249756256523</v>
+      </c>
+      <c r="L20">
+        <v>7.538901315923348</v>
+      </c>
+      <c r="M20">
+        <v>11.25329665959834</v>
+      </c>
+      <c r="N20">
+        <v>13.09392831213978</v>
+      </c>
+      <c r="O20">
+        <v>17.2830162931919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>16.07468738900475</v>
+      </c>
+      <c r="C21">
+        <v>7.193089883062161</v>
+      </c>
+      <c r="D21">
+        <v>10.17169416251524</v>
+      </c>
+      <c r="E21">
+        <v>8.658403674845195</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>28.09231431392443</v>
+      </c>
+      <c r="H21">
+        <v>10.16518103782221</v>
+      </c>
+      <c r="I21">
+        <v>16.45437142900977</v>
+      </c>
+      <c r="J21">
+        <v>5.147772052184624</v>
+      </c>
+      <c r="K21">
+        <v>12.96180078483097</v>
+      </c>
+      <c r="L21">
+        <v>7.65498926560622</v>
+      </c>
+      <c r="M21">
+        <v>11.63696319845016</v>
+      </c>
+      <c r="N21">
+        <v>12.86082226694626</v>
+      </c>
+      <c r="O21">
+        <v>17.30724812216031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>16.65960056264392</v>
+      </c>
+      <c r="C22">
+        <v>7.289126054573806</v>
+      </c>
+      <c r="D22">
+        <v>10.3490138402385</v>
+      </c>
+      <c r="E22">
+        <v>8.674852311643358</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>28.35197420766286</v>
+      </c>
+      <c r="H22">
+        <v>10.14006691643605</v>
+      </c>
+      <c r="I22">
+        <v>16.39670949939752</v>
+      </c>
+      <c r="J22">
+        <v>5.136375994556333</v>
+      </c>
+      <c r="K22">
+        <v>13.39399614167996</v>
+      </c>
+      <c r="L22">
+        <v>7.732569486571987</v>
+      </c>
+      <c r="M22">
+        <v>11.88426407036189</v>
+      </c>
+      <c r="N22">
+        <v>12.71023635546324</v>
+      </c>
+      <c r="O22">
+        <v>17.33496171503721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>16.34980408866943</v>
+      </c>
+      <c r="C23">
+        <v>7.238006697969662</v>
+      </c>
+      <c r="D23">
+        <v>10.25429985890033</v>
+      </c>
+      <c r="E23">
+        <v>8.665768950697084</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>28.21130939564886</v>
+      </c>
+      <c r="H23">
+        <v>10.15297775424876</v>
+      </c>
+      <c r="I23">
+        <v>16.42651248325278</v>
+      </c>
+      <c r="J23">
+        <v>5.142432321982882</v>
+      </c>
+      <c r="K23">
+        <v>13.16499619798345</v>
+      </c>
+      <c r="L23">
+        <v>7.691010714226966</v>
+      </c>
+      <c r="M23">
+        <v>11.75261147273863</v>
+      </c>
+      <c r="N23">
+        <v>12.79045290493109</v>
+      </c>
+      <c r="O23">
+        <v>17.31905447792894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>15.1239153232908</v>
+      </c>
+      <c r="C24">
+        <v>7.041455926131871</v>
+      </c>
+      <c r="D24">
+        <v>9.897491455066165</v>
+      </c>
+      <c r="E24">
+        <v>8.637981242622072</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>27.72374855377703</v>
+      </c>
+      <c r="H24">
+        <v>10.21247289090382</v>
+      </c>
+      <c r="I24">
+        <v>16.56021967330475</v>
+      </c>
+      <c r="J24">
+        <v>5.165943873940349</v>
+      </c>
+      <c r="K24">
+        <v>12.26092148788207</v>
+      </c>
+      <c r="L24">
+        <v>7.53703361834982</v>
+      </c>
+      <c r="M24">
+        <v>11.24697256861557</v>
+      </c>
+      <c r="N24">
+        <v>13.09776964981027</v>
+      </c>
+      <c r="O24">
+        <v>17.28281421213646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>13.75864865647636</v>
+      </c>
+      <c r="C25">
+        <v>6.823602482782746</v>
+      </c>
+      <c r="D25">
+        <v>9.518391103142289</v>
+      </c>
+      <c r="E25">
+        <v>8.621665715904463</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>27.29089224117712</v>
+      </c>
+      <c r="H25">
+        <v>10.2978499294644</v>
+      </c>
+      <c r="I25">
+        <v>16.74572604726717</v>
+      </c>
+      <c r="J25">
+        <v>5.192555500942564</v>
+      </c>
+      <c r="K25">
+        <v>11.20687604022048</v>
+      </c>
+      <c r="L25">
+        <v>7.378658925555411</v>
+      </c>
+      <c r="M25">
+        <v>10.6891126568558</v>
+      </c>
+      <c r="N25">
+        <v>13.43752875613587</v>
+      </c>
+      <c r="O25">
+        <v>17.29176464339894</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70700537152226</v>
+        <v>13.13823038285578</v>
       </c>
       <c r="C2">
-        <v>6.658654963419869</v>
+        <v>7.807358756144827</v>
       </c>
       <c r="D2">
-        <v>9.245987484491835</v>
+        <v>13.87495733522831</v>
       </c>
       <c r="E2">
-        <v>8.620906366134751</v>
+        <v>14.52678525170448</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.0480319777194</v>
+        <v>40.19547497419473</v>
       </c>
       <c r="H2">
-        <v>10.37759194031617</v>
+        <v>17.29767459852563</v>
       </c>
       <c r="I2">
-        <v>16.91479621381479</v>
+        <v>27.52680485717478</v>
       </c>
       <c r="J2">
-        <v>5.213253061263829</v>
+        <v>8.753907274897225</v>
       </c>
       <c r="K2">
-        <v>10.36280507643918</v>
+        <v>10.17748690347045</v>
       </c>
       <c r="L2">
-        <v>7.269047710848432</v>
+        <v>12.12536938083503</v>
       </c>
       <c r="M2">
-        <v>10.27054581040058</v>
+        <v>15.84325848523866</v>
       </c>
       <c r="N2">
-        <v>13.69558313830937</v>
+        <v>21.1828925681082</v>
       </c>
       <c r="O2">
-        <v>17.33640353239124</v>
+        <v>27.82080665318792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94700017178525</v>
+        <v>12.95814529929986</v>
       </c>
       <c r="C3">
-        <v>6.544315699103473</v>
+        <v>7.77280452275366</v>
       </c>
       <c r="D3">
-        <v>9.0665070228711</v>
+        <v>13.87701043042923</v>
       </c>
       <c r="E3">
-        <v>8.627158385576852</v>
+        <v>14.55407055206351</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.92831383406932</v>
+        <v>40.29792446131367</v>
       </c>
       <c r="H3">
-        <v>10.4415256768167</v>
+        <v>17.34275106650093</v>
       </c>
       <c r="I3">
-        <v>17.04822938443181</v>
+        <v>27.6112902645562</v>
       </c>
       <c r="J3">
-        <v>5.227982135575682</v>
+        <v>8.759661083642214</v>
       </c>
       <c r="K3">
-        <v>9.748499532105114</v>
+        <v>10.04542981641291</v>
       </c>
       <c r="L3">
-        <v>7.199299139111119</v>
+        <v>12.13597281332296</v>
       </c>
       <c r="M3">
-        <v>9.983702251700763</v>
+        <v>15.82173663193301</v>
       </c>
       <c r="N3">
-        <v>13.87575657510109</v>
+        <v>21.23867389789693</v>
       </c>
       <c r="O3">
-        <v>17.38875737229328</v>
+        <v>27.89761913065996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45768368428149</v>
+        <v>12.8484040460483</v>
       </c>
       <c r="C4">
-        <v>6.47295647176397</v>
+        <v>7.751257394476911</v>
       </c>
       <c r="D4">
-        <v>8.959152258976767</v>
+        <v>13.88055123885333</v>
       </c>
       <c r="E4">
-        <v>8.634249319547466</v>
+        <v>14.57239439756709</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.87603153931368</v>
+        <v>40.36926423142283</v>
       </c>
       <c r="H4">
-        <v>10.48546083268705</v>
+        <v>17.37254339695359</v>
       </c>
       <c r="I4">
-        <v>17.13901898626569</v>
+        <v>27.66703585494276</v>
       </c>
       <c r="J4">
-        <v>5.237376606778349</v>
+        <v>8.763388853370291</v>
       </c>
       <c r="K4">
-        <v>9.350596280177333</v>
+        <v>9.964911915044798</v>
       </c>
       <c r="L4">
-        <v>7.158761217992761</v>
+        <v>12.14384019055498</v>
       </c>
       <c r="M4">
-        <v>9.806648465713511</v>
+        <v>15.81044384172278</v>
       </c>
       <c r="N4">
-        <v>13.98910526393447</v>
+        <v>21.27455724653709</v>
       </c>
       <c r="O4">
-        <v>17.43126835062512</v>
+        <v>27.94909309914481</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25271361419362</v>
+        <v>12.80394453801111</v>
       </c>
       <c r="C5">
-        <v>6.443603750223612</v>
+        <v>7.742395876559402</v>
       </c>
       <c r="D5">
-        <v>8.916167793372292</v>
+        <v>13.88256888260086</v>
       </c>
       <c r="E5">
-        <v>8.637943991131973</v>
+        <v>14.58025700585105</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.85991988209273</v>
+        <v>40.40045365885788</v>
       </c>
       <c r="H5">
-        <v>10.50451300457004</v>
+        <v>17.38521641719553</v>
       </c>
       <c r="I5">
-        <v>17.17818248978936</v>
+        <v>27.69072664538896</v>
       </c>
       <c r="J5">
-        <v>5.241293745501173</v>
+        <v>8.764957095998945</v>
       </c>
       <c r="K5">
-        <v>9.183270795585839</v>
+        <v>9.932278434347454</v>
       </c>
       <c r="L5">
-        <v>7.14282406887715</v>
+        <v>12.14738809654819</v>
       </c>
       <c r="M5">
-        <v>9.734366428112258</v>
+        <v>15.80632897885533</v>
       </c>
       <c r="N5">
-        <v>14.03599578375647</v>
+        <v>21.28959189166104</v>
       </c>
       <c r="O5">
-        <v>17.45111974757417</v>
+        <v>27.97115306527174</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.2183465735765</v>
+        <v>12.79657934115597</v>
       </c>
       <c r="C6">
-        <v>6.438713761966683</v>
+        <v>7.740919608819767</v>
       </c>
       <c r="D6">
-        <v>8.909077728748176</v>
+        <v>13.88293865906824</v>
       </c>
       <c r="E6">
-        <v>8.638605737076924</v>
+        <v>14.58158648904925</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.85755388497339</v>
+        <v>40.4057604539439</v>
       </c>
       <c r="H6">
-        <v>10.50774514382236</v>
+        <v>17.38735293374274</v>
       </c>
       <c r="I6">
-        <v>17.18481461895675</v>
+        <v>27.69471932760135</v>
       </c>
       <c r="J6">
-        <v>5.241949565488062</v>
+        <v>8.765220473778369</v>
       </c>
       <c r="K6">
-        <v>9.155175075343875</v>
+        <v>9.926871481676262</v>
       </c>
       <c r="L6">
-        <v>7.140213076696693</v>
+        <v>12.14799789235765</v>
       </c>
       <c r="M6">
-        <v>9.722359234969632</v>
+        <v>15.80567523159847</v>
       </c>
       <c r="N6">
-        <v>14.04382464534259</v>
+        <v>21.29211329430062</v>
       </c>
       <c r="O6">
-        <v>17.45456645121908</v>
+        <v>27.97488156828944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.45494174051007</v>
+        <v>12.84780332471554</v>
       </c>
       <c r="C7">
-        <v>6.472561694036886</v>
+        <v>7.75113820947364</v>
       </c>
       <c r="D7">
-        <v>8.958569402353067</v>
+        <v>13.88057612077017</v>
       </c>
       <c r="E7">
-        <v>8.63429590443627</v>
+        <v>14.57249883337349</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.87579341819305</v>
+        <v>40.36967629220904</v>
       </c>
       <c r="H7">
-        <v>10.4857131645109</v>
+        <v>17.37271215336283</v>
       </c>
       <c r="I7">
-        <v>17.13953846888715</v>
+        <v>27.66735141274418</v>
       </c>
       <c r="J7">
-        <v>5.2374290742594</v>
+        <v>8.763409804067139</v>
       </c>
       <c r="K7">
-        <v>9.348360577942676</v>
+        <v>9.964471039509482</v>
       </c>
       <c r="L7">
-        <v>7.158543917448525</v>
+        <v>12.14388665367459</v>
       </c>
       <c r="M7">
-        <v>9.8056740362703</v>
+        <v>15.81038637038037</v>
       </c>
       <c r="N7">
-        <v>13.98973479122916</v>
+        <v>21.27475833975321</v>
       </c>
       <c r="O7">
-        <v>17.43152594158009</v>
+        <v>27.94938621899192</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4497297229659</v>
+        <v>13.07599552892477</v>
       </c>
       <c r="C8">
-        <v>6.619480357125712</v>
+        <v>7.795514448987904</v>
       </c>
       <c r="D8">
-        <v>9.183540648953491</v>
+        <v>13.87519286287944</v>
       </c>
       <c r="E8">
-        <v>8.622379461340737</v>
+        <v>14.53586759384286</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.00226437997156</v>
+        <v>40.22904693115706</v>
       </c>
       <c r="H8">
-        <v>10.39864754634438</v>
+        <v>17.31277826931494</v>
       </c>
       <c r="I8">
-        <v>16.95892652392425</v>
+        <v>27.55513229602013</v>
       </c>
       <c r="J8">
-        <v>5.218259219027053</v>
+        <v>8.755850816424434</v>
       </c>
       <c r="K8">
-        <v>10.15530831977442</v>
+        <v>10.13185782387916</v>
       </c>
       <c r="L8">
-        <v>7.244528070455019</v>
+        <v>12.1287442666152</v>
       </c>
       <c r="M8">
-        <v>10.17189531291832</v>
+        <v>15.83544125270522</v>
       </c>
       <c r="N8">
-        <v>13.75715173634424</v>
+        <v>21.20178766306713</v>
       </c>
       <c r="O8">
-        <v>17.3522561532216</v>
+        <v>27.84639685202651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.21636053542719</v>
+        <v>13.52780562752132</v>
       </c>
       <c r="C9">
-        <v>6.897727223854508</v>
+        <v>7.879814281946554</v>
       </c>
       <c r="D9">
-        <v>9.645168681770599</v>
+        <v>13.8826614695203</v>
       </c>
       <c r="E9">
-        <v>8.625380189472411</v>
+        <v>14.47647055339541</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.42461764279818</v>
+        <v>40.02033859486816</v>
       </c>
       <c r="H9">
-        <v>10.26638057730286</v>
+        <v>17.21200795052891</v>
       </c>
       <c r="I9">
-        <v>16.67799669951507</v>
+        <v>27.36576188387748</v>
       </c>
       <c r="J9">
-        <v>5.183421754705543</v>
+        <v>8.742568008470226</v>
       </c>
       <c r="K9">
-        <v>11.57249408562419</v>
+        <v>10.46301064246438</v>
       </c>
       <c r="L9">
-        <v>7.430944336740257</v>
+        <v>12.1097842501899</v>
       </c>
       <c r="M9">
-        <v>10.87845169682016</v>
+        <v>15.89964583263065</v>
       </c>
       <c r="N9">
-        <v>13.32190487305744</v>
+        <v>21.07159872768863</v>
       </c>
       <c r="O9">
-        <v>17.28262086056488</v>
+        <v>27.67864216790522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.46552989084336</v>
+        <v>13.8593717533497</v>
       </c>
       <c r="C10">
-        <v>7.095284563396867</v>
+        <v>7.939961166734485</v>
       </c>
       <c r="D10">
-        <v>9.993962068687454</v>
+        <v>13.89903609220496</v>
       </c>
       <c r="E10">
-        <v>8.644425910021996</v>
+        <v>14.44037925509579</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.84858461965698</v>
+        <v>39.90805290686478</v>
       </c>
       <c r="H10">
-        <v>10.19458976613492</v>
+        <v>17.14815727042449</v>
       </c>
       <c r="I10">
-        <v>16.52053141339187</v>
+        <v>27.24530637806031</v>
       </c>
       <c r="J10">
-        <v>5.159465173987003</v>
+        <v>8.733739535895813</v>
       </c>
       <c r="K10">
-        <v>12.51249705508443</v>
+        <v>10.70598051387001</v>
       </c>
       <c r="L10">
-        <v>7.578237223155204</v>
+        <v>12.10235430570988</v>
       </c>
       <c r="M10">
-        <v>11.38531612918925</v>
+        <v>15.95575703159552</v>
       </c>
       <c r="N10">
-        <v>13.01374399754361</v>
+        <v>20.98374034087842</v>
       </c>
       <c r="O10">
-        <v>17.28871653335202</v>
+        <v>27.5762493490323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.01562891620183</v>
+        <v>14.00950440042182</v>
       </c>
       <c r="C11">
-        <v>7.183507415766415</v>
+        <v>7.966907859576136</v>
       </c>
       <c r="D11">
-        <v>10.15414869063648</v>
+        <v>13.90882337432907</v>
       </c>
       <c r="E11">
-        <v>8.656908265553737</v>
+        <v>14.42559188790489</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.06749495952443</v>
+        <v>39.8659140975099</v>
       </c>
       <c r="H11">
-        <v>10.16788955000358</v>
+        <v>17.12131484682416</v>
       </c>
       <c r="I11">
-        <v>16.46051889590557</v>
+        <v>27.19455590520832</v>
       </c>
       <c r="J11">
-        <v>5.148913564467195</v>
+        <v>8.729923432246487</v>
       </c>
       <c r="K11">
-        <v>12.91820298302585</v>
+        <v>10.81600687933752</v>
       </c>
       <c r="L11">
-        <v>7.647366056329497</v>
+        <v>12.10037540516027</v>
       </c>
       <c r="M11">
-        <v>11.61229616202261</v>
+        <v>15.98316695436099</v>
       </c>
       <c r="N11">
-        <v>12.87582215895635</v>
+        <v>20.94544678191913</v>
       </c>
       <c r="O11">
-        <v>17.30499516134166</v>
+        <v>27.53419709472736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.21944247658506</v>
+        <v>14.06620493718457</v>
       </c>
       <c r="C12">
-        <v>7.216666438555579</v>
+        <v>7.977049892236162</v>
       </c>
       <c r="D12">
-        <v>10.21497963365515</v>
+        <v>13.91286320627099</v>
       </c>
       <c r="E12">
-        <v>8.662196962060776</v>
+        <v>14.42022617945449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.15423098104949</v>
+        <v>39.8512445505151</v>
       </c>
       <c r="H12">
-        <v>10.15867471382866</v>
+        <v>17.11146668931854</v>
       </c>
       <c r="I12">
-        <v>16.43955234497973</v>
+        <v>27.17591925485298</v>
       </c>
       <c r="J12">
-        <v>5.14496704490394</v>
+        <v>8.728506996843965</v>
       </c>
       <c r="K12">
-        <v>13.06869348806111</v>
+        <v>10.85756347828569</v>
       </c>
       <c r="L12">
-        <v>7.673837918777658</v>
+        <v>12.09982655036182</v>
       </c>
       <c r="M12">
-        <v>11.69766176277623</v>
+        <v>15.99381207171144</v>
       </c>
       <c r="N12">
-        <v>12.82389832965281</v>
+        <v>20.93118547531897</v>
       </c>
       <c r="O12">
-        <v>17.31319007223865</v>
+        <v>27.5189239321594</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.17574691742712</v>
+        <v>14.05400099191794</v>
       </c>
       <c r="C13">
-        <v>7.209536307106287</v>
+        <v>7.974868425501731</v>
       </c>
       <c r="D13">
-        <v>10.20187167639336</v>
+        <v>13.91197836395324</v>
       </c>
       <c r="E13">
-        <v>8.661032753390007</v>
+        <v>14.42137138487629</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.13537868002942</v>
+        <v>39.85434661246936</v>
       </c>
       <c r="H13">
-        <v>10.16061880239891</v>
+        <v>17.11357359657304</v>
       </c>
       <c r="I13">
-        <v>16.44398819284388</v>
+        <v>27.17990713482277</v>
       </c>
       <c r="J13">
-        <v>5.145814823303777</v>
+        <v>8.728810779690233</v>
       </c>
       <c r="K13">
-        <v>13.0364222007888</v>
+        <v>10.84861888368851</v>
       </c>
       <c r="L13">
-        <v>7.66812382120728</v>
+        <v>12.09993585397699</v>
       </c>
       <c r="M13">
-        <v>11.67930388237661</v>
+        <v>15.99150773274788</v>
       </c>
       <c r="N13">
-        <v>12.83506787511082</v>
+        <v>20.93424626152432</v>
       </c>
       <c r="O13">
-        <v>17.31133343250247</v>
+        <v>27.52218432028394</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.03248666725868</v>
+        <v>14.01417250906136</v>
       </c>
       <c r="C14">
-        <v>7.186240485312445</v>
+        <v>7.967743509492635</v>
       </c>
       <c r="D14">
-        <v>10.15915010425994</v>
+        <v>13.90914906391445</v>
       </c>
       <c r="E14">
-        <v>8.657332035567759</v>
+        <v>14.42514576241428</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.0745533345513</v>
+        <v>39.86468141229793</v>
       </c>
       <c r="H14">
-        <v>10.16711325263341</v>
+        <v>17.1204982923342</v>
       </c>
       <c r="I14">
-        <v>16.45875819505046</v>
+        <v>27.1930110050766</v>
       </c>
       <c r="J14">
-        <v>5.148587900772643</v>
+        <v>8.729806327951877</v>
       </c>
       <c r="K14">
-        <v>12.93064682308246</v>
+        <v>10.81942813168331</v>
       </c>
       <c r="L14">
-        <v>7.649538079302368</v>
+        <v>12.10032623763341</v>
       </c>
       <c r="M14">
-        <v>11.61933137472914</v>
+        <v>15.98403744402453</v>
       </c>
       <c r="N14">
-        <v>12.87154438300428</v>
+        <v>20.9442686989427</v>
       </c>
       <c r="O14">
-        <v>17.30562815922326</v>
+        <v>27.53292751234046</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.94415122648562</v>
+        <v>13.98975520570467</v>
       </c>
       <c r="C15">
-        <v>7.171938346983678</v>
+        <v>7.963371131952039</v>
       </c>
       <c r="D15">
-        <v>10.13300293647068</v>
+        <v>13.90745939782577</v>
       </c>
       <c r="E15">
-        <v>8.655138793001397</v>
+        <v>14.42748812777002</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.03779867481558</v>
+        <v>39.87117949519382</v>
       </c>
       <c r="H15">
-        <v>10.17120916516044</v>
+        <v>17.12478107281585</v>
       </c>
       <c r="I15">
-        <v>16.46803699226029</v>
+        <v>27.20111321854973</v>
       </c>
       <c r="J15">
-        <v>5.150292871350247</v>
+        <v>8.730419856228758</v>
       </c>
       <c r="K15">
-        <v>12.86544756286433</v>
+        <v>10.80153284311194</v>
       </c>
       <c r="L15">
-        <v>7.638191764075926</v>
+        <v>12.10059144228523</v>
       </c>
       <c r="M15">
-        <v>11.58251812011216</v>
+        <v>15.97949609681841</v>
       </c>
       <c r="N15">
-        <v>12.89392626468335</v>
+        <v>20.95043890794673</v>
       </c>
       <c r="O15">
-        <v>17.3024005796928</v>
+        <v>27.53959282621632</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42894806575688</v>
+        <v>13.8495417808381</v>
       </c>
       <c r="C16">
-        <v>7.089484776356874</v>
+        <v>7.938191583762576</v>
       </c>
       <c r="D16">
-        <v>9.983520008727709</v>
+        <v>13.89844330278819</v>
       </c>
       <c r="E16">
-        <v>8.643688093550299</v>
+        <v>14.44137841213701</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.83481070324742</v>
+        <v>39.91098685258995</v>
       </c>
       <c r="H16">
-        <v>10.19645788805724</v>
+        <v>17.14995579446801</v>
       </c>
       <c r="I16">
-        <v>16.52469461256526</v>
+        <v>27.24870442078196</v>
       </c>
       <c r="J16">
-        <v>5.160161659839667</v>
+        <v>8.733992941611751</v>
       </c>
       <c r="K16">
-        <v>12.4855430352679</v>
+        <v>10.69877684717954</v>
       </c>
       <c r="L16">
-        <v>7.573761284859897</v>
+        <v>12.10251174333649</v>
       </c>
       <c r="M16">
-        <v>11.3704039621349</v>
+        <v>15.95400319334056</v>
       </c>
       <c r="N16">
-        <v>13.02280125396501</v>
+        <v>20.98627650444534</v>
       </c>
       <c r="O16">
-        <v>17.28793201199135</v>
+        <v>27.57908866829699</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.10483341581506</v>
+        <v>13.76330970850048</v>
       </c>
       <c r="C17">
-        <v>7.038471241620933</v>
+        <v>7.922636821125686</v>
       </c>
       <c r="D17">
-        <v>9.89217204421975</v>
+        <v>13.89350932034737</v>
       </c>
       <c r="E17">
-        <v>8.637650606436715</v>
+        <v>14.45031693553438</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.71702538344308</v>
+        <v>39.93769872002196</v>
       </c>
       <c r="H17">
-        <v>10.21350045954375</v>
+        <v>17.16596378375575</v>
       </c>
       <c r="I17">
-        <v>16.56248951535961</v>
+        <v>27.27893600135441</v>
       </c>
       <c r="J17">
-        <v>5.166304085235493</v>
+        <v>8.736236055118686</v>
       </c>
       <c r="K17">
-        <v>12.24687780206369</v>
+        <v>10.63558502180903</v>
       </c>
       <c r="L17">
-        <v>7.53477147006492</v>
+        <v>12.10404795898783</v>
       </c>
       <c r="M17">
-        <v>11.23930587351775</v>
+        <v>15.93884303437597</v>
       </c>
       <c r="N17">
-        <v>13.10242658934572</v>
+        <v>21.00868963256267</v>
       </c>
       <c r="O17">
-        <v>17.28257800727176</v>
+        <v>27.60447763441734</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91543812902188</v>
+        <v>13.71364851713064</v>
       </c>
       <c r="C18">
-        <v>7.008975235365751</v>
+        <v>7.913651274697703</v>
       </c>
       <c r="D18">
-        <v>9.839776705170603</v>
+        <v>13.89089169757975</v>
       </c>
       <c r="E18">
-        <v>8.634536649148538</v>
+        <v>14.45561166510927</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.65172498313788</v>
+        <v>39.95390411725462</v>
       </c>
       <c r="H18">
-        <v>10.22386121744827</v>
+        <v>17.17537858924666</v>
       </c>
       <c r="I18">
-        <v>16.58531627415419</v>
+        <v>27.2967051887476</v>
       </c>
       <c r="J18">
-        <v>5.169869686727811</v>
+        <v>8.737545068017679</v>
       </c>
       <c r="K18">
-        <v>12.10754112740497</v>
+        <v>10.59919360266712</v>
       </c>
       <c r="L18">
-        <v>7.512546220090481</v>
+        <v>12.10506348040718</v>
       </c>
       <c r="M18">
-        <v>11.16356701699146</v>
+        <v>15.93030104503666</v>
       </c>
       <c r="N18">
-        <v>13.14843922278001</v>
+        <v>21.02173866536798</v>
       </c>
       <c r="O18">
-        <v>17.28076443583932</v>
+        <v>27.61950676802571</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.85080026057002</v>
+        <v>13.69682488786942</v>
       </c>
       <c r="C19">
-        <v>6.998962275057248</v>
+        <v>7.910602325379316</v>
       </c>
       <c r="D19">
-        <v>9.822063014273594</v>
+        <v>13.89004332480199</v>
       </c>
       <c r="E19">
-        <v>8.63354352122481</v>
+        <v>14.45743075466123</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.63003255500632</v>
+        <v>39.95953544021826</v>
       </c>
       <c r="H19">
-        <v>10.22746391722336</v>
+        <v>17.17860191927403</v>
       </c>
       <c r="I19">
-        <v>16.59322929546061</v>
+        <v>27.30278693806911</v>
       </c>
       <c r="J19">
-        <v>5.171082564231559</v>
+        <v>8.737991515653389</v>
       </c>
       <c r="K19">
-        <v>12.06000966171856</v>
+        <v>10.58686544691248</v>
       </c>
       <c r="L19">
-        <v>7.505055936332663</v>
+        <v>12.10543000592479</v>
       </c>
       <c r="M19">
-        <v>11.13786790940154</v>
+        <v>15.92743956189867</v>
       </c>
       <c r="N19">
-        <v>13.1640557320685</v>
+        <v>21.02618394242839</v>
       </c>
       <c r="O19">
-        <v>17.28036512126082</v>
+        <v>27.62466854672005</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.13964338307849</v>
+        <v>13.77249613228977</v>
       </c>
       <c r="C20">
-        <v>7.043917788938578</v>
+        <v>7.924296691991368</v>
       </c>
       <c r="D20">
-        <v>9.9018814690602</v>
+        <v>13.8940117722425</v>
       </c>
       <c r="E20">
-        <v>8.638256095430959</v>
+        <v>14.44934952892424</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.7293099029311</v>
+        <v>39.93476809561793</v>
       </c>
       <c r="H20">
-        <v>10.21162818590236</v>
+        <v>17.16423824017593</v>
       </c>
       <c r="I20">
-        <v>16.55835294161877</v>
+        <v>27.27567839042558</v>
       </c>
       <c r="J20">
-        <v>5.165646840122317</v>
+        <v>8.735995323560127</v>
       </c>
       <c r="K20">
-        <v>12.27249756256523</v>
+        <v>10.64231683544932</v>
       </c>
       <c r="L20">
-        <v>7.538901315923348</v>
+        <v>12.10387077860375</v>
       </c>
       <c r="M20">
-        <v>11.25329665959834</v>
+        <v>15.94043850311511</v>
       </c>
       <c r="N20">
-        <v>13.09392831213978</v>
+        <v>21.00628741393646</v>
       </c>
       <c r="O20">
-        <v>17.2830162931919</v>
+        <v>27.60173083740757</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.07468738900475</v>
+        <v>14.02587560825707</v>
       </c>
       <c r="C21">
-        <v>7.193089883062161</v>
+        <v>7.96983797518433</v>
       </c>
       <c r="D21">
-        <v>10.17169416251524</v>
+        <v>13.90997106640656</v>
       </c>
       <c r="E21">
-        <v>8.658403674845195</v>
+        <v>14.42403079146438</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.09231431392443</v>
+        <v>39.86161087571375</v>
       </c>
       <c r="H21">
-        <v>10.16518103782221</v>
+        <v>17.11845575506203</v>
       </c>
       <c r="I21">
-        <v>16.45437142900977</v>
+        <v>27.18914630235147</v>
       </c>
       <c r="J21">
-        <v>5.147772052184624</v>
+        <v>8.729513134968983</v>
       </c>
       <c r="K21">
-        <v>12.96180078483097</v>
+        <v>10.82800537451914</v>
       </c>
       <c r="L21">
-        <v>7.65498926560622</v>
+        <v>12.10020613851043</v>
       </c>
       <c r="M21">
-        <v>11.63696319845016</v>
+        <v>15.98622448576191</v>
       </c>
       <c r="N21">
-        <v>12.86082226694626</v>
+        <v>20.94131837076763</v>
       </c>
       <c r="O21">
-        <v>17.30724812216031</v>
+        <v>27.52975430423361</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.65960056264392</v>
+        <v>14.19056858568078</v>
       </c>
       <c r="C22">
-        <v>7.289126054573806</v>
+        <v>7.99923874280009</v>
       </c>
       <c r="D22">
-        <v>10.3490138402385</v>
+        <v>13.92234447288706</v>
       </c>
       <c r="E22">
-        <v>8.674852311643358</v>
+        <v>14.40884688702544</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.35197420766286</v>
+        <v>39.82130353960779</v>
       </c>
       <c r="H22">
-        <v>10.14006691643605</v>
+        <v>17.09037879780986</v>
       </c>
       <c r="I22">
-        <v>16.39670949939752</v>
+        <v>27.13598161249135</v>
       </c>
       <c r="J22">
-        <v>5.136375994556333</v>
+        <v>8.725443531665485</v>
       </c>
       <c r="K22">
-        <v>13.39399614167996</v>
+        <v>10.94871822585019</v>
       </c>
       <c r="L22">
-        <v>7.732569486571987</v>
+        <v>12.09897934181302</v>
       </c>
       <c r="M22">
-        <v>11.88426407036189</v>
+        <v>16.01769356071951</v>
       </c>
       <c r="N22">
-        <v>12.71023635546324</v>
+        <v>20.90025363647628</v>
       </c>
       <c r="O22">
-        <v>17.33496171503721</v>
+        <v>27.48650871434376</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.34980408866943</v>
+        <v>14.10276808255565</v>
       </c>
       <c r="C23">
-        <v>7.238006697969662</v>
+        <v>7.983581047655523</v>
       </c>
       <c r="D23">
-        <v>10.25429985890033</v>
+        <v>13.91556369754244</v>
       </c>
       <c r="E23">
-        <v>8.665768950697084</v>
+        <v>14.41682626150348</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.21130939564886</v>
+        <v>39.8421290942011</v>
       </c>
       <c r="H23">
-        <v>10.15297775424876</v>
+        <v>17.10519534936595</v>
       </c>
       <c r="I23">
-        <v>16.42651248325278</v>
+        <v>27.16404659636104</v>
       </c>
       <c r="J23">
-        <v>5.142432321982882</v>
+        <v>8.727600325657829</v>
       </c>
       <c r="K23">
-        <v>13.16499619798345</v>
+        <v>10.88436211377686</v>
       </c>
       <c r="L23">
-        <v>7.691010714226966</v>
+        <v>12.09952753908055</v>
       </c>
       <c r="M23">
-        <v>11.75261147273863</v>
+        <v>16.00075838442639</v>
       </c>
       <c r="N23">
-        <v>12.79045290493109</v>
+        <v>20.92204323731384</v>
       </c>
       <c r="O23">
-        <v>17.31905447792894</v>
+        <v>27.50924239012211</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.1239153232908</v>
+        <v>13.76834321164496</v>
       </c>
       <c r="C24">
-        <v>7.041455926131871</v>
+        <v>7.92354639783654</v>
       </c>
       <c r="D24">
-        <v>9.897491455066165</v>
+        <v>13.89378393142492</v>
       </c>
       <c r="E24">
-        <v>8.637981242622072</v>
+        <v>14.44978640795087</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.72374855377703</v>
+        <v>39.93609038839651</v>
       </c>
       <c r="H24">
-        <v>10.21247289090382</v>
+        <v>17.16501769928071</v>
       </c>
       <c r="I24">
-        <v>16.56021967330475</v>
+        <v>27.2771499456931</v>
       </c>
       <c r="J24">
-        <v>5.165943873940349</v>
+        <v>8.736104097807614</v>
       </c>
       <c r="K24">
-        <v>12.26092148788207</v>
+        <v>10.63927357162007</v>
       </c>
       <c r="L24">
-        <v>7.53703361834982</v>
+        <v>12.10395046959192</v>
       </c>
       <c r="M24">
-        <v>11.24697256861557</v>
+        <v>15.9397166499593</v>
       </c>
       <c r="N24">
-        <v>13.09776964981027</v>
+        <v>21.00737294783039</v>
       </c>
       <c r="O24">
-        <v>17.28281421213646</v>
+        <v>27.60297131658584</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75864865647636</v>
+        <v>13.40543010273736</v>
       </c>
       <c r="C25">
-        <v>6.823602482782746</v>
+        <v>7.857313613086744</v>
       </c>
       <c r="D25">
-        <v>9.518391103142289</v>
+        <v>13.87872084519092</v>
       </c>
       <c r="E25">
-        <v>8.621665715904463</v>
+        <v>14.49121106660772</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.29089224117712</v>
+        <v>40.06960119896926</v>
       </c>
       <c r="H25">
-        <v>10.2978499294644</v>
+        <v>17.23747805054376</v>
       </c>
       <c r="I25">
-        <v>16.74572604726717</v>
+        <v>27.41370958645347</v>
       </c>
       <c r="J25">
-        <v>5.192555500942564</v>
+        <v>8.74599735171118</v>
       </c>
       <c r="K25">
-        <v>11.20687604022048</v>
+        <v>10.37333229706873</v>
       </c>
       <c r="L25">
-        <v>7.378658925555411</v>
+        <v>12.11376860542789</v>
       </c>
       <c r="M25">
-        <v>10.6891126568558</v>
+        <v>15.88068786387304</v>
       </c>
       <c r="N25">
-        <v>13.43752875613587</v>
+        <v>21.10544453148333</v>
       </c>
       <c r="O25">
-        <v>17.29176464339894</v>
+        <v>27.72036170186869</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.13823038285578</v>
+        <v>12.70700537152224</v>
       </c>
       <c r="C2">
-        <v>7.807358756144827</v>
+        <v>6.658654963420108</v>
       </c>
       <c r="D2">
-        <v>13.87495733522831</v>
+        <v>9.245987484491947</v>
       </c>
       <c r="E2">
-        <v>14.52678525170448</v>
+        <v>8.620906366134809</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.19547497419473</v>
+        <v>27.04803197771907</v>
       </c>
       <c r="H2">
-        <v>17.29767459852563</v>
+        <v>10.37759194031605</v>
       </c>
       <c r="I2">
-        <v>27.52680485717478</v>
+        <v>16.91479621381467</v>
       </c>
       <c r="J2">
-        <v>8.753907274897225</v>
+        <v>5.213253061263762</v>
       </c>
       <c r="K2">
-        <v>10.17748690347045</v>
+        <v>10.36280507643928</v>
       </c>
       <c r="L2">
-        <v>12.12536938083503</v>
+        <v>7.269047710848381</v>
       </c>
       <c r="M2">
-        <v>15.84325848523866</v>
+        <v>10.27054581040052</v>
       </c>
       <c r="N2">
-        <v>21.1828925681082</v>
+        <v>13.6955831383093</v>
       </c>
       <c r="O2">
-        <v>27.82080665318792</v>
+        <v>17.33640353239108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.95814529929986</v>
+        <v>11.94700017178529</v>
       </c>
       <c r="C3">
-        <v>7.77280452275366</v>
+        <v>6.544315699103579</v>
       </c>
       <c r="D3">
-        <v>13.87701043042923</v>
+        <v>9.0665070228711</v>
       </c>
       <c r="E3">
-        <v>14.55407055206351</v>
+        <v>8.627158385577093</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.29792446131367</v>
+        <v>26.92831383406979</v>
       </c>
       <c r="H3">
-        <v>17.34275106650093</v>
+        <v>10.44152567681671</v>
       </c>
       <c r="I3">
-        <v>27.6112902645562</v>
+        <v>17.04822938443195</v>
       </c>
       <c r="J3">
-        <v>8.759661083642214</v>
+        <v>5.227982135575785</v>
       </c>
       <c r="K3">
-        <v>10.04542981641291</v>
+        <v>9.748499532105072</v>
       </c>
       <c r="L3">
-        <v>12.13597281332296</v>
+        <v>7.199299139111219</v>
       </c>
       <c r="M3">
-        <v>15.82173663193301</v>
+        <v>9.983702251700871</v>
       </c>
       <c r="N3">
-        <v>21.23867389789693</v>
+        <v>13.87575657510119</v>
       </c>
       <c r="O3">
-        <v>27.89761913065996</v>
+        <v>17.38875737229344</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.8484040460483</v>
+        <v>11.45768368428152</v>
       </c>
       <c r="C4">
-        <v>7.751257394476911</v>
+        <v>6.472956471763832</v>
       </c>
       <c r="D4">
-        <v>13.88055123885333</v>
+        <v>8.95915225897677</v>
       </c>
       <c r="E4">
-        <v>14.57239439756709</v>
+        <v>8.634249319547461</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>40.36926423142283</v>
+        <v>26.87603153931392</v>
       </c>
       <c r="H4">
-        <v>17.37254339695359</v>
+        <v>10.48546083268723</v>
       </c>
       <c r="I4">
-        <v>27.66703585494276</v>
+        <v>17.13901898626588</v>
       </c>
       <c r="J4">
-        <v>8.763388853370291</v>
+        <v>5.237376606778416</v>
       </c>
       <c r="K4">
-        <v>9.964911915044798</v>
+        <v>9.350596280177244</v>
       </c>
       <c r="L4">
-        <v>12.14384019055498</v>
+        <v>7.158761217992858</v>
       </c>
       <c r="M4">
-        <v>15.81044384172278</v>
+        <v>9.806648465713574</v>
       </c>
       <c r="N4">
-        <v>21.27455724653709</v>
+        <v>13.98910526393458</v>
       </c>
       <c r="O4">
-        <v>27.94909309914481</v>
+        <v>17.43126835062538</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.80394453801111</v>
+        <v>11.25271361419362</v>
       </c>
       <c r="C5">
-        <v>7.742395876559402</v>
+        <v>6.443603750223606</v>
       </c>
       <c r="D5">
-        <v>13.88256888260086</v>
+        <v>8.916167793372404</v>
       </c>
       <c r="E5">
-        <v>14.58025700585105</v>
+        <v>8.637943991131912</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.40045365885788</v>
+        <v>26.85991988209303</v>
       </c>
       <c r="H5">
-        <v>17.38521641719553</v>
+        <v>10.5045130045701</v>
       </c>
       <c r="I5">
-        <v>27.69072664538896</v>
+        <v>17.17818248978949</v>
       </c>
       <c r="J5">
-        <v>8.764957095998945</v>
+        <v>5.241293745501038</v>
       </c>
       <c r="K5">
-        <v>9.932278434347454</v>
+        <v>9.183270795585818</v>
       </c>
       <c r="L5">
-        <v>12.14738809654819</v>
+        <v>7.142824068877121</v>
       </c>
       <c r="M5">
-        <v>15.80632897885533</v>
+        <v>9.734366428112255</v>
       </c>
       <c r="N5">
-        <v>21.28959189166104</v>
+        <v>14.03599578375657</v>
       </c>
       <c r="O5">
-        <v>27.97115306527174</v>
+        <v>17.45111974757431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.79657934115597</v>
+        <v>11.21834657357647</v>
       </c>
       <c r="C6">
-        <v>7.740919608819767</v>
+        <v>6.438713761966676</v>
       </c>
       <c r="D6">
-        <v>13.88293865906824</v>
+        <v>8.909077728748056</v>
       </c>
       <c r="E6">
-        <v>14.58158648904925</v>
+        <v>8.638605737076794</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.4057604539439</v>
+        <v>26.85755388497327</v>
       </c>
       <c r="H6">
-        <v>17.38735293374274</v>
+        <v>10.50774514382236</v>
       </c>
       <c r="I6">
-        <v>27.69471932760135</v>
+        <v>17.18481461895666</v>
       </c>
       <c r="J6">
-        <v>8.765220473778369</v>
+        <v>5.24194956548796</v>
       </c>
       <c r="K6">
-        <v>9.926871481676262</v>
+        <v>9.1551750753439</v>
       </c>
       <c r="L6">
-        <v>12.14799789235765</v>
+        <v>7.140213076696631</v>
       </c>
       <c r="M6">
-        <v>15.80567523159847</v>
+        <v>9.722359234969581</v>
       </c>
       <c r="N6">
-        <v>21.29211329430062</v>
+        <v>14.04382464534253</v>
       </c>
       <c r="O6">
-        <v>27.97488156828944</v>
+        <v>17.45456645121905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.84780332471554</v>
+        <v>11.45494174051009</v>
       </c>
       <c r="C7">
-        <v>7.75113820947364</v>
+        <v>6.472561694037006</v>
       </c>
       <c r="D7">
-        <v>13.88057612077017</v>
+        <v>8.958569402353179</v>
       </c>
       <c r="E7">
-        <v>14.57249883337349</v>
+        <v>8.634295904436375</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40.36967629220904</v>
+        <v>26.87579341819312</v>
       </c>
       <c r="H7">
-        <v>17.37271215336283</v>
+        <v>10.48571316451096</v>
       </c>
       <c r="I7">
-        <v>27.66735141274418</v>
+        <v>17.13953846888726</v>
       </c>
       <c r="J7">
-        <v>8.763409804067139</v>
+        <v>5.237429074259435</v>
       </c>
       <c r="K7">
-        <v>9.964471039509482</v>
+        <v>9.348360577942644</v>
       </c>
       <c r="L7">
-        <v>12.14388665367459</v>
+        <v>7.158543917448617</v>
       </c>
       <c r="M7">
-        <v>15.81038637038037</v>
+        <v>9.805674036270364</v>
       </c>
       <c r="N7">
-        <v>21.27475833975321</v>
+        <v>13.98973479122926</v>
       </c>
       <c r="O7">
-        <v>27.94938621899192</v>
+        <v>17.4315259415802</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07599552892477</v>
+        <v>12.44972972296591</v>
       </c>
       <c r="C8">
-        <v>7.795514448987904</v>
+        <v>6.619480357125719</v>
       </c>
       <c r="D8">
-        <v>13.87519286287944</v>
+        <v>9.183540648953567</v>
       </c>
       <c r="E8">
-        <v>14.53586759384286</v>
+        <v>8.622379461340742</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.22904693115706</v>
+        <v>27.00226437997154</v>
       </c>
       <c r="H8">
-        <v>17.31277826931494</v>
+        <v>10.39864754634437</v>
       </c>
       <c r="I8">
-        <v>27.55513229602013</v>
+        <v>16.95892652392427</v>
       </c>
       <c r="J8">
-        <v>8.755850816424434</v>
+        <v>5.218259219026952</v>
       </c>
       <c r="K8">
-        <v>10.13185782387916</v>
+        <v>10.15530831977442</v>
       </c>
       <c r="L8">
-        <v>12.1287442666152</v>
+        <v>7.244528070454996</v>
       </c>
       <c r="M8">
-        <v>15.83544125270522</v>
+        <v>10.1718953129183</v>
       </c>
       <c r="N8">
-        <v>21.20178766306713</v>
+        <v>13.75715173634427</v>
       </c>
       <c r="O8">
-        <v>27.84639685202651</v>
+        <v>17.35225615322162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.52780562752132</v>
+        <v>14.2163605354272</v>
       </c>
       <c r="C9">
-        <v>7.879814281946554</v>
+        <v>6.897727223854518</v>
       </c>
       <c r="D9">
-        <v>13.8826614695203</v>
+        <v>9.645168681770595</v>
       </c>
       <c r="E9">
-        <v>14.47647055339541</v>
+        <v>8.62538018947245</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.02033859486816</v>
+        <v>27.42461764279844</v>
       </c>
       <c r="H9">
-        <v>17.21200795052891</v>
+        <v>10.26638057730293</v>
       </c>
       <c r="I9">
-        <v>27.36576188387748</v>
+        <v>16.67799669951523</v>
       </c>
       <c r="J9">
-        <v>8.742568008470226</v>
+        <v>5.183421754705543</v>
       </c>
       <c r="K9">
-        <v>10.46301064246438</v>
+        <v>11.5724940856242</v>
       </c>
       <c r="L9">
-        <v>12.1097842501899</v>
+        <v>7.430944336740275</v>
       </c>
       <c r="M9">
-        <v>15.89964583263065</v>
+        <v>10.87845169682017</v>
       </c>
       <c r="N9">
-        <v>21.07159872768863</v>
+        <v>13.32190487305754</v>
       </c>
       <c r="O9">
-        <v>27.67864216790522</v>
+        <v>17.28262086056501</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.8593717533497</v>
+        <v>15.46552989084334</v>
       </c>
       <c r="C10">
-        <v>7.939961166734485</v>
+        <v>7.095284563396481</v>
       </c>
       <c r="D10">
-        <v>13.89903609220496</v>
+        <v>9.993962068687578</v>
       </c>
       <c r="E10">
-        <v>14.44037925509579</v>
+        <v>8.644425910022049</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>39.90805290686478</v>
+        <v>27.84858461965737</v>
       </c>
       <c r="H10">
-        <v>17.14815727042449</v>
+        <v>10.19458976613504</v>
       </c>
       <c r="I10">
-        <v>27.24530637806031</v>
+        <v>16.52053141339203</v>
       </c>
       <c r="J10">
-        <v>8.733739535895813</v>
+        <v>5.159465173987004</v>
       </c>
       <c r="K10">
-        <v>10.70598051387001</v>
+        <v>12.51249705508437</v>
       </c>
       <c r="L10">
-        <v>12.10235430570988</v>
+        <v>7.578237223155315</v>
       </c>
       <c r="M10">
-        <v>15.95575703159552</v>
+        <v>11.38531612918932</v>
       </c>
       <c r="N10">
-        <v>20.98374034087842</v>
+        <v>13.01374399754367</v>
       </c>
       <c r="O10">
-        <v>27.5762493490323</v>
+        <v>17.28871653335224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.00950440042182</v>
+        <v>16.01562891620181</v>
       </c>
       <c r="C11">
-        <v>7.966907859576136</v>
+        <v>7.183507415766406</v>
       </c>
       <c r="D11">
-        <v>13.90882337432907</v>
+        <v>10.15414869063635</v>
       </c>
       <c r="E11">
-        <v>14.42559188790489</v>
+        <v>8.656908265553687</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>39.8659140975099</v>
+        <v>28.06749495952464</v>
       </c>
       <c r="H11">
-        <v>17.12131484682416</v>
+        <v>10.16788955000363</v>
       </c>
       <c r="I11">
-        <v>27.19455590520832</v>
+        <v>16.46051889590566</v>
       </c>
       <c r="J11">
-        <v>8.729923432246487</v>
+        <v>5.148913564467296</v>
       </c>
       <c r="K11">
-        <v>10.81600687933752</v>
+        <v>12.91820298302584</v>
       </c>
       <c r="L11">
-        <v>12.10037540516027</v>
+        <v>7.647366056329441</v>
       </c>
       <c r="M11">
-        <v>15.98316695436099</v>
+        <v>11.61229616202261</v>
       </c>
       <c r="N11">
-        <v>20.94544678191913</v>
+        <v>12.87582215895639</v>
       </c>
       <c r="O11">
-        <v>27.53419709472736</v>
+        <v>17.30499516134175</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.06620493718457</v>
+        <v>16.21944247658509</v>
       </c>
       <c r="C12">
-        <v>7.977049892236162</v>
+        <v>7.216666438555458</v>
       </c>
       <c r="D12">
-        <v>13.91286320627099</v>
+        <v>10.2149796336552</v>
       </c>
       <c r="E12">
-        <v>14.42022617945449</v>
+        <v>8.662196962060765</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.8512445505151</v>
+        <v>28.15423098104958</v>
       </c>
       <c r="H12">
-        <v>17.11146668931854</v>
+        <v>10.15867471382871</v>
       </c>
       <c r="I12">
-        <v>27.17591925485298</v>
+        <v>16.4395523449798</v>
       </c>
       <c r="J12">
-        <v>8.728506996843965</v>
+        <v>5.14496704490394</v>
       </c>
       <c r="K12">
-        <v>10.85756347828569</v>
+        <v>13.0686934880611</v>
       </c>
       <c r="L12">
-        <v>12.09982655036182</v>
+        <v>7.673837918777669</v>
       </c>
       <c r="M12">
-        <v>15.99381207171144</v>
+        <v>11.69766176277625</v>
       </c>
       <c r="N12">
-        <v>20.93118547531897</v>
+        <v>12.82389832965291</v>
       </c>
       <c r="O12">
-        <v>27.5189239321594</v>
+        <v>17.31319007223872</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.05400099191794</v>
+        <v>16.17574691742708</v>
       </c>
       <c r="C13">
-        <v>7.974868425501731</v>
+        <v>7.209536307106287</v>
       </c>
       <c r="D13">
-        <v>13.91197836395324</v>
+        <v>10.20187167639346</v>
       </c>
       <c r="E13">
-        <v>14.42137138487629</v>
+        <v>8.661032753390007</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>39.85434661246936</v>
+        <v>28.13537868002992</v>
       </c>
       <c r="H13">
-        <v>17.11357359657304</v>
+        <v>10.16061880239896</v>
       </c>
       <c r="I13">
-        <v>27.17990713482277</v>
+        <v>16.44398819284411</v>
       </c>
       <c r="J13">
-        <v>8.728810779690233</v>
+        <v>5.145814823303742</v>
       </c>
       <c r="K13">
-        <v>10.84861888368851</v>
+        <v>13.0364222007887</v>
       </c>
       <c r="L13">
-        <v>12.09993585397699</v>
+        <v>7.668123821207332</v>
       </c>
       <c r="M13">
-        <v>15.99150773274788</v>
+        <v>11.67930388237665</v>
       </c>
       <c r="N13">
-        <v>20.93424626152432</v>
+        <v>12.83506787511092</v>
       </c>
       <c r="O13">
-        <v>27.52218432028394</v>
+        <v>17.31133343250275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.01417250906136</v>
+        <v>16.03248666725864</v>
       </c>
       <c r="C14">
-        <v>7.967743509492635</v>
+        <v>7.186240485312567</v>
       </c>
       <c r="D14">
-        <v>13.90914906391445</v>
+        <v>10.15915010425995</v>
       </c>
       <c r="E14">
-        <v>14.42514576241428</v>
+        <v>8.657332035567759</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.86468141229793</v>
+        <v>28.07455333455162</v>
       </c>
       <c r="H14">
-        <v>17.1204982923342</v>
+        <v>10.1671132526334</v>
       </c>
       <c r="I14">
-        <v>27.1930110050766</v>
+        <v>16.45875819505062</v>
       </c>
       <c r="J14">
-        <v>8.729806327951877</v>
+        <v>5.148587900772577</v>
       </c>
       <c r="K14">
-        <v>10.81942813168331</v>
+        <v>12.93064682308243</v>
       </c>
       <c r="L14">
-        <v>12.10032623763341</v>
+        <v>7.649538079302317</v>
       </c>
       <c r="M14">
-        <v>15.98403744402453</v>
+        <v>11.61933137472916</v>
       </c>
       <c r="N14">
-        <v>20.9442686989427</v>
+        <v>12.87154438300435</v>
       </c>
       <c r="O14">
-        <v>27.53292751234046</v>
+        <v>17.30562815922339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.98975520570467</v>
+        <v>15.94415122648562</v>
       </c>
       <c r="C15">
-        <v>7.963371131952039</v>
+        <v>7.171938346983668</v>
       </c>
       <c r="D15">
-        <v>13.90745939782577</v>
+        <v>10.13300293647065</v>
       </c>
       <c r="E15">
-        <v>14.42748812777002</v>
+        <v>8.655138793001402</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>39.87117949519382</v>
+        <v>28.0377986748156</v>
       </c>
       <c r="H15">
-        <v>17.12478107281585</v>
+        <v>10.17120916516045</v>
       </c>
       <c r="I15">
-        <v>27.20111321854973</v>
+        <v>16.46803699226033</v>
       </c>
       <c r="J15">
-        <v>8.730419856228758</v>
+        <v>5.150292871350313</v>
       </c>
       <c r="K15">
-        <v>10.80153284311194</v>
+        <v>12.86544756286431</v>
       </c>
       <c r="L15">
-        <v>12.10059144228523</v>
+        <v>7.638191764075952</v>
       </c>
       <c r="M15">
-        <v>15.97949609681841</v>
+        <v>11.58251812011216</v>
       </c>
       <c r="N15">
-        <v>20.95043890794673</v>
+        <v>12.89392626468335</v>
       </c>
       <c r="O15">
-        <v>27.53959282621632</v>
+        <v>17.30240057969282</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.8495417808381</v>
+        <v>15.42894806575688</v>
       </c>
       <c r="C16">
-        <v>7.938191583762576</v>
+        <v>7.08948477635696</v>
       </c>
       <c r="D16">
-        <v>13.89844330278819</v>
+        <v>9.983520008727709</v>
       </c>
       <c r="E16">
-        <v>14.44137841213701</v>
+        <v>8.643688093550365</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>39.91098685258995</v>
+        <v>27.83481070324742</v>
       </c>
       <c r="H16">
-        <v>17.14995579446801</v>
+        <v>10.19645788805725</v>
       </c>
       <c r="I16">
-        <v>27.24870442078196</v>
+        <v>16.52469461256527</v>
       </c>
       <c r="J16">
-        <v>8.733992941611751</v>
+        <v>5.160161659839668</v>
       </c>
       <c r="K16">
-        <v>10.69877684717954</v>
+        <v>12.4855430352679</v>
       </c>
       <c r="L16">
-        <v>12.10251174333649</v>
+        <v>7.573761284859875</v>
       </c>
       <c r="M16">
-        <v>15.95400319334056</v>
+        <v>11.37040396213492</v>
       </c>
       <c r="N16">
-        <v>20.98627650444534</v>
+        <v>13.02280125396501</v>
       </c>
       <c r="O16">
-        <v>27.57908866829699</v>
+        <v>17.28793201199136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.76330970850048</v>
+        <v>15.10483341581511</v>
       </c>
       <c r="C17">
-        <v>7.922636821125686</v>
+        <v>7.038471241621039</v>
       </c>
       <c r="D17">
-        <v>13.89350932034737</v>
+        <v>9.892172044219736</v>
       </c>
       <c r="E17">
-        <v>14.45031693553438</v>
+        <v>8.63765060643677</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.93769872002196</v>
+        <v>27.71702538344315</v>
       </c>
       <c r="H17">
-        <v>17.16596378375575</v>
+        <v>10.2135004595437</v>
       </c>
       <c r="I17">
-        <v>27.27893600135441</v>
+        <v>16.5624895153596</v>
       </c>
       <c r="J17">
-        <v>8.736236055118686</v>
+        <v>5.166304085235593</v>
       </c>
       <c r="K17">
-        <v>10.63558502180903</v>
+        <v>12.24687780206373</v>
       </c>
       <c r="L17">
-        <v>12.10404795898783</v>
+        <v>7.534771470064934</v>
       </c>
       <c r="M17">
-        <v>15.93884303437597</v>
+        <v>11.23930587351775</v>
       </c>
       <c r="N17">
-        <v>21.00868963256267</v>
+        <v>13.10242658934571</v>
       </c>
       <c r="O17">
-        <v>27.60447763441734</v>
+        <v>17.28257800727173</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.71364851713064</v>
+        <v>14.91543812902188</v>
       </c>
       <c r="C18">
-        <v>7.913651274697703</v>
+        <v>7.008975235365258</v>
       </c>
       <c r="D18">
-        <v>13.89089169757975</v>
+        <v>9.839776705170532</v>
       </c>
       <c r="E18">
-        <v>14.45561166510927</v>
+        <v>8.634536649148371</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>39.95390411725462</v>
+        <v>27.65172498313816</v>
       </c>
       <c r="H18">
-        <v>17.17537858924666</v>
+        <v>10.22386121744833</v>
       </c>
       <c r="I18">
-        <v>27.2967051887476</v>
+        <v>16.5853162741542</v>
       </c>
       <c r="J18">
-        <v>8.737545068017679</v>
+        <v>5.16986968672771</v>
       </c>
       <c r="K18">
-        <v>10.59919360266712</v>
+        <v>12.10754112740492</v>
       </c>
       <c r="L18">
-        <v>12.10506348040718</v>
+        <v>7.51254622009047</v>
       </c>
       <c r="M18">
-        <v>15.93030104503666</v>
+        <v>11.16356701699143</v>
       </c>
       <c r="N18">
-        <v>21.02173866536798</v>
+        <v>13.14843922278004</v>
       </c>
       <c r="O18">
-        <v>27.61950676802571</v>
+        <v>17.28076443583945</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.69682488786942</v>
+        <v>14.85080026057007</v>
       </c>
       <c r="C19">
-        <v>7.910602325379316</v>
+        <v>6.998962275057001</v>
       </c>
       <c r="D19">
-        <v>13.89004332480199</v>
+        <v>9.822063014273546</v>
       </c>
       <c r="E19">
-        <v>14.45743075466123</v>
+        <v>8.633543521224702</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39.95953544021826</v>
+        <v>27.63003255500623</v>
       </c>
       <c r="H19">
-        <v>17.17860191927403</v>
+        <v>10.22746391722336</v>
       </c>
       <c r="I19">
-        <v>27.30278693806911</v>
+        <v>16.5932292954605</v>
       </c>
       <c r="J19">
-        <v>8.737991515653389</v>
+        <v>5.171082564231592</v>
       </c>
       <c r="K19">
-        <v>10.58686544691248</v>
+        <v>12.06000966171856</v>
       </c>
       <c r="L19">
-        <v>12.10543000592479</v>
+        <v>7.505055936332712</v>
       </c>
       <c r="M19">
-        <v>15.92743956189867</v>
+        <v>11.13786790940151</v>
       </c>
       <c r="N19">
-        <v>21.02618394242839</v>
+        <v>13.16405573206847</v>
       </c>
       <c r="O19">
-        <v>27.62466854672005</v>
+        <v>17.28036512126075</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77249613228977</v>
+        <v>15.13964338307849</v>
       </c>
       <c r="C20">
-        <v>7.924296691991368</v>
+        <v>7.04391778893869</v>
       </c>
       <c r="D20">
-        <v>13.8940117722425</v>
+        <v>9.901881469060166</v>
       </c>
       <c r="E20">
-        <v>14.44934952892424</v>
+        <v>8.638256095431061</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>39.93476809561793</v>
+        <v>27.72930990293114</v>
       </c>
       <c r="H20">
-        <v>17.16423824017593</v>
+        <v>10.21162818590248</v>
       </c>
       <c r="I20">
-        <v>27.27567839042558</v>
+        <v>16.55835294161886</v>
       </c>
       <c r="J20">
-        <v>8.735995323560127</v>
+        <v>5.165646840122485</v>
       </c>
       <c r="K20">
-        <v>10.64231683544932</v>
+        <v>12.27249756256522</v>
       </c>
       <c r="L20">
-        <v>12.10387077860375</v>
+        <v>7.538901315923459</v>
       </c>
       <c r="M20">
-        <v>15.94043850311511</v>
+        <v>11.2532966595984</v>
       </c>
       <c r="N20">
-        <v>21.00628741393646</v>
+        <v>13.09392831213981</v>
       </c>
       <c r="O20">
-        <v>27.60173083740757</v>
+        <v>17.283016293192</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.02587560825707</v>
+        <v>16.07468738900478</v>
       </c>
       <c r="C21">
-        <v>7.96983797518433</v>
+        <v>7.193089883062155</v>
       </c>
       <c r="D21">
-        <v>13.90997106640656</v>
+        <v>10.17169416251514</v>
       </c>
       <c r="E21">
-        <v>14.42403079146438</v>
+        <v>8.658403674845138</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>39.86161087571375</v>
+        <v>28.09231431392439</v>
       </c>
       <c r="H21">
-        <v>17.11845575506203</v>
+        <v>10.16518103782221</v>
       </c>
       <c r="I21">
-        <v>27.18914630235147</v>
+        <v>16.4543714290097</v>
       </c>
       <c r="J21">
-        <v>8.729513134968983</v>
+        <v>5.147772052184658</v>
       </c>
       <c r="K21">
-        <v>10.82800537451914</v>
+        <v>12.96180078483094</v>
       </c>
       <c r="L21">
-        <v>12.10020613851043</v>
+        <v>7.654989265606238</v>
       </c>
       <c r="M21">
-        <v>15.98622448576191</v>
+        <v>11.63696319845017</v>
       </c>
       <c r="N21">
-        <v>20.94131837076763</v>
+        <v>12.86082226694619</v>
       </c>
       <c r="O21">
-        <v>27.52975430423361</v>
+        <v>17.30724812216027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.19056858568078</v>
+        <v>16.65960056264395</v>
       </c>
       <c r="C22">
-        <v>7.99923874280009</v>
+        <v>7.2891260545739</v>
       </c>
       <c r="D22">
-        <v>13.92234447288706</v>
+        <v>10.34901384023857</v>
       </c>
       <c r="E22">
-        <v>14.40884688702544</v>
+        <v>8.674852311643358</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.82130353960779</v>
+        <v>28.35197420766261</v>
       </c>
       <c r="H22">
-        <v>17.09037879780986</v>
+        <v>10.14006691643605</v>
       </c>
       <c r="I22">
-        <v>27.13598161249135</v>
+        <v>16.39670949939741</v>
       </c>
       <c r="J22">
-        <v>8.725443531665485</v>
+        <v>5.136375994556267</v>
       </c>
       <c r="K22">
-        <v>10.94871822585019</v>
+        <v>13.39399614167997</v>
       </c>
       <c r="L22">
-        <v>12.09897934181302</v>
+        <v>7.732569486571967</v>
       </c>
       <c r="M22">
-        <v>16.01769356071951</v>
+        <v>11.88426407036187</v>
       </c>
       <c r="N22">
-        <v>20.90025363647628</v>
+        <v>12.71023635546314</v>
       </c>
       <c r="O22">
-        <v>27.48650871434376</v>
+        <v>17.3349617150371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.10276808255565</v>
+        <v>16.34980408866937</v>
       </c>
       <c r="C23">
-        <v>7.983581047655523</v>
+        <v>7.238006697969772</v>
       </c>
       <c r="D23">
-        <v>13.91556369754244</v>
+        <v>10.25429985890026</v>
       </c>
       <c r="E23">
-        <v>14.41682626150348</v>
+        <v>8.66576895069708</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39.8421290942011</v>
+        <v>28.21130939564939</v>
       </c>
       <c r="H23">
-        <v>17.10519534936595</v>
+        <v>10.15297775424884</v>
       </c>
       <c r="I23">
-        <v>27.16404659636104</v>
+        <v>16.42651248325311</v>
       </c>
       <c r="J23">
-        <v>8.727600325657829</v>
+        <v>5.14243232198295</v>
       </c>
       <c r="K23">
-        <v>10.88436211377686</v>
+        <v>13.16499619798336</v>
       </c>
       <c r="L23">
-        <v>12.09952753908055</v>
+        <v>7.691010714226961</v>
       </c>
       <c r="M23">
-        <v>16.00075838442639</v>
+        <v>11.75261147273866</v>
       </c>
       <c r="N23">
-        <v>20.92204323731384</v>
+        <v>12.79045290493129</v>
       </c>
       <c r="O23">
-        <v>27.50924239012211</v>
+        <v>17.31905447792929</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.76834321164496</v>
+        <v>15.12391532329087</v>
       </c>
       <c r="C24">
-        <v>7.92354639783654</v>
+        <v>7.041455926131625</v>
       </c>
       <c r="D24">
-        <v>13.89378393142492</v>
+        <v>9.897491455066117</v>
       </c>
       <c r="E24">
-        <v>14.44978640795087</v>
+        <v>8.637981242621921</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>39.93609038839651</v>
+        <v>27.72374855377712</v>
       </c>
       <c r="H24">
-        <v>17.16501769928071</v>
+        <v>10.21247289090378</v>
       </c>
       <c r="I24">
-        <v>27.2771499456931</v>
+        <v>16.56021967330466</v>
       </c>
       <c r="J24">
-        <v>8.736104097807614</v>
+        <v>5.165943873940249</v>
       </c>
       <c r="K24">
-        <v>10.63927357162007</v>
+        <v>12.26092148788208</v>
       </c>
       <c r="L24">
-        <v>12.10395046959192</v>
+        <v>7.537033618349779</v>
       </c>
       <c r="M24">
-        <v>15.9397166499593</v>
+        <v>11.24697256861553</v>
       </c>
       <c r="N24">
-        <v>21.00737294783039</v>
+        <v>13.0977696498102</v>
       </c>
       <c r="O24">
-        <v>27.60297131658584</v>
+        <v>17.28281421213644</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.40543010273736</v>
+        <v>13.75864865647635</v>
       </c>
       <c r="C25">
-        <v>7.857313613086744</v>
+        <v>6.823602482782622</v>
       </c>
       <c r="D25">
-        <v>13.87872084519092</v>
+        <v>9.518391103142346</v>
       </c>
       <c r="E25">
-        <v>14.49121106660772</v>
+        <v>8.621665715904578</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.06960119896926</v>
+        <v>27.29089224117724</v>
       </c>
       <c r="H25">
-        <v>17.23747805054376</v>
+        <v>10.29784992946441</v>
       </c>
       <c r="I25">
-        <v>27.41370958645347</v>
+        <v>16.74572604726717</v>
       </c>
       <c r="J25">
-        <v>8.74599735171118</v>
+        <v>5.192555500942666</v>
       </c>
       <c r="K25">
-        <v>10.37333229706873</v>
+        <v>11.20687604022047</v>
       </c>
       <c r="L25">
-        <v>12.11376860542789</v>
+        <v>7.37865892555553</v>
       </c>
       <c r="M25">
-        <v>15.88068786387304</v>
+        <v>10.68911265685584</v>
       </c>
       <c r="N25">
-        <v>21.10544453148333</v>
+        <v>13.43752875613591</v>
       </c>
       <c r="O25">
-        <v>27.72036170186869</v>
+        <v>17.291764643399</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70700537152224</v>
+        <v>12.29749851336434</v>
       </c>
       <c r="C2">
-        <v>6.658654963420108</v>
+        <v>6.156977518283224</v>
       </c>
       <c r="D2">
-        <v>9.245987484491947</v>
+        <v>8.462424102504071</v>
       </c>
       <c r="E2">
-        <v>8.620906366134809</v>
+        <v>6.935015256119158</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.04803197771907</v>
+        <v>53.47581628042517</v>
       </c>
       <c r="H2">
-        <v>10.37759194031605</v>
+        <v>5.176496595489014</v>
       </c>
       <c r="I2">
-        <v>16.91479621381467</v>
+        <v>5.424459032842613</v>
       </c>
       <c r="J2">
-        <v>5.213253061263762</v>
+        <v>16.40886929244976</v>
       </c>
       <c r="K2">
-        <v>10.36280507643928</v>
+        <v>27.37094008688855</v>
       </c>
       <c r="L2">
-        <v>7.269047710848381</v>
+        <v>4.376229778281105</v>
       </c>
       <c r="M2">
-        <v>10.27054581040052</v>
+        <v>10.23695242780597</v>
       </c>
       <c r="N2">
-        <v>13.6955831383093</v>
+        <v>7.122141823464593</v>
       </c>
       <c r="O2">
-        <v>17.33640353239108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.2090356998972</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94700017178529</v>
+        <v>11.57126778301916</v>
       </c>
       <c r="C3">
-        <v>6.544315699103579</v>
+        <v>5.742584754171172</v>
       </c>
       <c r="D3">
-        <v>9.0665070228711</v>
+        <v>8.210941306425555</v>
       </c>
       <c r="E3">
-        <v>8.627158385577093</v>
+        <v>6.771165422852573</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.92831383406979</v>
+        <v>51.96394050488785</v>
       </c>
       <c r="H3">
-        <v>10.44152567681671</v>
+        <v>5.437494100055056</v>
       </c>
       <c r="I3">
-        <v>17.04822938443195</v>
+        <v>5.636547282023587</v>
       </c>
       <c r="J3">
-        <v>5.227982135575785</v>
+        <v>16.1664643444846</v>
       </c>
       <c r="K3">
-        <v>9.748499532105072</v>
+        <v>26.88122705726672</v>
       </c>
       <c r="L3">
-        <v>7.199299139111219</v>
+        <v>4.286898622206573</v>
       </c>
       <c r="M3">
-        <v>9.983702251700871</v>
+        <v>9.645060994840255</v>
       </c>
       <c r="N3">
-        <v>13.87575657510119</v>
+        <v>6.953749329190593</v>
       </c>
       <c r="O3">
-        <v>17.38875737229344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.874279613595347</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45768368428152</v>
+        <v>11.10309222463374</v>
       </c>
       <c r="C4">
-        <v>6.472956471763832</v>
+        <v>5.477946765678842</v>
       </c>
       <c r="D4">
-        <v>8.95915225897677</v>
+        <v>8.054042247146013</v>
       </c>
       <c r="E4">
-        <v>8.634249319547461</v>
+        <v>6.667418520125715</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.87603153931392</v>
+        <v>51.01088319868965</v>
       </c>
       <c r="H4">
-        <v>10.48546083268723</v>
+        <v>5.603302684850138</v>
       </c>
       <c r="I4">
-        <v>17.13901898626588</v>
+        <v>5.771763424569764</v>
       </c>
       <c r="J4">
-        <v>5.237376606778416</v>
+        <v>16.0158302044418</v>
       </c>
       <c r="K4">
-        <v>9.350596280177244</v>
+        <v>26.5735917622439</v>
       </c>
       <c r="L4">
-        <v>7.158761217992858</v>
+        <v>4.230245233107756</v>
       </c>
       <c r="M4">
-        <v>9.806648465713574</v>
+        <v>9.298524537469905</v>
       </c>
       <c r="N4">
-        <v>13.98910526393458</v>
+        <v>6.849069471725568</v>
       </c>
       <c r="O4">
-        <v>17.43126835062538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.664654620687196</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25271361419362</v>
+        <v>10.90533840620171</v>
       </c>
       <c r="C5">
-        <v>6.443603750223606</v>
+        <v>5.3742833868877</v>
       </c>
       <c r="D5">
-        <v>8.916167793372404</v>
+        <v>7.988679467948242</v>
       </c>
       <c r="E5">
-        <v>8.637943991131912</v>
+        <v>6.623106760745364</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.85991988209303</v>
+        <v>50.57927652943833</v>
       </c>
       <c r="H5">
-        <v>10.5045130045701</v>
+        <v>5.672827286069735</v>
       </c>
       <c r="I5">
-        <v>17.17818248978949</v>
+        <v>5.83041128365574</v>
       </c>
       <c r="J5">
-        <v>5.241293745501038</v>
+        <v>15.94646780928573</v>
       </c>
       <c r="K5">
-        <v>9.183270795585818</v>
+        <v>26.43017072357752</v>
       </c>
       <c r="L5">
-        <v>7.142824068877121</v>
+        <v>4.206511106099272</v>
       </c>
       <c r="M5">
-        <v>9.734366428112255</v>
+        <v>9.156190321796725</v>
       </c>
       <c r="N5">
-        <v>14.03599578375657</v>
+        <v>6.806851530960248</v>
       </c>
       <c r="O5">
-        <v>17.45111974757431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.578522460667484</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21834657357647</v>
+        <v>10.87035505307763</v>
       </c>
       <c r="C6">
-        <v>6.438713761966676</v>
+        <v>5.365186887797104</v>
       </c>
       <c r="D6">
-        <v>8.909077728748056</v>
+        <v>7.976724379008504</v>
       </c>
       <c r="E6">
-        <v>8.638605737076794</v>
+        <v>6.614165400806959</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.85755388497327</v>
+        <v>50.46150531338781</v>
       </c>
       <c r="H6">
-        <v>10.50774514382236</v>
+        <v>5.685110623987997</v>
       </c>
       <c r="I6">
-        <v>17.18481461895666</v>
+        <v>5.843096906861152</v>
       </c>
       <c r="J6">
-        <v>5.24194956548796</v>
+        <v>15.92567334098188</v>
       </c>
       <c r="K6">
-        <v>9.1551750753439</v>
+        <v>26.38619702057657</v>
       </c>
       <c r="L6">
-        <v>7.140213076696631</v>
+        <v>4.202316854612737</v>
       </c>
       <c r="M6">
-        <v>9.722359234969581</v>
+        <v>9.134573727582497</v>
       </c>
       <c r="N6">
-        <v>14.04382464534253</v>
+        <v>6.800717840925158</v>
       </c>
       <c r="O6">
-        <v>17.45456645121905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.564428594211561</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.45494174051009</v>
+        <v>11.09555699880982</v>
       </c>
       <c r="C7">
-        <v>6.472561694037006</v>
+        <v>5.498571190776822</v>
       </c>
       <c r="D7">
-        <v>8.958569402353179</v>
+        <v>8.050272534465858</v>
       </c>
       <c r="E7">
-        <v>8.634295904436375</v>
+        <v>6.662669684700264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.87579341819312</v>
+        <v>50.88135952355364</v>
       </c>
       <c r="H7">
-        <v>10.48571316451096</v>
+        <v>5.605993829613998</v>
       </c>
       <c r="I7">
-        <v>17.13953846888726</v>
+        <v>5.780168937449425</v>
       </c>
       <c r="J7">
-        <v>5.237429074259435</v>
+        <v>15.98978394959843</v>
       </c>
       <c r="K7">
-        <v>9.348360577942644</v>
+        <v>26.51724379276248</v>
       </c>
       <c r="L7">
-        <v>7.158543917448617</v>
+        <v>4.229325337485815</v>
       </c>
       <c r="M7">
-        <v>9.805674036270364</v>
+        <v>9.302449984624975</v>
       </c>
       <c r="N7">
-        <v>13.98973479122926</v>
+        <v>6.850926062931005</v>
       </c>
       <c r="O7">
-        <v>17.4315259415802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.66418957617168</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.44972972296591</v>
+        <v>12.04564851493102</v>
       </c>
       <c r="C8">
-        <v>6.619480357125719</v>
+        <v>6.042927910183708</v>
       </c>
       <c r="D8">
-        <v>9.183540648953567</v>
+        <v>8.372602649637754</v>
       </c>
       <c r="E8">
-        <v>8.622379461340742</v>
+        <v>6.873876189431119</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.00226437997154</v>
+        <v>52.80215943047018</v>
       </c>
       <c r="H8">
-        <v>10.39864754634437</v>
+        <v>5.26758283055413</v>
       </c>
       <c r="I8">
-        <v>16.95892652392427</v>
+        <v>5.506196216307025</v>
       </c>
       <c r="J8">
-        <v>5.218259219026952</v>
+        <v>16.29323075271158</v>
       </c>
       <c r="K8">
-        <v>10.15530831977442</v>
+        <v>27.13340328356686</v>
       </c>
       <c r="L8">
-        <v>7.244528070454996</v>
+        <v>4.345055439170326</v>
       </c>
       <c r="M8">
-        <v>10.1718953129183</v>
+        <v>10.01865235352622</v>
       </c>
       <c r="N8">
-        <v>13.75715173634427</v>
+        <v>7.067511335543801</v>
       </c>
       <c r="O8">
-        <v>17.35225615322162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.09535227989737</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2163605354272</v>
+        <v>13.73640638402954</v>
       </c>
       <c r="C9">
-        <v>6.897727223854518</v>
+        <v>6.995665407144637</v>
       </c>
       <c r="D9">
-        <v>9.645168681770595</v>
+        <v>8.986803640742419</v>
       </c>
       <c r="E9">
-        <v>8.62538018947245</v>
+        <v>7.269705724993679</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.42461764279844</v>
+        <v>56.56590976299056</v>
       </c>
       <c r="H9">
-        <v>10.26638057730293</v>
+        <v>4.643896684473525</v>
       </c>
       <c r="I9">
-        <v>16.67799669951523</v>
+        <v>4.995121481788259</v>
       </c>
       <c r="J9">
-        <v>5.183421754705543</v>
+        <v>16.91576473610269</v>
       </c>
       <c r="K9">
-        <v>11.5724940856242</v>
+        <v>28.37635213702027</v>
       </c>
       <c r="L9">
-        <v>7.430944336740275</v>
+        <v>4.559098657873757</v>
       </c>
       <c r="M9">
-        <v>10.87845169682017</v>
+        <v>11.53878101735857</v>
       </c>
       <c r="N9">
-        <v>13.32190487305754</v>
+        <v>7.47639212985314</v>
       </c>
       <c r="O9">
-        <v>17.28262086056501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.903255481243</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.46552989084334</v>
+        <v>14.86641277046254</v>
       </c>
       <c r="C10">
-        <v>7.095284563396481</v>
+        <v>7.676481668893962</v>
       </c>
       <c r="D10">
-        <v>9.993962068687578</v>
+        <v>9.361258039661625</v>
       </c>
       <c r="E10">
-        <v>8.644425910022049</v>
+        <v>7.469020160149882</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.84858461965737</v>
+        <v>58.60049586778823</v>
       </c>
       <c r="H10">
-        <v>10.19458976613504</v>
+        <v>4.236998244397516</v>
       </c>
       <c r="I10">
-        <v>16.52053141339203</v>
+        <v>4.655013590057055</v>
       </c>
       <c r="J10">
-        <v>5.159465173987004</v>
+        <v>17.23749421128617</v>
       </c>
       <c r="K10">
-        <v>12.51249705508437</v>
+        <v>28.9982412368959</v>
       </c>
       <c r="L10">
-        <v>7.578237223155315</v>
+        <v>4.711129312708148</v>
       </c>
       <c r="M10">
-        <v>11.38531612918932</v>
+        <v>12.5553673667775</v>
       </c>
       <c r="N10">
-        <v>13.01374399754367</v>
+        <v>7.698645585362584</v>
       </c>
       <c r="O10">
-        <v>17.28871653335224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.42359443847269</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.01562891620181</v>
+        <v>15.37648859583027</v>
       </c>
       <c r="C11">
-        <v>7.183507415766406</v>
+        <v>8.172551192132079</v>
       </c>
       <c r="D11">
-        <v>10.15414869063635</v>
+        <v>9.023827739278282</v>
       </c>
       <c r="E11">
-        <v>8.656908265553687</v>
+        <v>6.974583800364075</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.06749495952464</v>
+        <v>54.8164581944235</v>
       </c>
       <c r="H11">
-        <v>10.16788955000363</v>
+        <v>4.719698274416075</v>
       </c>
       <c r="I11">
-        <v>16.46051889590566</v>
+        <v>4.589965220400114</v>
       </c>
       <c r="J11">
-        <v>5.148913564467296</v>
+        <v>16.38743088042147</v>
       </c>
       <c r="K11">
-        <v>12.91820298302584</v>
+        <v>27.27851982217517</v>
       </c>
       <c r="L11">
-        <v>7.647366056329441</v>
+        <v>4.843755063636525</v>
       </c>
       <c r="M11">
-        <v>11.61229616202261</v>
+        <v>13.05965125343489</v>
       </c>
       <c r="N11">
-        <v>12.87582215895639</v>
+        <v>7.206495771160526</v>
       </c>
       <c r="O11">
-        <v>17.30499516134175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.25214475014502</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.21944247658509</v>
+        <v>15.58159524162408</v>
       </c>
       <c r="C12">
-        <v>7.216666438555458</v>
+        <v>8.4320484417957</v>
       </c>
       <c r="D12">
-        <v>10.2149796336552</v>
+        <v>8.660722463510652</v>
       </c>
       <c r="E12">
-        <v>8.662196962060765</v>
+        <v>6.609351437110926</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.15423098104958</v>
+        <v>51.35775314098983</v>
       </c>
       <c r="H12">
-        <v>10.15867471382871</v>
+        <v>5.656791885888905</v>
       </c>
       <c r="I12">
-        <v>16.4395523449798</v>
+        <v>4.586979823829928</v>
       </c>
       <c r="J12">
-        <v>5.14496704490394</v>
+        <v>15.64487025036057</v>
       </c>
       <c r="K12">
-        <v>13.0686934880611</v>
+        <v>25.79568146072911</v>
       </c>
       <c r="L12">
-        <v>7.673837918777669</v>
+        <v>4.976901832511806</v>
       </c>
       <c r="M12">
-        <v>11.69766176277625</v>
+        <v>13.27661410228432</v>
       </c>
       <c r="N12">
-        <v>12.82389832965291</v>
+        <v>6.758143967735652</v>
       </c>
       <c r="O12">
-        <v>17.31319007223872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.99116506624212</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.17574691742708</v>
+        <v>15.56535120659769</v>
       </c>
       <c r="C13">
-        <v>7.209536307106287</v>
+        <v>8.558727360856702</v>
       </c>
       <c r="D13">
-        <v>10.20187167639346</v>
+        <v>8.246388779589564</v>
       </c>
       <c r="E13">
-        <v>8.661032753390007</v>
+        <v>6.326198038413844</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.13537868002992</v>
+        <v>47.72529004594305</v>
       </c>
       <c r="H13">
-        <v>10.16061880239896</v>
+        <v>6.807671880551794</v>
       </c>
       <c r="I13">
-        <v>16.44398819284411</v>
+        <v>4.643718407454182</v>
       </c>
       <c r="J13">
-        <v>5.145814823303742</v>
+        <v>14.90114969096115</v>
       </c>
       <c r="K13">
-        <v>13.0364222007887</v>
+        <v>24.32345750927594</v>
       </c>
       <c r="L13">
-        <v>7.668123821207332</v>
+        <v>5.113175771289658</v>
       </c>
       <c r="M13">
-        <v>11.67930388237665</v>
+        <v>13.29761645161471</v>
       </c>
       <c r="N13">
-        <v>12.83506787511092</v>
+        <v>6.320760844214357</v>
       </c>
       <c r="O13">
-        <v>17.31133343250275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.64181756740276</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.03248666725864</v>
+        <v>15.45279224864721</v>
       </c>
       <c r="C14">
-        <v>7.186240485312567</v>
+        <v>8.595485096167105</v>
       </c>
       <c r="D14">
-        <v>10.15915010425995</v>
+        <v>7.930796343409649</v>
       </c>
       <c r="E14">
-        <v>8.657332035567759</v>
+        <v>6.185465515165343</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.07455333455162</v>
+        <v>45.07082255056346</v>
       </c>
       <c r="H14">
-        <v>10.1671132526334</v>
+        <v>7.688121485498184</v>
       </c>
       <c r="I14">
-        <v>16.45875819505062</v>
+        <v>4.712329808719474</v>
       </c>
       <c r="J14">
-        <v>5.148587900772577</v>
+        <v>14.37809753501205</v>
       </c>
       <c r="K14">
-        <v>12.93064682308243</v>
+        <v>23.29583172937563</v>
       </c>
       <c r="L14">
-        <v>7.649538079302317</v>
+        <v>5.21442042680119</v>
       </c>
       <c r="M14">
-        <v>11.61933137472916</v>
+        <v>13.22550789970378</v>
       </c>
       <c r="N14">
-        <v>12.87154438300435</v>
+        <v>6.026961306892661</v>
       </c>
       <c r="O14">
-        <v>17.30562815922339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.35479806817897</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.94415122648562</v>
+        <v>15.3762990032008</v>
       </c>
       <c r="C15">
-        <v>7.171938346983668</v>
+        <v>8.582839054543197</v>
       </c>
       <c r="D15">
-        <v>10.13300293647065</v>
+        <v>7.842316956024787</v>
       </c>
       <c r="E15">
-        <v>8.655138793001402</v>
+        <v>6.155872482030026</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.0377986748156</v>
+        <v>44.34865827433913</v>
       </c>
       <c r="H15">
-        <v>10.17120916516045</v>
+        <v>7.904308646123821</v>
       </c>
       <c r="I15">
-        <v>16.46803699226033</v>
+        <v>4.745919679365196</v>
       </c>
       <c r="J15">
-        <v>5.150292871350313</v>
+        <v>14.24249176722176</v>
       </c>
       <c r="K15">
-        <v>12.86544756286431</v>
+        <v>23.03010899040158</v>
       </c>
       <c r="L15">
-        <v>7.638191764075952</v>
+        <v>5.23329445860139</v>
       </c>
       <c r="M15">
-        <v>11.58251812011216</v>
+        <v>13.16678470148614</v>
       </c>
       <c r="N15">
-        <v>12.89392626468335</v>
+        <v>5.956464980024426</v>
       </c>
       <c r="O15">
-        <v>17.30240057969282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.26674380603831</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42894806575688</v>
+        <v>14.9162522413543</v>
       </c>
       <c r="C16">
-        <v>7.08948477635696</v>
+        <v>8.303525492991191</v>
       </c>
       <c r="D16">
-        <v>9.983520008727709</v>
+        <v>7.752030919755783</v>
       </c>
       <c r="E16">
-        <v>8.643688093550365</v>
+        <v>6.117875716746103</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.83481070324742</v>
+        <v>44.03065223337388</v>
       </c>
       <c r="H16">
-        <v>10.19645788805725</v>
+        <v>7.800469047748143</v>
       </c>
       <c r="I16">
-        <v>16.52469461256527</v>
+        <v>4.884126194045812</v>
       </c>
       <c r="J16">
-        <v>5.160161659839668</v>
+        <v>14.23251063860717</v>
       </c>
       <c r="K16">
-        <v>12.4855430352679</v>
+        <v>23.01295084004087</v>
       </c>
       <c r="L16">
-        <v>7.573761284859875</v>
+        <v>5.140811815844443</v>
       </c>
       <c r="M16">
-        <v>11.37040396213492</v>
+        <v>12.75335193365257</v>
       </c>
       <c r="N16">
-        <v>13.02280125396501</v>
+        <v>5.944665548428632</v>
       </c>
       <c r="O16">
-        <v>17.28793201199136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.10671775868066</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.10483341581511</v>
+        <v>14.6180147020522</v>
       </c>
       <c r="C17">
-        <v>7.038471241621039</v>
+        <v>8.063502622974694</v>
       </c>
       <c r="D17">
-        <v>9.892172044219736</v>
+        <v>7.853761002915491</v>
       </c>
       <c r="E17">
-        <v>8.63765060643677</v>
+        <v>6.152208803169128</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.71702538344315</v>
+        <v>45.21330334363111</v>
       </c>
       <c r="H17">
-        <v>10.2135004595437</v>
+        <v>7.238027594311747</v>
       </c>
       <c r="I17">
-        <v>16.5624895153596</v>
+        <v>4.954582858327812</v>
       </c>
       <c r="J17">
-        <v>5.166304085235593</v>
+        <v>14.50140045217089</v>
       </c>
       <c r="K17">
-        <v>12.24687780206373</v>
+        <v>23.54071491248009</v>
       </c>
       <c r="L17">
-        <v>7.534771470064934</v>
+        <v>5.010605411881955</v>
       </c>
       <c r="M17">
-        <v>11.23930587351775</v>
+        <v>12.46892907519933</v>
       </c>
       <c r="N17">
-        <v>13.10242658934571</v>
+        <v>6.089125498173102</v>
       </c>
       <c r="O17">
-        <v>17.28257800727173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.13988458847574</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91543812902188</v>
+        <v>14.43381066825935</v>
       </c>
       <c r="C18">
-        <v>7.008975235365258</v>
+        <v>7.818908955539785</v>
       </c>
       <c r="D18">
-        <v>9.839776705170532</v>
+        <v>8.135457270185963</v>
       </c>
       <c r="E18">
-        <v>8.634536649148371</v>
+        <v>6.316459249664359</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.65172498313816</v>
+        <v>47.94167529417165</v>
       </c>
       <c r="H18">
-        <v>10.22386121744833</v>
+        <v>6.289579533113934</v>
       </c>
       <c r="I18">
-        <v>16.5853162741542</v>
+        <v>4.963661512512753</v>
       </c>
       <c r="J18">
-        <v>5.16986968672771</v>
+        <v>15.06957648564766</v>
       </c>
       <c r="K18">
-        <v>12.10754112740492</v>
+        <v>24.66548467558313</v>
       </c>
       <c r="L18">
-        <v>7.51254622009047</v>
+        <v>4.854257570577639</v>
       </c>
       <c r="M18">
-        <v>11.16356701699143</v>
+        <v>12.26698266198753</v>
       </c>
       <c r="N18">
-        <v>13.14843922278004</v>
+        <v>6.401588736238086</v>
       </c>
       <c r="O18">
-        <v>17.28076443583945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.34147314880152</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.85080026057007</v>
+        <v>14.34896848599599</v>
       </c>
       <c r="C19">
-        <v>6.998962275057001</v>
+        <v>7.629657710613309</v>
       </c>
       <c r="D19">
-        <v>9.822063014273546</v>
+        <v>8.53658776050133</v>
       </c>
       <c r="E19">
-        <v>8.633543521224702</v>
+        <v>6.652028163065858</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.63003255500623</v>
+        <v>51.55250280336811</v>
       </c>
       <c r="H19">
-        <v>10.22746391722336</v>
+        <v>5.277366651736632</v>
       </c>
       <c r="I19">
-        <v>16.5932292954605</v>
+        <v>4.933150092719312</v>
       </c>
       <c r="J19">
-        <v>5.171082564231592</v>
+        <v>15.81424254860403</v>
       </c>
       <c r="K19">
-        <v>12.06000966171856</v>
+        <v>26.14732753511742</v>
       </c>
       <c r="L19">
-        <v>7.505055936332712</v>
+        <v>4.723947780093436</v>
       </c>
       <c r="M19">
-        <v>11.13786790940151</v>
+        <v>12.15774417354771</v>
       </c>
       <c r="N19">
-        <v>13.16405573206847</v>
+        <v>6.852660301718111</v>
       </c>
       <c r="O19">
-        <v>17.28036512126075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.66068288148817</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.13964338307849</v>
+        <v>14.56500440895841</v>
       </c>
       <c r="C20">
-        <v>7.04391778893869</v>
+        <v>7.553967280142547</v>
       </c>
       <c r="D20">
-        <v>9.901881469060166</v>
+        <v>9.253637690234768</v>
       </c>
       <c r="E20">
-        <v>8.638256095431061</v>
+        <v>7.402845333016163</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.72930990293114</v>
+        <v>57.71476807662783</v>
       </c>
       <c r="H20">
-        <v>10.21162818590248</v>
+        <v>4.347488028640999</v>
       </c>
       <c r="I20">
-        <v>16.55835294161886</v>
+        <v>4.767460130316867</v>
       </c>
       <c r="J20">
-        <v>5.165646840122485</v>
+        <v>17.07714807587232</v>
       </c>
       <c r="K20">
-        <v>12.27249756256522</v>
+        <v>28.67357248242779</v>
       </c>
       <c r="L20">
-        <v>7.538901315923459</v>
+        <v>4.670309451543448</v>
       </c>
       <c r="M20">
-        <v>11.2532966595984</v>
+        <v>12.30602793907691</v>
       </c>
       <c r="N20">
-        <v>13.09392831213981</v>
+        <v>7.644532137827653</v>
       </c>
       <c r="O20">
-        <v>17.283016293192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.2882687169363</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.07468738900478</v>
+        <v>15.3934966100002</v>
       </c>
       <c r="C21">
-        <v>7.193089883062155</v>
+        <v>8.016719237486127</v>
       </c>
       <c r="D21">
-        <v>10.17169416251514</v>
+        <v>9.626628592996124</v>
       </c>
       <c r="E21">
-        <v>8.658403674845138</v>
+        <v>7.66776157387614</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.09231431392439</v>
+        <v>60.12552381246225</v>
       </c>
       <c r="H21">
-        <v>10.16518103782221</v>
+        <v>4.001617458583491</v>
       </c>
       <c r="I21">
-        <v>16.4543714290097</v>
+        <v>4.494704834751704</v>
       </c>
       <c r="J21">
-        <v>5.147772052184658</v>
+        <v>17.51039225397472</v>
       </c>
       <c r="K21">
-        <v>12.96180078483094</v>
+        <v>29.52218534386143</v>
       </c>
       <c r="L21">
-        <v>7.654989265606238</v>
+        <v>4.780708602801512</v>
       </c>
       <c r="M21">
-        <v>11.63696319845017</v>
+        <v>13.03875220807073</v>
       </c>
       <c r="N21">
-        <v>12.86082226694619</v>
+        <v>7.919602049659864</v>
       </c>
       <c r="O21">
-        <v>17.30724812216027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.74934532565061</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.65960056264395</v>
+        <v>15.92060910436603</v>
       </c>
       <c r="C22">
-        <v>7.2891260545739</v>
+        <v>8.302161860410513</v>
       </c>
       <c r="D22">
-        <v>10.34901384023857</v>
+        <v>9.839605432887163</v>
       </c>
       <c r="E22">
-        <v>8.674852311643358</v>
+        <v>7.804661978323652</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.35197420766261</v>
+        <v>61.53022585381744</v>
       </c>
       <c r="H22">
-        <v>10.14006691643605</v>
+        <v>3.790402518270982</v>
       </c>
       <c r="I22">
-        <v>16.39670949939741</v>
+        <v>4.3146180956431</v>
       </c>
       <c r="J22">
-        <v>5.136375994556267</v>
+        <v>17.76201099319822</v>
       </c>
       <c r="K22">
-        <v>13.39399614167997</v>
+        <v>30.01398213569523</v>
       </c>
       <c r="L22">
-        <v>7.732569486571967</v>
+        <v>4.853667734946232</v>
       </c>
       <c r="M22">
-        <v>11.88426407036187</v>
+        <v>13.49829829135298</v>
       </c>
       <c r="N22">
-        <v>12.71023635546314</v>
+        <v>8.05839690897173</v>
       </c>
       <c r="O22">
-        <v>17.3349617150371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.02032718165383</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.34980408866937</v>
+        <v>15.6458021483884</v>
       </c>
       <c r="C23">
-        <v>7.238006697969772</v>
+        <v>8.132266556105911</v>
       </c>
       <c r="D23">
-        <v>10.25429985890026</v>
+        <v>9.729146770922778</v>
       </c>
       <c r="E23">
-        <v>8.66576895069708</v>
+        <v>7.736063145068547</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.21130939564939</v>
+        <v>60.90586347713661</v>
       </c>
       <c r="H23">
-        <v>10.15297775424884</v>
+        <v>3.901017905383994</v>
       </c>
       <c r="I23">
-        <v>16.42651248325311</v>
+        <v>4.400954550084702</v>
       </c>
       <c r="J23">
-        <v>5.14243232198295</v>
+        <v>17.65440349007109</v>
       </c>
       <c r="K23">
-        <v>13.16499619798336</v>
+        <v>29.80899616572795</v>
       </c>
       <c r="L23">
-        <v>7.691010714226961</v>
+        <v>4.815378662501188</v>
       </c>
       <c r="M23">
-        <v>11.75261147273866</v>
+        <v>13.25128897050745</v>
       </c>
       <c r="N23">
-        <v>12.79045290493129</v>
+        <v>7.981938347837084</v>
       </c>
       <c r="O23">
-        <v>17.31905447792929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.87574036807027</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.12391532329087</v>
+        <v>14.55569811471871</v>
       </c>
       <c r="C24">
-        <v>7.041455926131625</v>
+        <v>7.500142546990657</v>
       </c>
       <c r="D24">
-        <v>9.897491455066117</v>
+        <v>9.298399921049551</v>
       </c>
       <c r="E24">
-        <v>8.637981242621921</v>
+        <v>7.463875318551315</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.72374855377712</v>
+        <v>58.29110389481029</v>
       </c>
       <c r="H24">
-        <v>10.21247289090378</v>
+        <v>4.330437786429178</v>
       </c>
       <c r="I24">
-        <v>16.56021967330466</v>
+        <v>4.750267821235338</v>
       </c>
       <c r="J24">
-        <v>5.165943873940249</v>
+        <v>17.20084752124796</v>
       </c>
       <c r="K24">
-        <v>12.26092148788208</v>
+        <v>28.92820723792224</v>
       </c>
       <c r="L24">
-        <v>7.537033618349779</v>
+        <v>4.667122102113411</v>
       </c>
       <c r="M24">
-        <v>11.24697256861553</v>
+        <v>12.28241979904234</v>
       </c>
       <c r="N24">
-        <v>13.0977696498102</v>
+        <v>7.69223031104585</v>
       </c>
       <c r="O24">
-        <v>17.28281421213644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.31681918193391</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75864865647635</v>
+        <v>13.29097324876055</v>
       </c>
       <c r="C25">
-        <v>6.823602482782622</v>
+        <v>6.779047372988539</v>
       </c>
       <c r="D25">
-        <v>9.518391103142346</v>
+        <v>8.818746403281857</v>
       </c>
       <c r="E25">
-        <v>8.621665715904578</v>
+        <v>7.158501026382108</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.29089224117724</v>
+        <v>55.36851857334716</v>
       </c>
       <c r="H25">
-        <v>10.29784992946441</v>
+        <v>4.811091100272264</v>
       </c>
       <c r="I25">
-        <v>16.74572604726717</v>
+        <v>5.142787663775949</v>
       </c>
       <c r="J25">
-        <v>5.192555500942666</v>
+        <v>16.70648140974852</v>
       </c>
       <c r="K25">
-        <v>11.20687604022047</v>
+        <v>27.95471341049093</v>
       </c>
       <c r="L25">
-        <v>7.37865892555553</v>
+        <v>4.501688733015319</v>
       </c>
       <c r="M25">
-        <v>10.68911265685584</v>
+        <v>11.15300967623408</v>
       </c>
       <c r="N25">
-        <v>13.43752875613591</v>
+        <v>7.371377452834993</v>
       </c>
       <c r="O25">
-        <v>17.291764643399</v>
+        <v>10.69013505242082</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.29749851336434</v>
+        <v>11.94783036416609</v>
       </c>
       <c r="C2">
-        <v>6.156977518283224</v>
+        <v>6.852198392291337</v>
       </c>
       <c r="D2">
-        <v>8.462424102504071</v>
+        <v>8.375994112688886</v>
       </c>
       <c r="E2">
-        <v>6.935015256119158</v>
+        <v>6.850634134527941</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>53.47581628042517</v>
+        <v>47.1888854185237</v>
       </c>
       <c r="H2">
-        <v>5.176496595489014</v>
+        <v>4.81800118736226</v>
       </c>
       <c r="I2">
-        <v>5.424459032842613</v>
+        <v>5.003673806965011</v>
       </c>
       <c r="J2">
-        <v>16.40886929244976</v>
+        <v>14.74624505927449</v>
       </c>
       <c r="K2">
-        <v>27.37094008688855</v>
+        <v>24.14561574174786</v>
       </c>
       <c r="L2">
-        <v>4.376229778281105</v>
+        <v>18.10161985313574</v>
       </c>
       <c r="M2">
-        <v>10.23695242780597</v>
+        <v>17.72740842615754</v>
       </c>
       <c r="N2">
-        <v>7.122141823464593</v>
+        <v>4.405241628444019</v>
       </c>
       <c r="O2">
-        <v>10.2090356998972</v>
+        <v>10.53466950217345</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.482405499085777</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.17016520788512</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57126778301916</v>
+        <v>11.21777134134332</v>
       </c>
       <c r="C3">
-        <v>5.742584754171172</v>
+        <v>6.340724956431503</v>
       </c>
       <c r="D3">
-        <v>8.210941306425555</v>
+        <v>8.142448334057049</v>
       </c>
       <c r="E3">
-        <v>6.771165422852573</v>
+        <v>6.716751600199296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51.96394050488785</v>
+        <v>46.33191500805749</v>
       </c>
       <c r="H3">
-        <v>5.437494100055056</v>
+        <v>5.053018113403168</v>
       </c>
       <c r="I3">
-        <v>5.636547282023587</v>
+        <v>5.186288744177321</v>
       </c>
       <c r="J3">
-        <v>16.1664643444846</v>
+        <v>14.56718642855442</v>
       </c>
       <c r="K3">
-        <v>26.88122705726672</v>
+        <v>23.91049030074713</v>
       </c>
       <c r="L3">
-        <v>4.286898622206573</v>
+        <v>18.0153625127913</v>
       </c>
       <c r="M3">
-        <v>9.645060994840255</v>
+        <v>17.49642443983205</v>
       </c>
       <c r="N3">
-        <v>6.953749329190593</v>
+        <v>4.321652186648339</v>
       </c>
       <c r="O3">
-        <v>9.874279613595347</v>
+        <v>9.861032022899858</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.312927521779729</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.823454148490612</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.10309222463374</v>
+        <v>10.74489048365825</v>
       </c>
       <c r="C4">
-        <v>5.477946765678842</v>
+        <v>6.012206010302055</v>
       </c>
       <c r="D4">
-        <v>8.054042247146013</v>
+        <v>7.997067175374399</v>
       </c>
       <c r="E4">
-        <v>6.667418520125715</v>
+        <v>6.63204098035829</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.01088319868965</v>
+        <v>45.79693487795883</v>
       </c>
       <c r="H4">
-        <v>5.603302684850138</v>
+        <v>5.202463610832505</v>
       </c>
       <c r="I4">
-        <v>5.771763424569764</v>
+        <v>5.303050936679186</v>
       </c>
       <c r="J4">
-        <v>16.0158302044418</v>
+        <v>14.45403543700859</v>
       </c>
       <c r="K4">
-        <v>26.5735917622439</v>
+        <v>23.76190310165644</v>
       </c>
       <c r="L4">
-        <v>4.230245233107756</v>
+        <v>17.95402110390859</v>
       </c>
       <c r="M4">
-        <v>9.298524537469905</v>
+        <v>17.36554727404124</v>
       </c>
       <c r="N4">
-        <v>6.849069471725568</v>
+        <v>4.268666283541595</v>
       </c>
       <c r="O4">
-        <v>9.664654620687196</v>
+        <v>9.424035130862826</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.207889516286937</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.605690578495157</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90533840620171</v>
+        <v>10.54470494447806</v>
       </c>
       <c r="C5">
-        <v>5.3742833868877</v>
+        <v>5.881463011990994</v>
       </c>
       <c r="D5">
-        <v>7.988679467948242</v>
+        <v>7.936644579140187</v>
       </c>
       <c r="E5">
-        <v>6.623106760745364</v>
+        <v>6.595869326315499</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>50.57927652943833</v>
+        <v>45.54577437164026</v>
       </c>
       <c r="H5">
-        <v>5.672827286069735</v>
+        <v>5.265140534397756</v>
       </c>
       <c r="I5">
-        <v>5.83041128365574</v>
+        <v>5.354368791490324</v>
       </c>
       <c r="J5">
-        <v>15.94646780928573</v>
+        <v>14.40058616177974</v>
       </c>
       <c r="K5">
-        <v>26.43017072357752</v>
+        <v>23.68691927764351</v>
       </c>
       <c r="L5">
-        <v>4.206511106099272</v>
+        <v>17.91512016627329</v>
       </c>
       <c r="M5">
-        <v>9.156190321796725</v>
+        <v>17.3065495757612</v>
       </c>
       <c r="N5">
-        <v>6.806851530960248</v>
+        <v>4.246528789683473</v>
       </c>
       <c r="O5">
-        <v>9.578522460667484</v>
+        <v>9.261436840316037</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.165493779147577</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.516017501763551</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87035505307763</v>
+        <v>10.50943245385891</v>
       </c>
       <c r="C6">
-        <v>5.365186887797104</v>
+        <v>5.867836259714024</v>
       </c>
       <c r="D6">
-        <v>7.976724379008504</v>
+        <v>7.925669682531391</v>
       </c>
       <c r="E6">
-        <v>6.614165400806959</v>
+        <v>6.588567040013219</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50.46150531338781</v>
+        <v>45.46595800771571</v>
       </c>
       <c r="H6">
-        <v>5.685110623987997</v>
+        <v>5.276192465914567</v>
       </c>
       <c r="I6">
-        <v>5.843096906861152</v>
+        <v>5.366210040232033</v>
       </c>
       <c r="J6">
-        <v>15.92567334098188</v>
+        <v>14.38364745160531</v>
       </c>
       <c r="K6">
-        <v>26.38619702057657</v>
+        <v>23.65803752636491</v>
       </c>
       <c r="L6">
-        <v>4.202316854612737</v>
+        <v>17.89414438984366</v>
       </c>
       <c r="M6">
-        <v>9.134573727582497</v>
+        <v>17.28650473029859</v>
       </c>
       <c r="N6">
-        <v>6.800717840925158</v>
+        <v>4.242680451087527</v>
       </c>
       <c r="O6">
-        <v>9.564428594211561</v>
+        <v>9.237472122274026</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.159197034444001</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.501288365219168</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.09555699880982</v>
+        <v>10.74013075282204</v>
       </c>
       <c r="C7">
-        <v>5.498571190776822</v>
+        <v>6.022164218052033</v>
       </c>
       <c r="D7">
-        <v>8.050272534465858</v>
+        <v>7.994488467318081</v>
       </c>
       <c r="E7">
-        <v>6.662669684700264</v>
+        <v>6.628700690690025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50.88135952355364</v>
+        <v>45.72751036623491</v>
       </c>
       <c r="H7">
-        <v>5.605993829613998</v>
+        <v>5.20564581587536</v>
       </c>
       <c r="I7">
-        <v>5.780168937449425</v>
+        <v>5.313114512845358</v>
       </c>
       <c r="J7">
-        <v>15.98978394959843</v>
+        <v>14.37755618553924</v>
       </c>
       <c r="K7">
-        <v>26.51724379276248</v>
+        <v>23.69427207051039</v>
       </c>
       <c r="L7">
-        <v>4.229325337485815</v>
+        <v>17.89570659373769</v>
       </c>
       <c r="M7">
-        <v>9.302449984624975</v>
+        <v>17.32152585747512</v>
       </c>
       <c r="N7">
-        <v>6.850926062931005</v>
+        <v>4.267599367429024</v>
       </c>
       <c r="O7">
-        <v>9.66418957617168</v>
+        <v>9.42295580633837</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.207976928170108</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.605105349743067</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.04564851493102</v>
+        <v>11.70289187288662</v>
       </c>
       <c r="C8">
-        <v>6.042927910183708</v>
+        <v>6.674010866470148</v>
       </c>
       <c r="D8">
-        <v>8.372602649637754</v>
+        <v>8.295122937228134</v>
       </c>
       <c r="E8">
-        <v>6.873876189431119</v>
+        <v>6.802550113547362</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>52.80215943047018</v>
+        <v>46.88484902512738</v>
       </c>
       <c r="H8">
-        <v>5.26758283055413</v>
+        <v>4.902435743920008</v>
       </c>
       <c r="I8">
-        <v>5.506196216307025</v>
+        <v>5.078951431465015</v>
       </c>
       <c r="J8">
-        <v>16.29323075271158</v>
+        <v>14.48241468562537</v>
       </c>
       <c r="K8">
-        <v>27.13340328356686</v>
+        <v>23.93648615352753</v>
       </c>
       <c r="L8">
-        <v>4.345055439170326</v>
+        <v>17.96594280421653</v>
       </c>
       <c r="M8">
-        <v>10.01865235352622</v>
+        <v>17.55759194913079</v>
       </c>
       <c r="N8">
-        <v>7.067511335543801</v>
+        <v>4.375096711724093</v>
       </c>
       <c r="O8">
-        <v>10.09535227989737</v>
+        <v>10.30462509410023</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.42239586836968</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.0524126887967</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.73640638402954</v>
+        <v>13.39203255506615</v>
       </c>
       <c r="C9">
-        <v>6.995665407144637</v>
+        <v>7.84180543090304</v>
       </c>
       <c r="D9">
-        <v>8.986803640742419</v>
+        <v>8.867598612973774</v>
       </c>
       <c r="E9">
-        <v>7.269705724993679</v>
+        <v>7.126999260802617</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.56590976299056</v>
+        <v>49.11879269994891</v>
       </c>
       <c r="H9">
-        <v>4.643896684473525</v>
+        <v>4.34219721659287</v>
       </c>
       <c r="I9">
-        <v>4.995121481788259</v>
+        <v>4.638986466738571</v>
       </c>
       <c r="J9">
-        <v>16.91576473610269</v>
+        <v>14.89499121517595</v>
       </c>
       <c r="K9">
-        <v>28.37635213702027</v>
+        <v>24.53495297946804</v>
       </c>
       <c r="L9">
-        <v>4.559098657873757</v>
+        <v>18.17111277270733</v>
       </c>
       <c r="M9">
-        <v>11.53878101735857</v>
+        <v>18.20884640730005</v>
       </c>
       <c r="N9">
-        <v>7.47639212985314</v>
+        <v>4.575023569377504</v>
       </c>
       <c r="O9">
-        <v>10.903255481243</v>
+        <v>11.85099738170209</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.835043901830868</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.88553188586839</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.86641277046254</v>
+        <v>14.57246346440962</v>
       </c>
       <c r="C10">
-        <v>7.676481668893962</v>
+        <v>8.60281053385185</v>
       </c>
       <c r="D10">
-        <v>9.361258039661625</v>
+        <v>9.220845340494266</v>
       </c>
       <c r="E10">
-        <v>7.469020160149882</v>
+        <v>7.288494742358259</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.60049586778823</v>
+        <v>50.45497105749862</v>
       </c>
       <c r="H10">
-        <v>4.236998244397516</v>
+        <v>3.982555675827542</v>
       </c>
       <c r="I10">
-        <v>4.655013590057055</v>
+        <v>4.352186790444058</v>
       </c>
       <c r="J10">
-        <v>17.23749421128617</v>
+        <v>14.80030772129269</v>
       </c>
       <c r="K10">
-        <v>28.9982412368959</v>
+        <v>24.65060838040186</v>
       </c>
       <c r="L10">
-        <v>4.711129312708148</v>
+        <v>18.04945579194215</v>
       </c>
       <c r="M10">
-        <v>12.5553673667775</v>
+        <v>18.5060256357101</v>
       </c>
       <c r="N10">
-        <v>7.698645585362584</v>
+        <v>4.718587785673994</v>
       </c>
       <c r="O10">
-        <v>11.42359443847269</v>
+        <v>12.87038442539458</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.051466020915351</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.41904535716584</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.37648859583027</v>
+        <v>15.1267159354453</v>
       </c>
       <c r="C11">
-        <v>8.172551192132079</v>
+        <v>8.943825013492754</v>
       </c>
       <c r="D11">
-        <v>9.023827739278282</v>
+        <v>8.9041553656629</v>
       </c>
       <c r="E11">
-        <v>6.974583800364075</v>
+        <v>6.846333807896514</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.8164581944235</v>
+        <v>47.73261928209174</v>
       </c>
       <c r="H11">
-        <v>4.719698274416075</v>
+        <v>4.504448570573357</v>
       </c>
       <c r="I11">
-        <v>4.589965220400114</v>
+        <v>4.303080872856712</v>
       </c>
       <c r="J11">
-        <v>16.38743088042147</v>
+        <v>13.56275292549335</v>
       </c>
       <c r="K11">
-        <v>27.27851982217517</v>
+        <v>23.05023725689246</v>
       </c>
       <c r="L11">
-        <v>4.843755063636525</v>
+        <v>16.73326526863584</v>
       </c>
       <c r="M11">
-        <v>13.05965125343489</v>
+        <v>17.40717852877718</v>
       </c>
       <c r="N11">
-        <v>7.206495771160526</v>
+        <v>4.867595568405624</v>
       </c>
       <c r="O11">
-        <v>11.25214475014502</v>
+        <v>13.33449562291114</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.523823440050487</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.24481365947638</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.58159524162408</v>
+        <v>15.35712149078995</v>
       </c>
       <c r="C12">
-        <v>8.4320484417957</v>
+        <v>9.078185109387274</v>
       </c>
       <c r="D12">
-        <v>8.660722463510652</v>
+        <v>8.559596317589348</v>
       </c>
       <c r="E12">
-        <v>6.609351437110926</v>
+        <v>6.527251741382464</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>51.35775314098983</v>
+        <v>45.15245880850493</v>
       </c>
       <c r="H12">
-        <v>5.656791885888905</v>
+        <v>5.47658248985596</v>
       </c>
       <c r="I12">
-        <v>4.586979823829928</v>
+        <v>4.299321236058867</v>
       </c>
       <c r="J12">
-        <v>15.64487025036057</v>
+        <v>12.78887163970526</v>
       </c>
       <c r="K12">
-        <v>25.79568146072911</v>
+        <v>21.84537392186492</v>
       </c>
       <c r="L12">
-        <v>4.976901832511806</v>
+        <v>15.79439768563647</v>
       </c>
       <c r="M12">
-        <v>13.27661410228432</v>
+        <v>16.5276814829819</v>
       </c>
       <c r="N12">
-        <v>6.758143967735652</v>
+        <v>5.011841698475893</v>
       </c>
       <c r="O12">
-        <v>10.99116506624212</v>
+        <v>13.5228581652158</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.052081510376391</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.9793803103273</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.56535120659769</v>
+        <v>15.35020488864139</v>
       </c>
       <c r="C13">
-        <v>8.558727360856702</v>
+        <v>9.110705629785119</v>
       </c>
       <c r="D13">
-        <v>8.246388779589564</v>
+        <v>8.162463497948465</v>
       </c>
       <c r="E13">
-        <v>6.326198038413844</v>
+        <v>6.289927932927074</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.72529004594305</v>
+        <v>42.26972211147312</v>
       </c>
       <c r="H13">
-        <v>6.807671880551794</v>
+        <v>6.648483247375229</v>
       </c>
       <c r="I13">
-        <v>4.643718407454182</v>
+        <v>4.343160090765295</v>
       </c>
       <c r="J13">
-        <v>14.90114969096115</v>
+        <v>12.35022346576821</v>
       </c>
       <c r="K13">
-        <v>24.32345750927594</v>
+        <v>20.84116069709954</v>
       </c>
       <c r="L13">
-        <v>5.113175771289658</v>
+        <v>15.04798454690902</v>
       </c>
       <c r="M13">
-        <v>13.29761645161471</v>
+        <v>15.75298050393243</v>
       </c>
       <c r="N13">
-        <v>6.320760844214357</v>
+        <v>5.158570205529777</v>
       </c>
       <c r="O13">
-        <v>10.64181756740276</v>
+        <v>13.52528970446962</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.600897580954221</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.62365891230287</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.45279224864721</v>
+        <v>15.23713590365458</v>
       </c>
       <c r="C14">
-        <v>8.595485096167105</v>
+        <v>9.092837032513328</v>
       </c>
       <c r="D14">
-        <v>7.930796343409649</v>
+        <v>7.858708049356272</v>
       </c>
       <c r="E14">
-        <v>6.185465515165343</v>
+        <v>6.181432437915489</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.07082255056346</v>
+        <v>40.1041760678048</v>
       </c>
       <c r="H14">
-        <v>7.688121485498184</v>
+        <v>7.537736346137875</v>
       </c>
       <c r="I14">
-        <v>4.712329808719474</v>
+        <v>4.397925423774733</v>
       </c>
       <c r="J14">
-        <v>14.37809753501205</v>
+        <v>12.16494011731059</v>
       </c>
       <c r="K14">
-        <v>23.29583172937563</v>
+        <v>20.21781643966011</v>
       </c>
       <c r="L14">
-        <v>5.21442042680119</v>
+        <v>14.59737957100154</v>
       </c>
       <c r="M14">
-        <v>13.22550789970378</v>
+        <v>15.25519884760593</v>
       </c>
       <c r="N14">
-        <v>6.026961306892661</v>
+        <v>5.266871047475752</v>
       </c>
       <c r="O14">
-        <v>10.35479806817897</v>
+        <v>13.4439587693845</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.301219767539227</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.33097492194024</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.3762990032008</v>
+        <v>15.15875955383721</v>
       </c>
       <c r="C15">
-        <v>8.582839054543197</v>
+        <v>9.07205603183573</v>
       </c>
       <c r="D15">
-        <v>7.842316956024787</v>
+        <v>7.773239447536767</v>
       </c>
       <c r="E15">
-        <v>6.155872482030026</v>
+        <v>6.16076837973289</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.34865827433913</v>
+        <v>39.49404532976583</v>
       </c>
       <c r="H15">
-        <v>7.904308646123821</v>
+        <v>7.753879644315052</v>
       </c>
       <c r="I15">
-        <v>4.745919679365196</v>
+        <v>4.42608342796869</v>
       </c>
       <c r="J15">
-        <v>14.24249176722176</v>
+        <v>12.16376740071213</v>
       </c>
       <c r="K15">
-        <v>23.03010899040158</v>
+        <v>20.08521826240871</v>
       </c>
       <c r="L15">
-        <v>5.23329445860139</v>
+        <v>14.50580770134864</v>
       </c>
       <c r="M15">
-        <v>13.16678470148614</v>
+        <v>15.14294832434424</v>
       </c>
       <c r="N15">
-        <v>5.956464980024426</v>
+        <v>5.288091619676024</v>
       </c>
       <c r="O15">
-        <v>10.26674380603831</v>
+        <v>13.38468299789373</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.230777974646879</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.24095970979555</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.9162522413543</v>
+        <v>14.67977154149411</v>
       </c>
       <c r="C16">
-        <v>8.303525492991191</v>
+        <v>8.839791415214053</v>
       </c>
       <c r="D16">
-        <v>7.752030919755783</v>
+        <v>7.683893828774309</v>
       </c>
       <c r="E16">
-        <v>6.117875716746103</v>
+        <v>6.133780613495309</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.03065223337388</v>
+        <v>39.0927625468025</v>
       </c>
       <c r="H16">
-        <v>7.800469047748143</v>
+        <v>7.629110387942529</v>
       </c>
       <c r="I16">
-        <v>4.884126194045812</v>
+        <v>4.540178287955091</v>
       </c>
       <c r="J16">
-        <v>14.23251063860717</v>
+        <v>12.59425279257373</v>
       </c>
       <c r="K16">
-        <v>23.01295084004087</v>
+        <v>20.33962147194918</v>
       </c>
       <c r="L16">
-        <v>5.140811815844443</v>
+        <v>14.73674007286981</v>
       </c>
       <c r="M16">
-        <v>12.75335193365257</v>
+        <v>15.2825436505854</v>
       </c>
       <c r="N16">
-        <v>5.944665548428632</v>
+        <v>5.2028279913786</v>
       </c>
       <c r="O16">
-        <v>10.10671775868066</v>
+        <v>12.9873996002203</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.232817987013277</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.07587549097927</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6180147020522</v>
+        <v>14.36202789761397</v>
       </c>
       <c r="C17">
-        <v>8.063502622974694</v>
+        <v>8.655265538911001</v>
       </c>
       <c r="D17">
-        <v>7.853761002915491</v>
+        <v>7.78076625727054</v>
       </c>
       <c r="E17">
-        <v>6.152208803169128</v>
+        <v>6.157707582162471</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.21330334363111</v>
+        <v>39.98375612774902</v>
       </c>
       <c r="H17">
-        <v>7.238027594311747</v>
+        <v>7.043151830462422</v>
       </c>
       <c r="I17">
-        <v>4.954582858327812</v>
+        <v>4.600171076649382</v>
       </c>
       <c r="J17">
-        <v>14.50140045217089</v>
+        <v>12.99452417092675</v>
       </c>
       <c r="K17">
-        <v>23.54071491248009</v>
+        <v>20.84786818796047</v>
       </c>
       <c r="L17">
-        <v>5.010605411881955</v>
+        <v>15.15274314587114</v>
       </c>
       <c r="M17">
-        <v>12.46892907519933</v>
+        <v>15.63147466403833</v>
       </c>
       <c r="N17">
-        <v>6.089125498173102</v>
+        <v>5.073310990307017</v>
       </c>
       <c r="O17">
-        <v>10.13988458847574</v>
+        <v>12.71814242500913</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.390184560623649</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.10838523135376</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43381066825935</v>
+        <v>14.15245503533271</v>
       </c>
       <c r="C18">
-        <v>7.818908955539785</v>
+        <v>8.495515381987063</v>
       </c>
       <c r="D18">
-        <v>8.135457270185963</v>
+        <v>8.049907304340334</v>
       </c>
       <c r="E18">
-        <v>6.316459249664359</v>
+        <v>6.28829649542659</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>47.94167529417165</v>
+        <v>42.10386328447692</v>
       </c>
       <c r="H18">
-        <v>6.289579533113934</v>
+        <v>6.063496572036535</v>
       </c>
       <c r="I18">
-        <v>4.963661512512753</v>
+        <v>4.607629067401478</v>
       </c>
       <c r="J18">
-        <v>15.06957648564766</v>
+        <v>13.5201438368767</v>
       </c>
       <c r="K18">
-        <v>24.66548467558313</v>
+        <v>21.72667484463724</v>
       </c>
       <c r="L18">
-        <v>4.854257570577639</v>
+        <v>15.85412317526974</v>
       </c>
       <c r="M18">
-        <v>12.26698266198753</v>
+        <v>16.26194893539738</v>
       </c>
       <c r="N18">
-        <v>6.401588736238086</v>
+        <v>4.911208167916324</v>
       </c>
       <c r="O18">
-        <v>10.34147314880152</v>
+        <v>12.53607520519814</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.71861262612192</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.3135322831305</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34896848599599</v>
+        <v>14.03955257296575</v>
       </c>
       <c r="C19">
-        <v>7.629657710613309</v>
+        <v>8.409966872703919</v>
       </c>
       <c r="D19">
-        <v>8.53658776050133</v>
+        <v>8.433081378473455</v>
       </c>
       <c r="E19">
-        <v>6.652028163065858</v>
+        <v>6.572474274467099</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.55250280336811</v>
+        <v>44.89785224788887</v>
       </c>
       <c r="H19">
-        <v>5.277366651736632</v>
+        <v>5.016478076228281</v>
       </c>
       <c r="I19">
-        <v>4.933150092719312</v>
+        <v>4.585721392062831</v>
       </c>
       <c r="J19">
-        <v>15.81424254860403</v>
+        <v>14.12171231476844</v>
       </c>
       <c r="K19">
-        <v>26.14732753511742</v>
+        <v>22.8228354267366</v>
       </c>
       <c r="L19">
-        <v>4.723947780093436</v>
+        <v>16.71972083962851</v>
       </c>
       <c r="M19">
-        <v>12.15774417354771</v>
+        <v>17.05974848912381</v>
       </c>
       <c r="N19">
-        <v>6.852660301718111</v>
+        <v>4.767701110373561</v>
       </c>
       <c r="O19">
-        <v>10.66068288148817</v>
+        <v>12.44904164515576</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.187448983401545</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.63925331293691</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.56500440895841</v>
+        <v>14.25305962310332</v>
       </c>
       <c r="C20">
-        <v>7.553967280142547</v>
+        <v>8.487021248725418</v>
       </c>
       <c r="D20">
-        <v>9.253637690234768</v>
+        <v>9.117445866868628</v>
       </c>
       <c r="E20">
-        <v>7.402845333016163</v>
+        <v>7.232423502653379</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>57.71476807662783</v>
+        <v>49.67852428683421</v>
       </c>
       <c r="H20">
-        <v>4.347488028640999</v>
+        <v>4.077497966798871</v>
       </c>
       <c r="I20">
-        <v>4.767460130316867</v>
+        <v>4.452027591325278</v>
       </c>
       <c r="J20">
-        <v>17.07714807587232</v>
+        <v>14.93814970721733</v>
       </c>
       <c r="K20">
-        <v>28.67357248242779</v>
+        <v>24.5612104142321</v>
       </c>
       <c r="L20">
-        <v>4.670309451543448</v>
+        <v>18.03549072119873</v>
       </c>
       <c r="M20">
-        <v>12.30602793907691</v>
+        <v>18.38201763722249</v>
       </c>
       <c r="N20">
-        <v>7.644532137827653</v>
+        <v>4.681944605232311</v>
       </c>
       <c r="O20">
-        <v>11.2882687169363</v>
+        <v>12.62572720491734</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.002158275817498</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.28039960078756</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.3934966100002</v>
+        <v>15.14161216993499</v>
       </c>
       <c r="C21">
-        <v>8.016719237486127</v>
+        <v>8.885638995583584</v>
       </c>
       <c r="D21">
-        <v>9.626628592996124</v>
+        <v>9.483497201491909</v>
       </c>
       <c r="E21">
-        <v>7.66776157387614</v>
+        <v>7.469435625182308</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>60.12552381246225</v>
+        <v>52.06131611543587</v>
       </c>
       <c r="H21">
-        <v>4.001617458583491</v>
+        <v>3.781374764159277</v>
       </c>
       <c r="I21">
-        <v>4.494704834751704</v>
+        <v>4.232980230168538</v>
       </c>
       <c r="J21">
-        <v>17.51039225397472</v>
+        <v>14.11370682556973</v>
       </c>
       <c r="K21">
-        <v>29.52218534386143</v>
+        <v>24.55419271792623</v>
       </c>
       <c r="L21">
-        <v>4.780708602801512</v>
+        <v>17.87176268173937</v>
       </c>
       <c r="M21">
-        <v>13.03875220807073</v>
+        <v>18.54729224032706</v>
       </c>
       <c r="N21">
-        <v>7.919602049659864</v>
+        <v>4.77527221419522</v>
       </c>
       <c r="O21">
-        <v>11.74934532565061</v>
+        <v>13.33153916728544</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.254142684039492</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.7506808811792</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92060910436603</v>
+        <v>15.70535042228164</v>
       </c>
       <c r="C22">
-        <v>8.302161860410513</v>
+        <v>9.116429769191333</v>
       </c>
       <c r="D22">
-        <v>9.839605432887163</v>
+        <v>9.694541515892883</v>
       </c>
       <c r="E22">
-        <v>7.804661978323652</v>
+        <v>7.593793323365644</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.53022585381744</v>
+        <v>53.5700016556955</v>
       </c>
       <c r="H22">
-        <v>3.790402518270982</v>
+        <v>3.601854883734152</v>
       </c>
       <c r="I22">
-        <v>4.3146180956431</v>
+        <v>4.085275753477745</v>
       </c>
       <c r="J22">
-        <v>17.76201099319822</v>
+        <v>13.51980392854215</v>
       </c>
       <c r="K22">
-        <v>30.01398213569523</v>
+        <v>24.4847454058282</v>
       </c>
       <c r="L22">
-        <v>4.853667734946232</v>
+        <v>17.71672972554848</v>
       </c>
       <c r="M22">
-        <v>13.49829829135298</v>
+        <v>18.61170167020034</v>
       </c>
       <c r="N22">
-        <v>8.05839690897173</v>
+        <v>4.838655016680542</v>
       </c>
       <c r="O22">
-        <v>12.02032718165383</v>
+        <v>13.77093697423911</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.375740457022889</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.02611543367471</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.6458021483884</v>
+        <v>15.40767252770854</v>
       </c>
       <c r="C23">
-        <v>8.132266556105911</v>
+        <v>8.994757730917231</v>
       </c>
       <c r="D23">
-        <v>9.729146770922778</v>
+        <v>9.582800439283169</v>
       </c>
       <c r="E23">
-        <v>7.736063145068547</v>
+        <v>7.529137781001774</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.90586347713661</v>
+        <v>52.77399247247567</v>
       </c>
       <c r="H23">
-        <v>3.901017905383994</v>
+        <v>3.694507870775692</v>
       </c>
       <c r="I23">
-        <v>4.400954550084702</v>
+        <v>4.15161735157995</v>
       </c>
       <c r="J23">
-        <v>17.65440349007109</v>
+        <v>13.97273853746768</v>
       </c>
       <c r="K23">
-        <v>29.80899616572795</v>
+        <v>24.61945337190727</v>
       </c>
       <c r="L23">
-        <v>4.815378662501188</v>
+        <v>17.8728713746784</v>
       </c>
       <c r="M23">
-        <v>13.25128897050745</v>
+        <v>18.65090510724809</v>
       </c>
       <c r="N23">
-        <v>7.981938347837084</v>
+        <v>4.805888764760056</v>
       </c>
       <c r="O23">
-        <v>11.87574036807027</v>
+        <v>13.53940066880155</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.311953754859374</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.87949096624099</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55569811471871</v>
+        <v>14.24232772919411</v>
       </c>
       <c r="C24">
-        <v>7.500142546990657</v>
+        <v>8.443401869361905</v>
       </c>
       <c r="D24">
-        <v>9.298399921049551</v>
+        <v>9.159664631622483</v>
       </c>
       <c r="E24">
-        <v>7.463875318551315</v>
+        <v>7.28678525006706</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.29110389481029</v>
+        <v>50.13818404865241</v>
       </c>
       <c r="H24">
-        <v>4.330437786429178</v>
+        <v>4.061409620189974</v>
       </c>
       <c r="I24">
-        <v>4.750267821235338</v>
+        <v>4.433303311130744</v>
       </c>
       <c r="J24">
-        <v>17.20084752124796</v>
+        <v>15.04652628376602</v>
       </c>
       <c r="K24">
-        <v>28.92820723792224</v>
+        <v>24.76185758261231</v>
       </c>
       <c r="L24">
-        <v>4.667122102113411</v>
+        <v>18.19435033505395</v>
       </c>
       <c r="M24">
-        <v>12.28241979904234</v>
+        <v>18.52718918079858</v>
       </c>
       <c r="N24">
-        <v>7.69223031104585</v>
+        <v>4.676050697276624</v>
       </c>
       <c r="O24">
-        <v>11.31681918193391</v>
+        <v>12.60498701605584</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.052518988626147</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.30965089689833</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.29097324876055</v>
+        <v>12.94667254599254</v>
       </c>
       <c r="C25">
-        <v>6.779047372988539</v>
+        <v>7.582687166189015</v>
       </c>
       <c r="D25">
-        <v>8.818746403281857</v>
+        <v>8.710059438865752</v>
       </c>
       <c r="E25">
-        <v>7.158501026382108</v>
+        <v>7.034972244729349</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>55.36851857334716</v>
+        <v>48.30096296982485</v>
       </c>
       <c r="H25">
-        <v>4.811091100272264</v>
+        <v>4.491053365587579</v>
       </c>
       <c r="I25">
-        <v>5.142787663775949</v>
+        <v>4.76857054674552</v>
       </c>
       <c r="J25">
-        <v>16.70648140974852</v>
+        <v>14.82294774362624</v>
       </c>
       <c r="K25">
-        <v>27.95471341049093</v>
+        <v>24.33169321323452</v>
       </c>
       <c r="L25">
-        <v>4.501688733015319</v>
+        <v>18.08634932080295</v>
       </c>
       <c r="M25">
-        <v>11.15300967623408</v>
+        <v>17.9922790918138</v>
       </c>
       <c r="N25">
-        <v>7.371377452834993</v>
+        <v>4.522214405655757</v>
       </c>
       <c r="O25">
-        <v>10.69013505242082</v>
+        <v>11.46077791368103</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.730039143956348</v>
       </c>
       <c r="Q25">
+        <v>10.66619346351838</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
